--- a/rmonize/data_proc_elem/DPE_KORA_S3_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S3_P1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E848D9-FE2E-43FF-BA46-8DB0D48B822E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338FC006-9B03-4965-A872-E4479B10B066}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22050" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="442">
   <si>
     <t>index</t>
   </si>
@@ -64,10 +64,6 @@
   </si>
   <si>
     <t>id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-id_creation</t>
   </si>
   <si>
     <t>id_creation</t>
@@ -2586,7 +2582,7 @@
   <dimension ref="A1:L127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2647,13 +2643,13 @@
         <v>11</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>442</v>
-      </c>
       <c r="E2" s="13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>12</v>
@@ -2662,16 +2658,16 @@
         <v>13</v>
       </c>
       <c r="H2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>15</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="16" customFormat="1">
@@ -2679,32 +2675,32 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="D3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F3" s="18" t="s">
+      <c r="G3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>21</v>
-      </c>
       <c r="H3" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="20"/>
       <c r="J3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="21" t="s">
         <v>15</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="16" customFormat="1">
@@ -2712,32 +2708,32 @@
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="D4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>24</v>
-      </c>
       <c r="G4" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="21" t="s">
         <v>15</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="16" customFormat="1">
@@ -2745,32 +2741,32 @@
         <v>4</v>
       </c>
       <c r="B5" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="D5" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>27</v>
-      </c>
       <c r="G5" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="21" t="s">
         <v>15</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="16" customFormat="1">
@@ -2778,32 +2774,32 @@
         <v>5</v>
       </c>
       <c r="B6" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="D6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="E6" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>31</v>
-      </c>
       <c r="G6" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="21" t="s">
         <v>31</v>
-      </c>
-      <c r="K6" s="21" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="16" customFormat="1">
@@ -2811,32 +2807,32 @@
         <v>6</v>
       </c>
       <c r="B7" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="D7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>35</v>
-      </c>
       <c r="G7" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="21" t="s">
         <v>15</v>
-      </c>
-      <c r="K7" s="21" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="16" customFormat="1">
@@ -2844,32 +2840,32 @@
         <v>7</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="D8" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F8" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>38</v>
-      </c>
       <c r="G8" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="22" t="s">
         <v>15</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="16" customFormat="1">
@@ -2877,34 +2873,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>40</v>
-      </c>
       <c r="D9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F9" s="16" t="s">
+      <c r="G9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="I9" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="J9" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="K9" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="16" customFormat="1">
@@ -2912,34 +2908,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="D10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F10" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="28" t="s">
+      <c r="J10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="16" customFormat="1">
@@ -2947,32 +2943,32 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>54</v>
-      </c>
       <c r="D11" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="16" customFormat="1">
@@ -2980,34 +2976,34 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="D12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="I12" s="17" t="s">
-        <v>60</v>
-      </c>
       <c r="J12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="16" customFormat="1">
@@ -3015,34 +3011,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="D13" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="29" t="s">
+      <c r="I13" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="30" t="s">
-        <v>65</v>
-      </c>
       <c r="J13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="16" customFormat="1">
@@ -3050,34 +3046,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="D14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F14" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F14" s="22" t="s">
+      <c r="G14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="8" t="s">
+      <c r="I14" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="I14" s="31" t="s">
-        <v>70</v>
-      </c>
       <c r="J14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="16" customFormat="1">
@@ -3085,34 +3081,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="D15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F15" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F15" s="22" t="s">
+      <c r="G15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>74</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="16" customFormat="1">
@@ -3120,34 +3116,34 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="D16" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="33" t="s">
+      <c r="I16" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="I16" s="34" t="s">
-        <v>79</v>
-      </c>
       <c r="J16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="16" customFormat="1">
@@ -3155,32 +3151,32 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="32" t="s">
-        <v>81</v>
-      </c>
       <c r="D17" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="16" customFormat="1">
@@ -3188,32 +3184,32 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="32" t="s">
-        <v>83</v>
-      </c>
       <c r="D18" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="16" customFormat="1">
@@ -3221,34 +3217,34 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="D19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F19" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F19" s="35" t="s">
+      <c r="G19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="36" t="s">
-        <v>87</v>
-      </c>
       <c r="J19" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="16" customFormat="1">
@@ -3256,34 +3252,34 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="32" t="s">
-        <v>89</v>
-      </c>
       <c r="D20" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="29" t="s">
+      <c r="I20" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="I20" s="30" t="s">
-        <v>65</v>
-      </c>
       <c r="J20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="16" customFormat="1">
@@ -3291,32 +3287,32 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="32" t="s">
-        <v>91</v>
-      </c>
       <c r="D21" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I21" s="20"/>
       <c r="J21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="16" customFormat="1">
@@ -3324,34 +3320,34 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="D22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F22" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F22" s="35" t="s">
+      <c r="G22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="36" t="s">
-        <v>95</v>
-      </c>
       <c r="J22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="16" customFormat="1">
@@ -3359,32 +3355,32 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="32" t="s">
-        <v>97</v>
-      </c>
       <c r="D23" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I23" s="20"/>
       <c r="J23" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="16" customFormat="1">
@@ -3392,34 +3388,34 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="D24" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F24" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F24" s="38" t="s">
+      <c r="G24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="I24" s="39" t="s">
-        <v>102</v>
-      </c>
       <c r="J24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K24" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="16" customFormat="1">
@@ -3427,34 +3423,34 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="D25" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F25" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F25" s="32" t="s">
+      <c r="G25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" s="32" t="s">
+      <c r="I25" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="I25" s="40" t="s">
-        <v>107</v>
-      </c>
       <c r="J25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="16" customFormat="1">
@@ -3462,34 +3458,34 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="D26" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F26" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F26" s="16" t="s">
+      <c r="G26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="17" t="s">
-        <v>111</v>
-      </c>
       <c r="J26" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="16" customFormat="1">
@@ -3497,34 +3493,34 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="D27" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" s="3" t="s">
+      <c r="I27" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="I27" s="41" t="s">
-        <v>116</v>
-      </c>
       <c r="J27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="16" customFormat="1">
@@ -3532,32 +3528,32 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="32" t="s">
-        <v>118</v>
-      </c>
       <c r="D28" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I28" s="41"/>
       <c r="J28" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="16" customFormat="1">
@@ -3565,34 +3561,34 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="D29" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D29" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" s="6" t="s">
+      <c r="I29" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="I29" s="42" t="s">
-        <v>123</v>
-      </c>
       <c r="J29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="16" customFormat="1">
@@ -3600,34 +3596,34 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="D30" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D30" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F30" s="5" t="s">
+      <c r="G30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" s="43" t="s">
-        <v>127</v>
-      </c>
       <c r="J30" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="16" customFormat="1">
@@ -3635,32 +3631,32 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="C31" s="32" t="s">
-        <v>129</v>
-      </c>
       <c r="D31" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I31" s="17"/>
       <c r="J31" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="16" customFormat="1">
@@ -3668,34 +3664,34 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="D32" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F32" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D32" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F32" s="16" t="s">
+      <c r="G32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I32" s="17" t="s">
-        <v>133</v>
-      </c>
       <c r="J32" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="16" customFormat="1">
@@ -3703,34 +3699,34 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="D33" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F33" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="D33" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F33" s="44" t="s">
+      <c r="G33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>137</v>
-      </c>
       <c r="J33" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="16" customFormat="1">
@@ -3738,34 +3734,34 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="D34" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F34" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="D34" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F34" s="16" t="s">
+      <c r="G34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>141</v>
-      </c>
       <c r="J34" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="16" customFormat="1">
@@ -3773,32 +3769,32 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="C35" s="32" t="s">
-        <v>143</v>
-      </c>
       <c r="D35" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I35" s="12"/>
       <c r="J35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K35" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="16" customFormat="1">
@@ -3806,32 +3802,32 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C36" s="32" t="s">
-        <v>145</v>
-      </c>
       <c r="D36" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I36" s="20"/>
       <c r="J36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K36" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="16" customFormat="1">
@@ -3839,34 +3835,34 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="D37" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F37" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="D37" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F37" s="16" t="s">
+      <c r="G37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I37" s="20" t="s">
-        <v>149</v>
-      </c>
       <c r="J37" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="16" customFormat="1">
@@ -3874,32 +3870,32 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="C38" s="32" t="s">
-        <v>151</v>
-      </c>
       <c r="D38" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I38" s="20"/>
       <c r="J38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K38" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="16" customFormat="1">
@@ -3907,34 +3903,34 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="D39" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F39" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="D39" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F39" s="16" t="s">
+      <c r="G39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I39" s="20" t="s">
-        <v>155</v>
-      </c>
       <c r="J39" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="16" customFormat="1">
@@ -3942,34 +3938,34 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="C40" s="45" t="s">
+      <c r="D40" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D40" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F40" s="3" t="s">
+      <c r="G40" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H40" s="1" t="s">
+      <c r="I40" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="I40" s="42" t="s">
-        <v>160</v>
-      </c>
       <c r="J40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:12" s="16" customFormat="1">
@@ -3977,34 +3973,34 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="D41" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D41" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H41" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H41" s="33" t="s">
+      <c r="I41" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="I41" s="42" t="s">
-        <v>165</v>
-      </c>
       <c r="J41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:12" s="16" customFormat="1">
@@ -4012,34 +4008,34 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="D42" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F42" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="D42" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F42" s="33" t="s">
+      <c r="G42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H42" s="33" t="s">
+      <c r="I42" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="I42" s="41" t="s">
-        <v>170</v>
-      </c>
       <c r="J42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:12" s="16" customFormat="1">
@@ -4047,34 +4043,34 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="D43" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F43" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="D43" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F43" s="38" t="s">
+      <c r="G43" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H43" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H43" s="38" t="s">
+      <c r="I43" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="I43" s="43" t="s">
-        <v>175</v>
-      </c>
       <c r="J43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="L43" s="22"/>
     </row>
@@ -4083,34 +4079,34 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="D44" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D44" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F44" s="6" t="s">
+      <c r="G44" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H44" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H44" s="6" t="s">
+      <c r="I44" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="I44" s="43" t="s">
-        <v>180</v>
-      </c>
       <c r="J44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:12" s="16" customFormat="1">
@@ -4118,34 +4114,34 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C45" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="D45" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F45" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="D45" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F45" s="44" t="s">
+      <c r="G45" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I45" s="41" t="s">
-        <v>184</v>
-      </c>
       <c r="J45" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:12" s="16" customFormat="1">
@@ -4153,32 +4149,32 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C46" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="C46" s="32" t="s">
-        <v>186</v>
-      </c>
       <c r="D46" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I46" s="12"/>
       <c r="J46" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K46" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:12" s="16" customFormat="1">
@@ -4186,32 +4182,32 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C47" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="C47" s="32" t="s">
-        <v>188</v>
-      </c>
       <c r="D47" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I47" s="12"/>
       <c r="J47" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K47" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="16" customFormat="1">
@@ -4219,34 +4215,34 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="C48" s="32" t="s">
+      <c r="D48" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I48" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="D48" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F48" s="3" t="s">
+      <c r="J48" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K48" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I48" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="16" customFormat="1">
@@ -4254,34 +4250,34 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C49" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="C49" s="37" t="s">
+      <c r="D49" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D49" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F49" s="3" t="s">
+      <c r="G49" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H49" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H49" s="3" t="s">
+      <c r="I49" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="I49" s="39" t="s">
-        <v>196</v>
-      </c>
       <c r="J49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K49" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:11" s="16" customFormat="1">
@@ -4289,34 +4285,34 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C50" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="C50" s="32" t="s">
+      <c r="D50" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F50" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="D50" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F50" s="16" t="s">
+      <c r="G50" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H50" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H50" s="16" t="s">
+      <c r="I50" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="I50" s="42" t="s">
-        <v>201</v>
-      </c>
       <c r="J50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K50" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="16" customFormat="1">
@@ -4324,34 +4320,34 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C51" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="D51" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F51" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="D51" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F51" s="33" t="s">
+      <c r="G51" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="G51" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I51" s="20" t="s">
-        <v>205</v>
-      </c>
       <c r="J51" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="16" customFormat="1">
@@ -4359,34 +4355,34 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C52" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="C52" s="32" t="s">
+      <c r="D52" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F52" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="D52" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F52" s="33" t="s">
+      <c r="G52" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I52" s="20" t="s">
-        <v>209</v>
-      </c>
       <c r="J52" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="16" customFormat="1">
@@ -4394,34 +4390,34 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C53" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="C53" s="32" t="s">
+      <c r="D53" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F53" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="D53" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F53" s="33" t="s">
+      <c r="G53" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="G53" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I53" s="20" t="s">
-        <v>213</v>
-      </c>
       <c r="J53" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="16" customFormat="1">
@@ -4429,34 +4425,34 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C54" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="C54" s="32" t="s">
+      <c r="D54" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F54" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="D54" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F54" s="6" t="s">
+      <c r="G54" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H54" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H54" s="29" t="s">
+      <c r="I54" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="I54" s="47" t="s">
-        <v>218</v>
-      </c>
       <c r="J54" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K54" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="16" customFormat="1">
@@ -4464,32 +4460,32 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C55" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="C55" s="32" t="s">
-        <v>220</v>
-      </c>
       <c r="D55" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I55" s="20"/>
       <c r="J55" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:11" s="16" customFormat="1">
@@ -4497,34 +4493,34 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C56" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="C56" s="32" t="s">
-        <v>222</v>
-      </c>
       <c r="D56" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F56" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H56" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="G56" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H56" s="29" t="s">
+      <c r="I56" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="I56" s="47" t="s">
-        <v>218</v>
-      </c>
       <c r="J56" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="16" customFormat="1">
@@ -4532,34 +4528,34 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C57" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="C57" s="32" t="s">
+      <c r="D57" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F57" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="D57" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F57" s="16" t="s">
+      <c r="G57" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I57" s="41" t="s">
-        <v>226</v>
-      </c>
       <c r="J57" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="16" customFormat="1">
@@ -4567,32 +4563,32 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C58" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="C58" s="32" t="s">
-        <v>228</v>
-      </c>
       <c r="D58" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I58" s="20"/>
       <c r="J58" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K58" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="16" customFormat="1">
@@ -4600,32 +4596,32 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C59" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="C59" s="32" t="s">
-        <v>230</v>
-      </c>
       <c r="D59" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I59" s="20"/>
       <c r="J59" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K59" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:11" s="16" customFormat="1">
@@ -4633,32 +4629,32 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C60" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="C60" s="32" t="s">
-        <v>232</v>
-      </c>
       <c r="D60" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I60" s="20"/>
       <c r="J60" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K60" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="16" customFormat="1">
@@ -4666,32 +4662,32 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C61" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="C61" s="32" t="s">
-        <v>234</v>
-      </c>
       <c r="D61" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I61" s="20"/>
       <c r="J61" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K61" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:11" s="16" customFormat="1">
@@ -4699,32 +4695,32 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C62" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="C62" s="32" t="s">
-        <v>236</v>
-      </c>
       <c r="D62" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I62" s="20"/>
       <c r="J62" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K62" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:11" s="16" customFormat="1">
@@ -4732,32 +4728,32 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C63" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="C63" s="32" t="s">
-        <v>238</v>
-      </c>
       <c r="D63" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I63" s="20"/>
       <c r="J63" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K63" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:11" s="16" customFormat="1">
@@ -4765,34 +4761,34 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C64" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="C64" s="32" t="s">
+      <c r="D64" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F64" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="D64" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F64" s="16" t="s">
+      <c r="G64" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="G64" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I64" s="20" t="s">
-        <v>242</v>
-      </c>
       <c r="J64" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:11" s="16" customFormat="1">
@@ -4800,34 +4796,34 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C65" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="C65" s="32" t="s">
+      <c r="D65" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D65" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F65" s="3" t="s">
+      <c r="G65" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H65" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="G65" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H65" s="3" t="s">
+      <c r="I65" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="I65" s="39" t="s">
-        <v>247</v>
-      </c>
       <c r="J65" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K65" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:11" s="16" customFormat="1">
@@ -4835,34 +4831,34 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C66" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="C66" s="32" t="s">
+      <c r="D66" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F66" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="D66" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F66" s="16" t="s">
+      <c r="G66" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I66" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I66" s="41" t="s">
-        <v>251</v>
-      </c>
       <c r="J66" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:11" s="16" customFormat="1">
@@ -4870,34 +4866,34 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C67" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="C67" s="32" t="s">
+      <c r="D67" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F67" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D67" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F67" s="6" t="s">
+      <c r="G67" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H67" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="G67" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H67" s="6" t="s">
+      <c r="I67" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="I67" s="39" t="s">
-        <v>256</v>
-      </c>
       <c r="J67" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K67" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:11" s="16" customFormat="1">
@@ -4905,34 +4901,34 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C68" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="C68" s="32" t="s">
+      <c r="D68" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F68" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="D68" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F68" s="16" t="s">
+      <c r="G68" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I68" s="41" t="s">
         <v>259</v>
       </c>
-      <c r="G68" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I68" s="41" t="s">
-        <v>260</v>
-      </c>
       <c r="J68" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:11" s="16" customFormat="1">
@@ -4940,32 +4936,32 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C69" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="C69" s="32" t="s">
-        <v>262</v>
-      </c>
       <c r="D69" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I69" s="20"/>
       <c r="J69" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K69" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="16" customFormat="1">
@@ -4973,34 +4969,34 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C70" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="C70" s="32" t="s">
+      <c r="D70" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F70" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="D70" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F70" s="6" t="s">
+      <c r="G70" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H70" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="G70" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H70" s="6" t="s">
+      <c r="I70" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="I70" s="42" t="s">
-        <v>267</v>
-      </c>
       <c r="J70" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K70" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:11" s="16" customFormat="1">
@@ -5008,34 +5004,34 @@
         <v>70</v>
       </c>
       <c r="B71" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C71" s="37" t="s">
         <v>268</v>
       </c>
-      <c r="C71" s="37" t="s">
+      <c r="D71" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F71" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="D71" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F71" s="33" t="s">
+      <c r="G71" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H71" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="G71" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H71" s="33" t="s">
+      <c r="I71" s="41" t="s">
         <v>271</v>
       </c>
-      <c r="I71" s="41" t="s">
-        <v>272</v>
-      </c>
       <c r="J71" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K71" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="72" spans="1:11" s="16" customFormat="1">
@@ -5043,34 +5039,34 @@
         <v>71</v>
       </c>
       <c r="B72" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="C72" s="32" t="s">
         <v>273</v>
       </c>
-      <c r="C72" s="32" t="s">
+      <c r="D72" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F72" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="D72" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F72" s="33" t="s">
+      <c r="G72" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I72" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I72" s="41" t="s">
-        <v>276</v>
-      </c>
       <c r="J72" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:11" s="16" customFormat="1">
@@ -5078,34 +5074,34 @@
         <v>72</v>
       </c>
       <c r="B73" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="C73" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="C73" s="32" t="s">
+      <c r="D73" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F73" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D73" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F73" s="6" t="s">
+      <c r="G73" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H73" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="G73" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H73" s="6" t="s">
+      <c r="I73" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="I73" s="42" t="s">
-        <v>281</v>
-      </c>
       <c r="J73" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K73" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="74" spans="1:11" s="16" customFormat="1">
@@ -5113,34 +5109,34 @@
         <v>73</v>
       </c>
       <c r="B74" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C74" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="C74" s="32" t="s">
+      <c r="D74" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F74" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="D74" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F74" s="33" t="s">
+      <c r="G74" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I74" s="41" t="s">
         <v>284</v>
       </c>
-      <c r="G74" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I74" s="41" t="s">
-        <v>285</v>
-      </c>
       <c r="J74" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:11" s="16" customFormat="1">
@@ -5148,34 +5144,34 @@
         <v>74</v>
       </c>
       <c r="B75" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="C75" s="32" t="s">
         <v>286</v>
       </c>
-      <c r="C75" s="32" t="s">
+      <c r="D75" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F75" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="D75" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F75" s="33" t="s">
+      <c r="G75" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I75" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="G75" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I75" s="41" t="s">
-        <v>289</v>
-      </c>
       <c r="J75" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:11" s="16" customFormat="1">
@@ -5183,34 +5179,34 @@
         <v>75</v>
       </c>
       <c r="B76" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C76" s="32" t="s">
         <v>290</v>
       </c>
-      <c r="C76" s="32" t="s">
+      <c r="D76" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F76" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="D76" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F76" s="33" t="s">
+      <c r="G76" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I76" s="41" t="s">
         <v>292</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I76" s="41" t="s">
-        <v>293</v>
-      </c>
       <c r="J76" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:11" s="16" customFormat="1">
@@ -5218,32 +5214,32 @@
         <v>76</v>
       </c>
       <c r="B77" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="C77" s="32" t="s">
         <v>294</v>
       </c>
-      <c r="C77" s="32" t="s">
-        <v>295</v>
-      </c>
       <c r="D77" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I77" s="20"/>
       <c r="J77" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K77" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="78" spans="1:11" s="16" customFormat="1">
@@ -5251,32 +5247,32 @@
         <v>77</v>
       </c>
       <c r="B78" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C78" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="C78" s="32" t="s">
-        <v>297</v>
-      </c>
       <c r="D78" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I78" s="12"/>
       <c r="J78" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K78" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:11" s="16" customFormat="1">
@@ -5284,32 +5280,32 @@
         <v>78</v>
       </c>
       <c r="B79" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C79" s="32" t="s">
         <v>298</v>
       </c>
-      <c r="C79" s="32" t="s">
-        <v>299</v>
-      </c>
       <c r="D79" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I79" s="12"/>
       <c r="J79" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K79" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:11" s="16" customFormat="1">
@@ -5317,34 +5313,34 @@
         <v>79</v>
       </c>
       <c r="B80" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C80" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="C80" s="32" t="s">
+      <c r="D80" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D80" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E80" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F80" s="2" t="s">
+      <c r="G80" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H80" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="G80" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H80" s="2" t="s">
+      <c r="I80" s="42" t="s">
         <v>303</v>
       </c>
-      <c r="I80" s="42" t="s">
-        <v>304</v>
-      </c>
       <c r="J80" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K80" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:11" s="16" customFormat="1">
@@ -5352,34 +5348,34 @@
         <v>80</v>
       </c>
       <c r="B81" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="C81" s="32" t="s">
         <v>305</v>
       </c>
-      <c r="C81" s="32" t="s">
+      <c r="D81" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F81" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="D81" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E81" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F81" s="33" t="s">
+      <c r="G81" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H81" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H81" s="33" t="s">
+      <c r="I81" s="41" t="s">
         <v>308</v>
       </c>
-      <c r="I81" s="41" t="s">
-        <v>309</v>
-      </c>
       <c r="J81" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K81" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="82" spans="1:11" s="16" customFormat="1">
@@ -5387,34 +5383,34 @@
         <v>81</v>
       </c>
       <c r="B82" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C82" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="C82" s="32" t="s">
+      <c r="D82" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F82" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="D82" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E82" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F82" s="16" t="s">
+      <c r="G82" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H82" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="G82" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H82" s="16" t="s">
+      <c r="I82" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="I82" s="42" t="s">
-        <v>314</v>
-      </c>
       <c r="J82" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K82" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="K82" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="83" spans="1:11" s="16" customFormat="1">
@@ -5422,34 +5418,34 @@
         <v>82</v>
       </c>
       <c r="B83" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C83" s="32" t="s">
         <v>315</v>
       </c>
-      <c r="C83" s="32" t="s">
+      <c r="D83" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F83" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="D83" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E83" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F83" s="33" t="s">
+      <c r="G83" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I83" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I83" s="12" t="s">
-        <v>318</v>
-      </c>
       <c r="J83" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:11" s="16" customFormat="1">
@@ -5457,32 +5453,32 @@
         <v>83</v>
       </c>
       <c r="B84" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="C84" s="32" t="s">
         <v>319</v>
       </c>
-      <c r="C84" s="32" t="s">
-        <v>320</v>
-      </c>
       <c r="D84" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I84" s="20"/>
       <c r="J84" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K84" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K84" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="85" spans="1:11" s="16" customFormat="1">
@@ -5490,32 +5486,32 @@
         <v>84</v>
       </c>
       <c r="B85" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="C85" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="C85" s="32" t="s">
-        <v>322</v>
-      </c>
       <c r="D85" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I85" s="12"/>
       <c r="J85" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K85" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K85" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:11" s="16" customFormat="1">
@@ -5523,34 +5519,34 @@
         <v>85</v>
       </c>
       <c r="B86" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="C86" s="32" t="s">
         <v>323</v>
       </c>
-      <c r="C86" s="32" t="s">
+      <c r="D86" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F86" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="D86" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E86" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F86" s="16" t="s">
+      <c r="G86" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I86" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="G86" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I86" s="20" t="s">
-        <v>326</v>
-      </c>
       <c r="J86" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:11" s="16" customFormat="1">
@@ -5558,32 +5554,32 @@
         <v>86</v>
       </c>
       <c r="B87" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C87" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="C87" s="32" t="s">
-        <v>328</v>
-      </c>
       <c r="D87" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I87" s="20"/>
       <c r="J87" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K87" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K87" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:11" s="16" customFormat="1">
@@ -5591,32 +5587,32 @@
         <v>87</v>
       </c>
       <c r="B88" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="C88" s="32" t="s">
         <v>329</v>
       </c>
-      <c r="C88" s="32" t="s">
-        <v>330</v>
-      </c>
       <c r="D88" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I88" s="20"/>
       <c r="J88" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K88" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K88" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="89" spans="1:11" s="16" customFormat="1">
@@ -5624,34 +5620,34 @@
         <v>88</v>
       </c>
       <c r="B89" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="C89" s="32" t="s">
         <v>331</v>
       </c>
-      <c r="C89" s="32" t="s">
+      <c r="D89" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D89" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E89" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F89" s="1" t="s">
+      <c r="G89" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H89" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="G89" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H89" s="1" t="s">
+      <c r="I89" s="43" t="s">
         <v>334</v>
       </c>
-      <c r="I89" s="43" t="s">
-        <v>335</v>
-      </c>
       <c r="J89" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K89" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="90" spans="1:11" s="16" customFormat="1">
@@ -5659,32 +5655,32 @@
         <v>89</v>
       </c>
       <c r="B90" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="C90" s="32" t="s">
         <v>336</v>
       </c>
-      <c r="C90" s="32" t="s">
-        <v>337</v>
-      </c>
       <c r="D90" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I90" s="20"/>
       <c r="J90" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K90" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K90" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:11" s="16" customFormat="1">
@@ -5692,32 +5688,32 @@
         <v>90</v>
       </c>
       <c r="B91" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="C91" s="32" t="s">
         <v>338</v>
       </c>
-      <c r="C91" s="32" t="s">
-        <v>339</v>
-      </c>
       <c r="D91" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I91" s="20"/>
       <c r="J91" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K91" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:11" s="16" customFormat="1">
@@ -5725,34 +5721,34 @@
         <v>91</v>
       </c>
       <c r="B92" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="C92" s="32" t="s">
         <v>340</v>
       </c>
-      <c r="C92" s="32" t="s">
+      <c r="D92" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F92" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="D92" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E92" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F92" s="3" t="s">
+      <c r="G92" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H92" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="G92" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H92" s="3" t="s">
+      <c r="I92" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="I92" s="12" t="s">
-        <v>344</v>
-      </c>
       <c r="J92" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K92" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="K92" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="93" spans="1:11" s="16" customFormat="1">
@@ -5760,34 +5756,34 @@
         <v>92</v>
       </c>
       <c r="B93" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="C93" s="32" t="s">
         <v>345</v>
       </c>
-      <c r="C93" s="32" t="s">
+      <c r="D93" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F93" s="33" t="s">
         <v>346</v>
       </c>
-      <c r="D93" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E93" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F93" s="33" t="s">
+      <c r="G93" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I93" s="41" t="s">
         <v>347</v>
       </c>
-      <c r="G93" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I93" s="41" t="s">
-        <v>348</v>
-      </c>
       <c r="J93" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:11" s="16" customFormat="1">
@@ -5795,34 +5791,34 @@
         <v>93</v>
       </c>
       <c r="B94" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="C94" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="C94" s="32" t="s">
+      <c r="D94" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F94" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="D94" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E94" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F94" s="16" t="s">
+      <c r="G94" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H94" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H94" s="16" t="s">
+      <c r="I94" s="39" t="s">
         <v>352</v>
       </c>
-      <c r="I94" s="39" t="s">
-        <v>353</v>
-      </c>
       <c r="J94" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="95" spans="1:11" s="16" customFormat="1">
@@ -5830,34 +5826,34 @@
         <v>94</v>
       </c>
       <c r="B95" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="C95" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="C95" s="32" t="s">
+      <c r="D95" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E95" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F95" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="D95" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E95" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F95" s="6" t="s">
+      <c r="G95" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H95" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="G95" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H95" s="6" t="s">
+      <c r="I95" s="42" t="s">
         <v>357</v>
       </c>
-      <c r="I95" s="42" t="s">
-        <v>358</v>
-      </c>
       <c r="J95" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K95" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="K95" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="96" spans="1:11" s="16" customFormat="1">
@@ -5865,34 +5861,34 @@
         <v>95</v>
       </c>
       <c r="B96" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="C96" s="32" t="s">
         <v>359</v>
       </c>
-      <c r="C96" s="32" t="s">
+      <c r="D96" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F96" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="D96" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E96" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F96" s="16" t="s">
+      <c r="G96" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H96" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="G96" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H96" s="16" t="s">
+      <c r="I96" s="42" t="s">
         <v>362</v>
       </c>
-      <c r="I96" s="42" t="s">
-        <v>363</v>
-      </c>
       <c r="J96" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K96" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="K96" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="97" spans="1:11" s="16" customFormat="1">
@@ -5900,34 +5896,34 @@
         <v>96</v>
       </c>
       <c r="B97" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="C97" s="32" t="s">
         <v>364</v>
       </c>
-      <c r="C97" s="32" t="s">
+      <c r="D97" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F97" s="33" t="s">
         <v>365</v>
       </c>
-      <c r="D97" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E97" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F97" s="33" t="s">
+      <c r="G97" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I97" s="41" t="s">
         <v>366</v>
       </c>
-      <c r="G97" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I97" s="41" t="s">
-        <v>367</v>
-      </c>
       <c r="J97" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:11" s="16" customFormat="1">
@@ -5935,32 +5931,32 @@
         <v>97</v>
       </c>
       <c r="B98" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="C98" s="32" t="s">
         <v>368</v>
       </c>
-      <c r="C98" s="32" t="s">
-        <v>369</v>
-      </c>
       <c r="D98" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I98" s="12"/>
       <c r="J98" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K98" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K98" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="99" spans="1:11" s="16" customFormat="1">
@@ -5968,32 +5964,32 @@
         <v>98</v>
       </c>
       <c r="B99" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="C99" s="32" t="s">
         <v>370</v>
       </c>
-      <c r="C99" s="32" t="s">
-        <v>371</v>
-      </c>
       <c r="D99" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I99" s="20"/>
       <c r="J99" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K99" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K99" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:11" s="16" customFormat="1">
@@ -6001,34 +5997,34 @@
         <v>99</v>
       </c>
       <c r="B100" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="C100" s="32" t="s">
         <v>372</v>
       </c>
-      <c r="C100" s="32" t="s">
+      <c r="D100" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F100" s="33" t="s">
         <v>373</v>
       </c>
-      <c r="D100" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E100" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F100" s="33" t="s">
+      <c r="G100" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I100" s="41" t="s">
         <v>374</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I100" s="41" t="s">
-        <v>375</v>
-      </c>
       <c r="J100" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:11" s="16" customFormat="1">
@@ -6036,34 +6032,34 @@
         <v>100</v>
       </c>
       <c r="B101" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="C101" s="32" t="s">
         <v>376</v>
       </c>
-      <c r="C101" s="32" t="s">
+      <c r="D101" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F101" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="D101" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E101" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F101" s="3" t="s">
+      <c r="G101" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H101" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H101" s="16" t="s">
+      <c r="I101" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="I101" s="12" t="s">
-        <v>380</v>
-      </c>
       <c r="J101" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="102" spans="1:11" s="16" customFormat="1">
@@ -6071,34 +6067,34 @@
         <v>101</v>
       </c>
       <c r="B102" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="C102" s="32" t="s">
         <v>381</v>
       </c>
-      <c r="C102" s="32" t="s">
+      <c r="D102" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F102" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="D102" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E102" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F102" s="16" t="s">
+      <c r="G102" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H102" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H102" s="16" t="s">
+      <c r="I102" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="I102" s="12" t="s">
-        <v>385</v>
-      </c>
       <c r="J102" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K102" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="103" spans="1:11" s="16" customFormat="1">
@@ -6106,32 +6102,32 @@
         <v>102</v>
       </c>
       <c r="B103" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="C103" s="32" t="s">
         <v>386</v>
       </c>
-      <c r="C103" s="32" t="s">
-        <v>387</v>
-      </c>
       <c r="D103" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I103" s="20"/>
       <c r="J103" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K103" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K103" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="104" spans="1:11" s="16" customFormat="1">
@@ -6139,34 +6135,34 @@
         <v>103</v>
       </c>
       <c r="B104" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="C104" s="32" t="s">
         <v>388</v>
       </c>
-      <c r="C104" s="32" t="s">
+      <c r="D104" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F104" s="33" t="s">
         <v>389</v>
       </c>
-      <c r="D104" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E104" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F104" s="33" t="s">
+      <c r="G104" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I104" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="G104" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I104" s="12" t="s">
-        <v>391</v>
-      </c>
       <c r="J104" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:11" s="16" customFormat="1">
@@ -6174,34 +6170,34 @@
         <v>104</v>
       </c>
       <c r="B105" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="C105" s="32" t="s">
         <v>392</v>
       </c>
-      <c r="C105" s="32" t="s">
+      <c r="D105" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E105" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F105" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="D105" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E105" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F105" s="16" t="s">
+      <c r="G105" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I105" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="G105" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I105" s="12" t="s">
-        <v>395</v>
-      </c>
       <c r="J105" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:11" s="16" customFormat="1">
@@ -6209,32 +6205,32 @@
         <v>105</v>
       </c>
       <c r="B106" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="C106" s="32" t="s">
         <v>396</v>
       </c>
-      <c r="C106" s="32" t="s">
-        <v>397</v>
-      </c>
       <c r="D106" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I106" s="12"/>
       <c r="J106" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K106" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K106" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="107" spans="1:11" s="16" customFormat="1">
@@ -6242,32 +6238,32 @@
         <v>106</v>
       </c>
       <c r="B107" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="C107" s="32" t="s">
         <v>398</v>
       </c>
-      <c r="C107" s="32" t="s">
-        <v>399</v>
-      </c>
       <c r="D107" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I107" s="12"/>
       <c r="J107" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K107" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K107" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="108" spans="1:11" s="16" customFormat="1">
@@ -6275,32 +6271,32 @@
         <v>107</v>
       </c>
       <c r="B108" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="C108" s="32" t="s">
         <v>400</v>
       </c>
-      <c r="C108" s="32" t="s">
-        <v>401</v>
-      </c>
       <c r="D108" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I108" s="12"/>
       <c r="J108" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K108" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K108" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="109" spans="1:11" s="16" customFormat="1">
@@ -6308,32 +6304,32 @@
         <v>108</v>
       </c>
       <c r="B109" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="C109" s="32" t="s">
         <v>402</v>
       </c>
-      <c r="C109" s="32" t="s">
-        <v>403</v>
-      </c>
       <c r="D109" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I109" s="12"/>
       <c r="J109" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K109" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K109" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="110" spans="1:11" s="16" customFormat="1">
@@ -6341,32 +6337,32 @@
         <v>109</v>
       </c>
       <c r="B110" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="C110" s="32" t="s">
         <v>404</v>
       </c>
-      <c r="C110" s="32" t="s">
-        <v>405</v>
-      </c>
       <c r="D110" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I110" s="20"/>
       <c r="J110" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K110" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K110" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="111" spans="1:11" s="16" customFormat="1">
@@ -6374,32 +6370,32 @@
         <v>110</v>
       </c>
       <c r="B111" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="C111" s="32" t="s">
         <v>406</v>
       </c>
-      <c r="C111" s="32" t="s">
-        <v>407</v>
-      </c>
       <c r="D111" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I111" s="20"/>
       <c r="J111" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K111" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K111" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="112" spans="1:11" s="16" customFormat="1">
@@ -6407,32 +6403,32 @@
         <v>111</v>
       </c>
       <c r="B112" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="C112" s="32" t="s">
         <v>408</v>
       </c>
-      <c r="C112" s="32" t="s">
-        <v>409</v>
-      </c>
       <c r="D112" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I112" s="20"/>
       <c r="J112" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K112" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K112" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="113" spans="1:11" s="16" customFormat="1">
@@ -6440,32 +6436,32 @@
         <v>112</v>
       </c>
       <c r="B113" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="C113" s="32" t="s">
         <v>410</v>
       </c>
-      <c r="C113" s="32" t="s">
-        <v>411</v>
-      </c>
       <c r="D113" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I113" s="20"/>
       <c r="J113" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K113" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K113" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="114" spans="1:11" s="16" customFormat="1">
@@ -6473,32 +6469,32 @@
         <v>113</v>
       </c>
       <c r="B114" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="C114" s="32" t="s">
         <v>412</v>
       </c>
-      <c r="C114" s="32" t="s">
-        <v>413</v>
-      </c>
       <c r="D114" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I114" s="20"/>
       <c r="J114" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K114" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K114" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="115" spans="1:11" s="16" customFormat="1">
@@ -6506,32 +6502,32 @@
         <v>114</v>
       </c>
       <c r="B115" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="C115" s="32" t="s">
         <v>414</v>
       </c>
-      <c r="C115" s="32" t="s">
-        <v>415</v>
-      </c>
       <c r="D115" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I115" s="20"/>
       <c r="J115" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K115" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K115" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="116" spans="1:11" s="16" customFormat="1">
@@ -6539,32 +6535,32 @@
         <v>115</v>
       </c>
       <c r="B116" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="C116" s="32" t="s">
         <v>416</v>
       </c>
-      <c r="C116" s="32" t="s">
-        <v>417</v>
-      </c>
       <c r="D116" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I116" s="20"/>
       <c r="J116" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K116" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K116" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="117" spans="1:11" s="16" customFormat="1">
@@ -6572,32 +6568,32 @@
         <v>116</v>
       </c>
       <c r="B117" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="C117" s="32" t="s">
         <v>418</v>
       </c>
-      <c r="C117" s="32" t="s">
-        <v>419</v>
-      </c>
       <c r="D117" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I117" s="20"/>
       <c r="J117" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K117" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K117" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="118" spans="1:11" s="16" customFormat="1">
@@ -6605,32 +6601,32 @@
         <v>117</v>
       </c>
       <c r="B118" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="C118" s="32" t="s">
         <v>420</v>
       </c>
-      <c r="C118" s="32" t="s">
-        <v>421</v>
-      </c>
       <c r="D118" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I118" s="12"/>
       <c r="J118" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K118" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K118" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="119" spans="1:11" s="16" customFormat="1">
@@ -6638,32 +6634,32 @@
         <v>118</v>
       </c>
       <c r="B119" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="C119" s="32" t="s">
         <v>422</v>
       </c>
-      <c r="C119" s="32" t="s">
-        <v>423</v>
-      </c>
       <c r="D119" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I119" s="12"/>
       <c r="J119" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K119" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K119" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="120" spans="1:11" s="16" customFormat="1">
@@ -6671,32 +6667,32 @@
         <v>119</v>
       </c>
       <c r="B120" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="C120" s="32" t="s">
         <v>424</v>
       </c>
-      <c r="C120" s="32" t="s">
-        <v>425</v>
-      </c>
       <c r="D120" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I120" s="12"/>
       <c r="J120" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K120" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K120" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="121" spans="1:11" s="16" customFormat="1">
@@ -6704,32 +6700,32 @@
         <v>120</v>
       </c>
       <c r="B121" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="C121" s="32" t="s">
         <v>426</v>
       </c>
-      <c r="C121" s="32" t="s">
-        <v>427</v>
-      </c>
       <c r="D121" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I121" s="12"/>
       <c r="J121" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K121" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K121" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="122" spans="1:11" s="16" customFormat="1">
@@ -6737,32 +6733,32 @@
         <v>121</v>
       </c>
       <c r="B122" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="C122" s="32" t="s">
         <v>428</v>
       </c>
-      <c r="C122" s="32" t="s">
-        <v>429</v>
-      </c>
       <c r="D122" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I122" s="12"/>
       <c r="J122" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K122" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K122" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="123" spans="1:11" s="16" customFormat="1">
@@ -6770,32 +6766,32 @@
         <v>122</v>
       </c>
       <c r="B123" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="C123" s="32" t="s">
         <v>430</v>
       </c>
-      <c r="C123" s="32" t="s">
-        <v>431</v>
-      </c>
       <c r="D123" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I123" s="12"/>
       <c r="J123" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K123" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K123" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="124" spans="1:11" s="16" customFormat="1">
@@ -6803,32 +6799,32 @@
         <v>123</v>
       </c>
       <c r="B124" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="C124" s="32" t="s">
         <v>432</v>
       </c>
-      <c r="C124" s="32" t="s">
-        <v>433</v>
-      </c>
       <c r="D124" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I124" s="12"/>
       <c r="J124" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K124" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K124" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="125" spans="1:11" s="16" customFormat="1">
@@ -6836,32 +6832,32 @@
         <v>124</v>
       </c>
       <c r="B125" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="C125" s="32" t="s">
         <v>434</v>
       </c>
-      <c r="C125" s="32" t="s">
-        <v>435</v>
-      </c>
       <c r="D125" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I125" s="12"/>
       <c r="J125" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K125" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K125" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="126" spans="1:11" s="16" customFormat="1">
@@ -6869,32 +6865,32 @@
         <v>125</v>
       </c>
       <c r="B126" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="C126" s="32" t="s">
         <v>436</v>
       </c>
-      <c r="C126" s="32" t="s">
-        <v>437</v>
-      </c>
       <c r="D126" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I126" s="12"/>
       <c r="J126" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K126" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K126" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="127" spans="1:11" s="16" customFormat="1">
@@ -6902,32 +6898,32 @@
         <v>126</v>
       </c>
       <c r="B127" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="C127" s="32" t="s">
         <v>438</v>
       </c>
-      <c r="C127" s="32" t="s">
-        <v>439</v>
-      </c>
       <c r="D127" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I127" s="12"/>
       <c r="J127" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K127" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K127" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -6936,27 +6932,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -7197,10 +7172,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8FD927B-486E-4736-8E9F-ABBC39C726CA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7217,20 +7224,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8FD927B-486E-4736-8E9F-ABBC39C726CA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_KORA_S3_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S3_P1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338FC006-9B03-4965-A872-E4479B10B066}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D322041-D426-4519-A070-7105285BDBE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22050" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -348,12 +348,6 @@
     <t>Legumes intake [g/d]</t>
   </si>
   <si>
-    <t xml:space="preserve">DV491 </t>
-  </si>
-  <si>
-    <t>DV491 (dry legumes) </t>
-  </si>
-  <si>
     <t>LEGUMES_0301</t>
   </si>
   <si>
@@ -1542,6 +1536,12 @@
   </si>
   <si>
     <t>text</t>
+  </si>
+  <si>
+    <t>AV491 (dry legumes) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AV491 </t>
   </si>
 </sst>
 </file>
@@ -2581,8 +2581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2643,13 +2643,13 @@
         <v>11</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>12</v>
@@ -2684,7 +2684,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>19</v>
@@ -2717,7 +2717,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>23</v>
@@ -2750,7 +2750,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>26</v>
@@ -2783,7 +2783,7 @@
         <v>29</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>30</v>
@@ -2816,7 +2816,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>34</v>
@@ -2849,7 +2849,7 @@
         <v>29</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F8" s="27" t="s">
         <v>37</v>
@@ -2882,7 +2882,7 @@
         <v>40</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>41</v>
@@ -2917,7 +2917,7 @@
         <v>40</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F10" s="48" t="s">
         <v>41</v>
@@ -2952,7 +2952,7 @@
         <v>40</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>54</v>
@@ -2985,7 +2985,7 @@
         <v>40</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>57</v>
@@ -3020,7 +3020,7 @@
         <v>40</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>62</v>
@@ -3055,7 +3055,7 @@
         <v>40</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F14" s="22" t="s">
         <v>67</v>
@@ -3090,7 +3090,7 @@
         <v>40</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>72</v>
@@ -3125,7 +3125,7 @@
         <v>40</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>76</v>
@@ -3160,7 +3160,7 @@
         <v>40</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>54</v>
@@ -3193,7 +3193,7 @@
         <v>40</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>54</v>
@@ -3226,7 +3226,7 @@
         <v>40</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F19" s="35" t="s">
         <v>85</v>
@@ -3261,7 +3261,7 @@
         <v>40</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>62</v>
@@ -3296,7 +3296,7 @@
         <v>40</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>54</v>
@@ -3329,10 +3329,10 @@
         <v>40</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>93</v>
+        <v>441</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>20</v>
@@ -3341,7 +3341,7 @@
         <v>20</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>94</v>
+        <v>440</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>50</v>
@@ -3355,16 +3355,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>54</v>
@@ -3388,28 +3388,28 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F24" s="38" t="s">
         <v>97</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F24" s="38" t="s">
-        <v>99</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I24" s="39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>50</v>
@@ -3423,28 +3423,28 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F25" s="32" t="s">
         <v>102</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>104</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H25" s="32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I25" s="40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>50</v>
@@ -3458,19 +3458,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F26" s="16" t="s">
         <v>107</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>109</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>20</v>
@@ -3479,7 +3479,7 @@
         <v>20</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>50</v>
@@ -3493,28 +3493,28 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I27" s="41" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>50</v>
@@ -3528,16 +3528,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>54</v>
@@ -3561,28 +3561,28 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C29" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I29" s="42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>50</v>
@@ -3596,19 +3596,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>20</v>
@@ -3617,7 +3617,7 @@
         <v>20</v>
       </c>
       <c r="I30" s="43" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>50</v>
@@ -3631,16 +3631,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>54</v>
@@ -3664,19 +3664,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F32" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>131</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>20</v>
@@ -3685,7 +3685,7 @@
         <v>20</v>
       </c>
       <c r="I32" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>50</v>
@@ -3699,19 +3699,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F33" s="44" t="s">
         <v>133</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F33" s="44" t="s">
-        <v>135</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>20</v>
@@ -3720,7 +3720,7 @@
         <v>20</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>50</v>
@@ -3734,19 +3734,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F34" s="16" t="s">
         <v>137</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>139</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>20</v>
@@ -3755,7 +3755,7 @@
         <v>20</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>50</v>
@@ -3769,16 +3769,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>54</v>
@@ -3802,16 +3802,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>54</v>
@@ -3835,19 +3835,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F37" s="16" t="s">
         <v>145</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>147</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>20</v>
@@ -3856,7 +3856,7 @@
         <v>20</v>
       </c>
       <c r="I37" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>50</v>
@@ -3870,16 +3870,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>54</v>
@@ -3903,19 +3903,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F39" s="16" t="s">
         <v>151</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>153</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>20</v>
@@ -3924,7 +3924,7 @@
         <v>20</v>
       </c>
       <c r="I39" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>50</v>
@@ -3938,28 +3938,28 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="C40" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I40" s="42" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>50</v>
@@ -3973,28 +3973,28 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H41" s="33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I41" s="42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>50</v>
@@ -4008,28 +4008,28 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F42" s="33" t="s">
         <v>165</v>
-      </c>
-      <c r="C42" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F42" s="33" t="s">
-        <v>167</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H42" s="33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I42" s="41" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>50</v>
@@ -4043,28 +4043,28 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F43" s="38" t="s">
         <v>170</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F43" s="38" t="s">
-        <v>172</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H43" s="38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I43" s="43" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>50</v>
@@ -4079,28 +4079,28 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>177</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I44" s="43" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>50</v>
@@ -4114,19 +4114,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F45" s="44" t="s">
         <v>180</v>
-      </c>
-      <c r="C45" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F45" s="44" t="s">
-        <v>182</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>20</v>
@@ -4135,7 +4135,7 @@
         <v>20</v>
       </c>
       <c r="I45" s="41" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>50</v>
@@ -4149,16 +4149,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>54</v>
@@ -4182,16 +4182,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>54</v>
@@ -4215,16 +4215,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>40</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>30</v>
@@ -4236,7 +4236,7 @@
         <v>30</v>
       </c>
       <c r="I48" s="46" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>30</v>
@@ -4250,28 +4250,28 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="C49" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I49" s="39" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>50</v>
@@ -4285,28 +4285,28 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F50" s="16" t="s">
         <v>196</v>
-      </c>
-      <c r="C50" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>198</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I50" s="42" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>50</v>
@@ -4320,19 +4320,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F51" s="33" t="s">
         <v>201</v>
-      </c>
-      <c r="C51" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F51" s="33" t="s">
-        <v>203</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>20</v>
@@ -4341,7 +4341,7 @@
         <v>20</v>
       </c>
       <c r="I51" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>50</v>
@@ -4355,19 +4355,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F52" s="33" t="s">
         <v>205</v>
-      </c>
-      <c r="C52" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F52" s="33" t="s">
-        <v>207</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>20</v>
@@ -4376,7 +4376,7 @@
         <v>20</v>
       </c>
       <c r="I52" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>50</v>
@@ -4390,19 +4390,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F53" s="33" t="s">
         <v>209</v>
-      </c>
-      <c r="C53" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F53" s="33" t="s">
-        <v>211</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>20</v>
@@ -4411,7 +4411,7 @@
         <v>20</v>
       </c>
       <c r="I53" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>50</v>
@@ -4425,28 +4425,28 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C54" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F54" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="C54" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H54" s="29" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I54" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J54" s="7" t="s">
         <v>45</v>
@@ -4460,16 +4460,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>54</v>
@@ -4493,28 +4493,28 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H56" s="29" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I56" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J56" s="7" t="s">
         <v>45</v>
@@ -4528,19 +4528,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C57" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F57" s="16" t="s">
         <v>222</v>
-      </c>
-      <c r="C57" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F57" s="16" t="s">
-        <v>224</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>20</v>
@@ -4549,7 +4549,7 @@
         <v>20</v>
       </c>
       <c r="I57" s="41" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>50</v>
@@ -4563,16 +4563,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>54</v>
@@ -4596,16 +4596,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>54</v>
@@ -4629,16 +4629,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>54</v>
@@ -4662,16 +4662,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>54</v>
@@ -4695,16 +4695,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>54</v>
@@ -4728,16 +4728,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C63" s="32" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>54</v>
@@ -4761,19 +4761,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C64" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F64" s="16" t="s">
         <v>238</v>
-      </c>
-      <c r="C64" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F64" s="16" t="s">
-        <v>240</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>20</v>
@@ -4782,7 +4782,7 @@
         <v>20</v>
       </c>
       <c r="I64" s="20" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J64" s="3" t="s">
         <v>50</v>
@@ -4796,28 +4796,28 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C65" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="C65" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I65" s="39" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>50</v>
@@ -4831,19 +4831,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C66" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F66" s="16" t="s">
         <v>247</v>
-      </c>
-      <c r="C66" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F66" s="16" t="s">
-        <v>249</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>20</v>
@@ -4852,7 +4852,7 @@
         <v>20</v>
       </c>
       <c r="I66" s="41" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>50</v>
@@ -4866,28 +4866,28 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C67" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F67" s="6" t="s">
         <v>251</v>
-      </c>
-      <c r="C67" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>253</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I67" s="39" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>50</v>
@@ -4901,19 +4901,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C68" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F68" s="16" t="s">
         <v>256</v>
-      </c>
-      <c r="C68" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F68" s="16" t="s">
-        <v>258</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>20</v>
@@ -4922,7 +4922,7 @@
         <v>20</v>
       </c>
       <c r="I68" s="41" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J68" s="3" t="s">
         <v>50</v>
@@ -4936,16 +4936,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>54</v>
@@ -4969,28 +4969,28 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C70" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F70" s="6" t="s">
         <v>262</v>
-      </c>
-      <c r="C70" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>264</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I70" s="42" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>50</v>
@@ -5004,28 +5004,28 @@
         <v>70</v>
       </c>
       <c r="B71" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="C71" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F71" s="33" t="s">
         <v>267</v>
-      </c>
-      <c r="C71" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F71" s="33" t="s">
-        <v>269</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H71" s="33" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I71" s="41" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>50</v>
@@ -5039,19 +5039,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="C72" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F72" s="33" t="s">
         <v>272</v>
-      </c>
-      <c r="C72" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F72" s="33" t="s">
-        <v>274</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>20</v>
@@ -5060,7 +5060,7 @@
         <v>20</v>
       </c>
       <c r="I72" s="41" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>50</v>
@@ -5074,28 +5074,28 @@
         <v>72</v>
       </c>
       <c r="B73" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C73" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F73" s="6" t="s">
         <v>276</v>
-      </c>
-      <c r="C73" s="32" t="s">
-        <v>277</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>278</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I73" s="42" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J73" s="3" t="s">
         <v>50</v>
@@ -5109,19 +5109,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C74" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F74" s="33" t="s">
         <v>281</v>
-      </c>
-      <c r="C74" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F74" s="33" t="s">
-        <v>283</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>20</v>
@@ -5130,7 +5130,7 @@
         <v>20</v>
       </c>
       <c r="I74" s="41" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>50</v>
@@ -5144,19 +5144,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="C75" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F75" s="33" t="s">
         <v>285</v>
-      </c>
-      <c r="C75" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F75" s="33" t="s">
-        <v>287</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>20</v>
@@ -5165,7 +5165,7 @@
         <v>20</v>
       </c>
       <c r="I75" s="41" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J75" s="3" t="s">
         <v>50</v>
@@ -5179,19 +5179,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C76" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F76" s="33" t="s">
         <v>289</v>
-      </c>
-      <c r="C76" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F76" s="33" t="s">
-        <v>291</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>20</v>
@@ -5200,7 +5200,7 @@
         <v>20</v>
       </c>
       <c r="I76" s="41" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>50</v>
@@ -5214,16 +5214,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C77" s="32" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D77" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>54</v>
@@ -5247,16 +5247,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D78" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>54</v>
@@ -5280,16 +5280,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C79" s="32" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D79" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>54</v>
@@ -5313,28 +5313,28 @@
         <v>79</v>
       </c>
       <c r="B80" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C80" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="C80" s="32" t="s">
-        <v>300</v>
-      </c>
-      <c r="D80" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E80" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I80" s="42" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>50</v>
@@ -5348,28 +5348,28 @@
         <v>80</v>
       </c>
       <c r="B81" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="C81" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F81" s="33" t="s">
         <v>304</v>
-      </c>
-      <c r="C81" s="32" t="s">
-        <v>305</v>
-      </c>
-      <c r="D81" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E81" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F81" s="33" t="s">
-        <v>306</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H81" s="33" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I81" s="41" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>50</v>
@@ -5383,28 +5383,28 @@
         <v>81</v>
       </c>
       <c r="B82" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="C82" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F82" s="16" t="s">
         <v>309</v>
-      </c>
-      <c r="C82" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E82" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F82" s="16" t="s">
-        <v>311</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H82" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I82" s="42" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J82" s="3" t="s">
         <v>50</v>
@@ -5418,19 +5418,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="C83" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F83" s="33" t="s">
         <v>314</v>
-      </c>
-      <c r="C83" s="32" t="s">
-        <v>315</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E83" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F83" s="33" t="s">
-        <v>316</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>20</v>
@@ -5439,7 +5439,7 @@
         <v>20</v>
       </c>
       <c r="I83" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>50</v>
@@ -5453,16 +5453,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C84" s="32" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D84" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>54</v>
@@ -5486,16 +5486,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C85" s="32" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D85" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>54</v>
@@ -5519,19 +5519,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="C86" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F86" s="16" t="s">
         <v>322</v>
-      </c>
-      <c r="C86" s="32" t="s">
-        <v>323</v>
-      </c>
-      <c r="D86" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E86" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F86" s="16" t="s">
-        <v>324</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>20</v>
@@ -5540,7 +5540,7 @@
         <v>20</v>
       </c>
       <c r="I86" s="20" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>50</v>
@@ -5554,16 +5554,16 @@
         <v>86</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C87" s="32" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D87" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>54</v>
@@ -5587,16 +5587,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C88" s="32" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D88" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>54</v>
@@ -5620,28 +5620,28 @@
         <v>88</v>
       </c>
       <c r="B89" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="C89" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="C89" s="32" t="s">
-        <v>331</v>
-      </c>
-      <c r="D89" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E89" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I89" s="43" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>50</v>
@@ -5655,16 +5655,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C90" s="32" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D90" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>54</v>
@@ -5688,16 +5688,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C91" s="32" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D91" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>54</v>
@@ -5721,28 +5721,28 @@
         <v>91</v>
       </c>
       <c r="B92" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="C92" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F92" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="C92" s="32" t="s">
-        <v>340</v>
-      </c>
-      <c r="D92" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E92" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>341</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I92" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J92" s="3" t="s">
         <v>50</v>
@@ -5756,19 +5756,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="C93" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F93" s="33" t="s">
         <v>344</v>
-      </c>
-      <c r="C93" s="32" t="s">
-        <v>345</v>
-      </c>
-      <c r="D93" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E93" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F93" s="33" t="s">
-        <v>346</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>20</v>
@@ -5777,7 +5777,7 @@
         <v>20</v>
       </c>
       <c r="I93" s="41" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J93" s="3" t="s">
         <v>50</v>
@@ -5791,28 +5791,28 @@
         <v>93</v>
       </c>
       <c r="B94" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="C94" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F94" s="16" t="s">
         <v>348</v>
-      </c>
-      <c r="C94" s="32" t="s">
-        <v>349</v>
-      </c>
-      <c r="D94" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E94" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F94" s="16" t="s">
-        <v>350</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H94" s="16" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I94" s="39" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>50</v>
@@ -5826,28 +5826,28 @@
         <v>94</v>
       </c>
       <c r="B95" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="C95" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E95" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F95" s="6" t="s">
         <v>353</v>
-      </c>
-      <c r="C95" s="32" t="s">
-        <v>354</v>
-      </c>
-      <c r="D95" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E95" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>355</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I95" s="42" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J95" s="3" t="s">
         <v>50</v>
@@ -5861,28 +5861,28 @@
         <v>95</v>
       </c>
       <c r="B96" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C96" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F96" s="16" t="s">
         <v>358</v>
-      </c>
-      <c r="C96" s="32" t="s">
-        <v>359</v>
-      </c>
-      <c r="D96" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E96" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F96" s="16" t="s">
-        <v>360</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H96" s="16" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I96" s="42" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J96" s="3" t="s">
         <v>50</v>
@@ -5896,19 +5896,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="C97" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F97" s="33" t="s">
         <v>363</v>
-      </c>
-      <c r="C97" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="D97" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E97" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F97" s="33" t="s">
-        <v>365</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>20</v>
@@ -5917,7 +5917,7 @@
         <v>20</v>
       </c>
       <c r="I97" s="41" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J97" s="3" t="s">
         <v>50</v>
@@ -5931,16 +5931,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C98" s="32" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D98" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>54</v>
@@ -5964,16 +5964,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C99" s="32" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D99" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>54</v>
@@ -5997,19 +5997,19 @@
         <v>99</v>
       </c>
       <c r="B100" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="C100" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F100" s="33" t="s">
         <v>371</v>
-      </c>
-      <c r="C100" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="D100" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E100" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F100" s="33" t="s">
-        <v>373</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>20</v>
@@ -6018,7 +6018,7 @@
         <v>20</v>
       </c>
       <c r="I100" s="41" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>50</v>
@@ -6032,28 +6032,28 @@
         <v>100</v>
       </c>
       <c r="B101" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="C101" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F101" s="3" t="s">
         <v>375</v>
-      </c>
-      <c r="C101" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="D101" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E101" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>377</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H101" s="16" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I101" s="12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>50</v>
@@ -6067,28 +6067,28 @@
         <v>101</v>
       </c>
       <c r="B102" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="C102" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F102" s="16" t="s">
         <v>380</v>
-      </c>
-      <c r="C102" s="32" t="s">
-        <v>381</v>
-      </c>
-      <c r="D102" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E102" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F102" s="16" t="s">
-        <v>382</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H102" s="16" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I102" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>50</v>
@@ -6102,16 +6102,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C103" s="32" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D103" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>54</v>
@@ -6135,19 +6135,19 @@
         <v>103</v>
       </c>
       <c r="B104" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="C104" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F104" s="33" t="s">
         <v>387</v>
-      </c>
-      <c r="C104" s="32" t="s">
-        <v>388</v>
-      </c>
-      <c r="D104" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E104" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F104" s="33" t="s">
-        <v>389</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>20</v>
@@ -6156,7 +6156,7 @@
         <v>20</v>
       </c>
       <c r="I104" s="12" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="J104" s="3" t="s">
         <v>50</v>
@@ -6170,19 +6170,19 @@
         <v>104</v>
       </c>
       <c r="B105" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="C105" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E105" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F105" s="16" t="s">
         <v>391</v>
-      </c>
-      <c r="C105" s="32" t="s">
-        <v>392</v>
-      </c>
-      <c r="D105" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E105" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F105" s="16" t="s">
-        <v>393</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>20</v>
@@ -6191,7 +6191,7 @@
         <v>20</v>
       </c>
       <c r="I105" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J105" s="3" t="s">
         <v>50</v>
@@ -6205,16 +6205,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C106" s="32" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D106" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>54</v>
@@ -6238,16 +6238,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C107" s="32" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D107" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>54</v>
@@ -6271,16 +6271,16 @@
         <v>107</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C108" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D108" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>54</v>
@@ -6304,16 +6304,16 @@
         <v>108</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C109" s="32" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D109" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>54</v>
@@ -6337,16 +6337,16 @@
         <v>109</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C110" s="32" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D110" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>54</v>
@@ -6370,16 +6370,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C111" s="32" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D111" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>54</v>
@@ -6403,16 +6403,16 @@
         <v>111</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D112" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>54</v>
@@ -6436,16 +6436,16 @@
         <v>112</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C113" s="32" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D113" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>54</v>
@@ -6469,16 +6469,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C114" s="32" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D114" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>54</v>
@@ -6502,16 +6502,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C115" s="32" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D115" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>54</v>
@@ -6535,16 +6535,16 @@
         <v>115</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C116" s="32" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D116" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>54</v>
@@ -6568,16 +6568,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C117" s="32" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D117" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>54</v>
@@ -6601,16 +6601,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C118" s="32" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D118" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>54</v>
@@ -6634,16 +6634,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C119" s="32" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D119" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F119" s="3" t="s">
         <v>54</v>
@@ -6667,16 +6667,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C120" s="32" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D120" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>54</v>
@@ -6700,16 +6700,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C121" s="32" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D121" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>54</v>
@@ -6733,16 +6733,16 @@
         <v>121</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C122" s="32" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D122" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F122" s="3" t="s">
         <v>54</v>
@@ -6766,16 +6766,16 @@
         <v>122</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C123" s="32" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D123" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>54</v>
@@ -6799,16 +6799,16 @@
         <v>123</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C124" s="32" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D124" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>54</v>
@@ -6832,16 +6832,16 @@
         <v>124</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C125" s="32" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D125" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>54</v>
@@ -6865,16 +6865,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C126" s="32" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D126" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F126" s="3" t="s">
         <v>54</v>
@@ -6898,16 +6898,16 @@
         <v>126</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C127" s="32" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D127" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>54</v>

--- a/rmonize/data_proc_elem/DPE_KORA_S3_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S3_P1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D322041-D426-4519-A070-7105285BDBE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB76EC1-D746-4A2C-AE33-5191BDF8B9A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22050" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22056" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements_templa" sheetId="1" r:id="rId1"/>
@@ -165,6 +165,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">DV410 (potato) + DV420 (potato products)
@@ -175,6 +176,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>in this case, this combined group only consists of potatoes and no other tubers</t>
@@ -249,6 +251,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>DV440 (leafy and stem vegetables)</t>
     </r>
@@ -257,6 +260,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Gewichtung mit 0,5 sinnvoll?</t>
     </r>
@@ -827,6 +831,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">DV115 (sheep or goat meat) </t>
     </r>
@@ -835,6 +840,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Gewichtung mit 0,5 sinnvoll?</t>
     </r>
@@ -1538,17 +1544,17 @@
     <t>text</t>
   </si>
   <si>
-    <t>AV491 (dry legumes) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AV491 </t>
+    <t xml:space="preserve">DV491 </t>
+  </si>
+  <si>
+    <t>DV491 (dry legumes) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1560,6 +1566,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1705,33 +1712,32 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1763,7 +1769,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2130,7 +2136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2142,7 +2148,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2158,41 +2164,41 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2213,11 +2219,11 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2226,48 +2232,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2283,7 +2289,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2582,25 +2588,25 @@
   <dimension ref="A1:L127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="9"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="10"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="9"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="10"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="16" customFormat="1">
+    <row r="1" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -2635,7 +2641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="16" customFormat="1">
+    <row r="2" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -2670,7 +2676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="16" customFormat="1">
+    <row r="3" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -2703,7 +2709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="16" customFormat="1">
+    <row r="4" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -2736,7 +2742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="16" customFormat="1">
+    <row r="5" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -2769,7 +2775,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="16" customFormat="1">
+    <row r="6" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -2802,7 +2808,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="16" customFormat="1">
+    <row r="7" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>6</v>
       </c>
@@ -2835,7 +2841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="16" customFormat="1">
+    <row r="8" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -2868,7 +2874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="16" customFormat="1">
+    <row r="9" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>8</v>
       </c>
@@ -2903,7 +2909,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="16" customFormat="1">
+    <row r="10" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>9</v>
       </c>
@@ -2938,7 +2944,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="16" customFormat="1">
+    <row r="11" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -2971,7 +2977,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="16" customFormat="1">
+    <row r="12" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>11</v>
       </c>
@@ -3006,7 +3012,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="16" customFormat="1">
+    <row r="13" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>12</v>
       </c>
@@ -3041,7 +3047,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="16" customFormat="1">
+    <row r="14" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -3076,7 +3082,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="16" customFormat="1">
+    <row r="15" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>14</v>
       </c>
@@ -3111,7 +3117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="16" customFormat="1">
+    <row r="16" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>15</v>
       </c>
@@ -3146,7 +3152,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="16" customFormat="1">
+    <row r="17" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -3179,7 +3185,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="16" customFormat="1">
+    <row r="18" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>17</v>
       </c>
@@ -3212,7 +3218,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="16" customFormat="1">
+    <row r="19" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>18</v>
       </c>
@@ -3247,7 +3253,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="16" customFormat="1">
+    <row r="20" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -3282,7 +3288,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="16" customFormat="1">
+    <row r="21" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>20</v>
       </c>
@@ -3315,7 +3321,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="16" customFormat="1">
+    <row r="22" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>21</v>
       </c>
@@ -3332,7 +3338,7 @@
         <v>437</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>20</v>
@@ -3341,7 +3347,7 @@
         <v>20</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>50</v>
@@ -3350,7 +3356,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="16" customFormat="1">
+    <row r="23" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>22</v>
       </c>
@@ -3383,7 +3389,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="16" customFormat="1">
+    <row r="24" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>23</v>
       </c>
@@ -3418,7 +3424,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="16" customFormat="1">
+    <row r="25" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>24</v>
       </c>
@@ -3453,7 +3459,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="16" customFormat="1">
+    <row r="26" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>25</v>
       </c>
@@ -3488,7 +3494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="16" customFormat="1">
+    <row r="27" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>26</v>
       </c>
@@ -3523,7 +3529,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="16" customFormat="1">
+    <row r="28" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>27</v>
       </c>
@@ -3556,7 +3562,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="16" customFormat="1">
+    <row r="29" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>28</v>
       </c>
@@ -3591,7 +3597,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="16" customFormat="1">
+    <row r="30" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>29</v>
       </c>
@@ -3626,7 +3632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="16" customFormat="1">
+    <row r="31" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>30</v>
       </c>
@@ -3659,7 +3665,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="16" customFormat="1">
+    <row r="32" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>31</v>
       </c>
@@ -3694,7 +3700,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="16" customFormat="1">
+    <row r="33" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17">
         <v>32</v>
       </c>
@@ -3729,7 +3735,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="16" customFormat="1">
+    <row r="34" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17">
         <v>33</v>
       </c>
@@ -3764,7 +3770,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="16" customFormat="1">
+    <row r="35" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>34</v>
       </c>
@@ -3797,7 +3803,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="16" customFormat="1">
+    <row r="36" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17">
         <v>35</v>
       </c>
@@ -3830,7 +3836,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="16" customFormat="1">
+    <row r="37" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17">
         <v>36</v>
       </c>
@@ -3865,7 +3871,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="16" customFormat="1">
+    <row r="38" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
         <v>37</v>
       </c>
@@ -3898,7 +3904,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="16" customFormat="1">
+    <row r="39" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
         <v>38</v>
       </c>
@@ -3933,7 +3939,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="16" customFormat="1">
+    <row r="40" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="17">
         <v>39</v>
       </c>
@@ -3968,7 +3974,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="16" customFormat="1">
+    <row r="41" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
         <v>40</v>
       </c>
@@ -4003,7 +4009,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="16" customFormat="1">
+    <row r="42" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17">
         <v>41</v>
       </c>
@@ -4038,7 +4044,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="16" customFormat="1">
+    <row r="43" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="17">
         <v>42</v>
       </c>
@@ -4074,7 +4080,7 @@
       </c>
       <c r="L43" s="22"/>
     </row>
-    <row r="44" spans="1:12" s="16" customFormat="1">
+    <row r="44" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12">
         <v>43</v>
       </c>
@@ -4109,7 +4115,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="16" customFormat="1">
+    <row r="45" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="17">
         <v>44</v>
       </c>
@@ -4144,7 +4150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="16" customFormat="1">
+    <row r="46" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="17">
         <v>45</v>
       </c>
@@ -4177,7 +4183,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="16" customFormat="1">
+    <row r="47" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
         <v>46</v>
       </c>
@@ -4210,7 +4216,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="16" customFormat="1">
+    <row r="48" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17">
         <v>47</v>
       </c>
@@ -4245,7 +4251,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="16" customFormat="1">
+    <row r="49" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="17">
         <v>48</v>
       </c>
@@ -4280,7 +4286,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="16" customFormat="1">
+    <row r="50" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
         <v>49</v>
       </c>
@@ -4315,7 +4321,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="16" customFormat="1">
+    <row r="51" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="17">
         <v>50</v>
       </c>
@@ -4350,7 +4356,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="16" customFormat="1">
+    <row r="52" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="17">
         <v>51</v>
       </c>
@@ -4385,7 +4391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="16" customFormat="1">
+    <row r="53" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12">
         <v>52</v>
       </c>
@@ -4420,7 +4426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="16" customFormat="1">
+    <row r="54" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="17">
         <v>53</v>
       </c>
@@ -4455,7 +4461,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="16" customFormat="1">
+    <row r="55" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="17">
         <v>54</v>
       </c>
@@ -4488,7 +4494,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="16" customFormat="1">
+    <row r="56" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12">
         <v>55</v>
       </c>
@@ -4523,7 +4529,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="16" customFormat="1">
+    <row r="57" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="17">
         <v>56</v>
       </c>
@@ -4558,7 +4564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="16" customFormat="1">
+    <row r="58" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="17">
         <v>57</v>
       </c>
@@ -4591,7 +4597,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="16" customFormat="1">
+    <row r="59" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="12">
         <v>58</v>
       </c>
@@ -4624,7 +4630,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="16" customFormat="1">
+    <row r="60" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="17">
         <v>59</v>
       </c>
@@ -4657,7 +4663,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="16" customFormat="1">
+    <row r="61" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="17">
         <v>60</v>
       </c>
@@ -4690,7 +4696,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="16" customFormat="1">
+    <row r="62" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12">
         <v>61</v>
       </c>
@@ -4723,7 +4729,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="16" customFormat="1">
+    <row r="63" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="17">
         <v>62</v>
       </c>
@@ -4756,7 +4762,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="16" customFormat="1">
+    <row r="64" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="17">
         <v>63</v>
       </c>
@@ -4791,7 +4797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="16" customFormat="1">
+    <row r="65" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="12">
         <v>64</v>
       </c>
@@ -4826,7 +4832,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="16" customFormat="1">
+    <row r="66" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="17">
         <v>65</v>
       </c>
@@ -4861,7 +4867,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="16" customFormat="1">
+    <row r="67" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="17">
         <v>66</v>
       </c>
@@ -4896,7 +4902,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="16" customFormat="1">
+    <row r="68" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="12">
         <v>67</v>
       </c>
@@ -4931,7 +4937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="16" customFormat="1">
+    <row r="69" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="17">
         <v>68</v>
       </c>
@@ -4964,7 +4970,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="16" customFormat="1">
+    <row r="70" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="17">
         <v>69</v>
       </c>
@@ -4999,7 +5005,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="16" customFormat="1">
+    <row r="71" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="12">
         <v>70</v>
       </c>
@@ -5034,7 +5040,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="16" customFormat="1">
+    <row r="72" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="17">
         <v>71</v>
       </c>
@@ -5069,7 +5075,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="16" customFormat="1">
+    <row r="73" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="17">
         <v>72</v>
       </c>
@@ -5104,7 +5110,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="16" customFormat="1">
+    <row r="74" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12">
         <v>73</v>
       </c>
@@ -5139,7 +5145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="16" customFormat="1">
+    <row r="75" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="17">
         <v>74</v>
       </c>
@@ -5174,7 +5180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="16" customFormat="1">
+    <row r="76" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="17">
         <v>75</v>
       </c>
@@ -5209,7 +5215,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="16" customFormat="1">
+    <row r="77" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="12">
         <v>76</v>
       </c>
@@ -5242,7 +5248,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="16" customFormat="1">
+    <row r="78" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="17">
         <v>77</v>
       </c>
@@ -5275,7 +5281,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="16" customFormat="1">
+    <row r="79" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="17">
         <v>78</v>
       </c>
@@ -5308,7 +5314,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="16" customFormat="1">
+    <row r="80" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="12">
         <v>79</v>
       </c>
@@ -5343,7 +5349,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="16" customFormat="1">
+    <row r="81" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="17">
         <v>80</v>
       </c>
@@ -5378,7 +5384,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="16" customFormat="1">
+    <row r="82" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="17">
         <v>81</v>
       </c>
@@ -5413,7 +5419,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="16" customFormat="1">
+    <row r="83" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="12">
         <v>82</v>
       </c>
@@ -5448,7 +5454,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="16" customFormat="1">
+    <row r="84" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="17">
         <v>83</v>
       </c>
@@ -5481,7 +5487,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="16" customFormat="1">
+    <row r="85" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="17">
         <v>84</v>
       </c>
@@ -5514,7 +5520,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="16" customFormat="1">
+    <row r="86" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="12">
         <v>85</v>
       </c>
@@ -5549,7 +5555,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="16" customFormat="1">
+    <row r="87" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="17">
         <v>86</v>
       </c>
@@ -5582,7 +5588,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="16" customFormat="1">
+    <row r="88" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="17">
         <v>87</v>
       </c>
@@ -5615,7 +5621,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="16" customFormat="1">
+    <row r="89" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="12">
         <v>88</v>
       </c>
@@ -5650,7 +5656,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="16" customFormat="1">
+    <row r="90" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="17">
         <v>89</v>
       </c>
@@ -5683,7 +5689,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:11" s="16" customFormat="1">
+    <row r="91" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="17">
         <v>90</v>
       </c>
@@ -5716,7 +5722,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="16" customFormat="1">
+    <row r="92" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="12">
         <v>91</v>
       </c>
@@ -5751,7 +5757,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="16" customFormat="1">
+    <row r="93" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="17">
         <v>92</v>
       </c>
@@ -5786,7 +5792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="16" customFormat="1">
+    <row r="94" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="17">
         <v>93</v>
       </c>
@@ -5821,7 +5827,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="16" customFormat="1">
+    <row r="95" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="12">
         <v>94</v>
       </c>
@@ -5856,7 +5862,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="16" customFormat="1">
+    <row r="96" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="17">
         <v>95</v>
       </c>
@@ -5891,7 +5897,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="97" spans="1:11" s="16" customFormat="1">
+    <row r="97" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="17">
         <v>96</v>
       </c>
@@ -5926,7 +5932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:11" s="16" customFormat="1">
+    <row r="98" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="12">
         <v>97</v>
       </c>
@@ -5959,7 +5965,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="99" spans="1:11" s="16" customFormat="1">
+    <row r="99" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="17">
         <v>98</v>
       </c>
@@ -5992,7 +5998,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:11" s="16" customFormat="1">
+    <row r="100" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="17">
         <v>99</v>
       </c>
@@ -6027,7 +6033,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="16" customFormat="1">
+    <row r="101" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="12">
         <v>100</v>
       </c>
@@ -6062,7 +6068,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="102" spans="1:11" s="16" customFormat="1">
+    <row r="102" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="17">
         <v>101</v>
       </c>
@@ -6097,7 +6103,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="103" spans="1:11" s="16" customFormat="1">
+    <row r="103" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="17">
         <v>102</v>
       </c>
@@ -6130,7 +6136,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="1:11" s="16" customFormat="1">
+    <row r="104" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="12">
         <v>103</v>
       </c>
@@ -6165,7 +6171,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:11" s="16" customFormat="1">
+    <row r="105" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="17">
         <v>104</v>
       </c>
@@ -6200,7 +6206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:11" s="16" customFormat="1">
+    <row r="106" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="17">
         <v>105</v>
       </c>
@@ -6233,7 +6239,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="107" spans="1:11" s="16" customFormat="1">
+    <row r="107" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="12">
         <v>106</v>
       </c>
@@ -6266,7 +6272,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="108" spans="1:11" s="16" customFormat="1">
+    <row r="108" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="17">
         <v>107</v>
       </c>
@@ -6299,7 +6305,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="109" spans="1:11" s="16" customFormat="1">
+    <row r="109" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="17">
         <v>108</v>
       </c>
@@ -6332,7 +6338,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="1:11" s="16" customFormat="1">
+    <row r="110" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="12">
         <v>109</v>
       </c>
@@ -6365,7 +6371,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="1:11" s="16" customFormat="1">
+    <row r="111" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="17">
         <v>110</v>
       </c>
@@ -6398,7 +6404,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="112" spans="1:11" s="16" customFormat="1">
+    <row r="112" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="17">
         <v>111</v>
       </c>
@@ -6431,7 +6437,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="1:11" s="16" customFormat="1">
+    <row r="113" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="12">
         <v>112</v>
       </c>
@@ -6464,7 +6470,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="1:11" s="16" customFormat="1">
+    <row r="114" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="17">
         <v>113</v>
       </c>
@@ -6497,7 +6503,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="115" spans="1:11" s="16" customFormat="1">
+    <row r="115" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="17">
         <v>114</v>
       </c>
@@ -6530,7 +6536,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="116" spans="1:11" s="16" customFormat="1">
+    <row r="116" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="12">
         <v>115</v>
       </c>
@@ -6563,7 +6569,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="1:11" s="16" customFormat="1">
+    <row r="117" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="17">
         <v>116</v>
       </c>
@@ -6596,7 +6602,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:11" s="16" customFormat="1">
+    <row r="118" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="17">
         <v>117</v>
       </c>
@@ -6629,7 +6635,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="119" spans="1:11" s="16" customFormat="1">
+    <row r="119" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="12">
         <v>118</v>
       </c>
@@ -6662,7 +6668,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="1:11" s="16" customFormat="1">
+    <row r="120" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="17">
         <v>119</v>
       </c>
@@ -6695,7 +6701,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="1:11" s="16" customFormat="1">
+    <row r="121" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="17">
         <v>120</v>
       </c>
@@ -6728,7 +6734,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="1:11" s="16" customFormat="1">
+    <row r="122" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="12">
         <v>121</v>
       </c>
@@ -6761,7 +6767,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="123" spans="1:11" s="16" customFormat="1">
+    <row r="123" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="17">
         <v>122</v>
       </c>
@@ -6794,7 +6800,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="1:11" s="16" customFormat="1">
+    <row r="124" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="17">
         <v>123</v>
       </c>
@@ -6827,7 +6833,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:11" s="16" customFormat="1">
+    <row r="125" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="12">
         <v>124</v>
       </c>
@@ -6860,7 +6866,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="126" spans="1:11" s="16" customFormat="1">
+    <row r="126" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="17">
         <v>125</v>
       </c>
@@ -6893,7 +6899,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="1:11" s="16" customFormat="1">
+    <row r="127" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="17">
         <v>126</v>
       </c>
@@ -6932,6 +6938,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -7172,28 +7199,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4056A9CA-2F02-448B-95FE-A9EC616FB2A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8FD927B-486E-4736-8E9F-ABBC39C726CA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7210,23 +7235,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4056A9CA-2F02-448B-95FE-A9EC616FB2A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_KORA_S3_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S3_P1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\HarmonizR\use-cases-harmonisation\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1442E767-B7D0-411F-91C9-8BED54A43322}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236F5CA6-31EF-4031-9A67-8D6399CF295B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="444">
   <si>
     <t>index</t>
   </si>
@@ -71,19 +60,10 @@
     <t>Mlstr_harmo::status_detail</t>
   </si>
   <si>
-    <t>variable_ID</t>
-  </si>
-  <si>
     <t>participant identification number</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
     <t>KORA_S3_P1</t>
-  </si>
-  <si>
-    <t>id</t>
   </si>
   <si>
     <t>id_creation</t>
@@ -1514,6 +1494,12 @@
   </si>
   <si>
     <t>intake of amphibians, reptiles, snails, insects [g/d]</t>
+  </si>
+  <si>
+    <t>D_ID</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -2059,7 +2045,7 @@
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2081,11 +2067,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2136,8 +2117,8 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2497,7 +2478,7 @@
   <dimension ref="A1:L128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G144" sqref="G144"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2507,6 +2488,7 @@
     <col min="3" max="3" width="50" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="8"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
     <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.28515625" style="8" bestFit="1" customWidth="1"/>
@@ -2528,10 +2510,10 @@
       <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -2554,35 +2536,35 @@
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>442</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="H2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="J2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>15</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2590,98 +2572,98 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="G3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="H3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>18</v>
+      <c r="K3" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>25</v>
+      <c r="B4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>22</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>18</v>
+      <c r="K4" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>21</v>
+      <c r="B5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>18</v>
+      <c r="K5" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2689,32 +2671,32 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="G6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2722,98 +2704,98 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>33</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>18</v>
+      <c r="K7" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>32</v>
+      <c r="B8" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>18</v>
+      <c r="K8" s="11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>32</v>
+      <c r="B9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>18</v>
+      <c r="K9" s="11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2821,34 +2803,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="H10" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="I10" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="J10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="K10" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2856,34 +2838,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="K11" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2891,32 +2873,30 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>55</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="25"/>
+        <v>56</v>
+      </c>
+      <c r="I12" s="22"/>
       <c r="J12" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2924,34 +2904,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="I13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2959,34 +2939,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="I14" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="J14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="K14" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2994,34 +2974,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="I15" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>74</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -3029,34 +3009,34 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>78</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -3064,34 +3044,34 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="I17" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="I17" s="26" t="s">
-        <v>83</v>
-      </c>
       <c r="J17" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -3099,31 +3079,29 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>85</v>
+        <v>81</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>82</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -3131,32 +3109,30 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>84</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I19" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="I19" s="9"/>
       <c r="J19" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -3164,34 +3140,34 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="21" t="s">
-        <v>91</v>
-      </c>
       <c r="J20" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -3199,34 +3175,34 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>90</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="I21" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="K21" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3234,32 +3210,30 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>92</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I22" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="I22" s="9"/>
       <c r="J22" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3267,34 +3241,34 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>99</v>
-      </c>
       <c r="J23" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3302,32 +3276,30 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>101</v>
+        <v>97</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>98</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I24" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="I24" s="9"/>
       <c r="J24" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -3335,34 +3307,34 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="I25" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>106</v>
-      </c>
       <c r="J25" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -3370,34 +3342,34 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="I26" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="I26" s="24" t="s">
-        <v>111</v>
-      </c>
       <c r="J26" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -3405,34 +3377,34 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
+        <v>111</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" t="s">
-        <v>114</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>115</v>
-      </c>
       <c r="J27" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3440,34 +3412,34 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="I28" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="I28" s="25" t="s">
-        <v>120</v>
-      </c>
       <c r="J28" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3475,32 +3447,30 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" s="35" t="s">
-        <v>122</v>
+        <v>118</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>119</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I29" s="25"/>
+        <v>56</v>
+      </c>
+      <c r="I29" s="22"/>
       <c r="J29" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3508,34 +3478,34 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="I30" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="I30" s="26" t="s">
-        <v>127</v>
-      </c>
       <c r="J30" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -3543,34 +3513,34 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="C31" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I31" s="27" t="s">
-        <v>131</v>
-      </c>
       <c r="J31" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3578,32 +3548,30 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C32" s="35" t="s">
-        <v>133</v>
+        <v>129</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>130</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -3611,34 +3579,34 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>133</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" t="s">
-        <v>136</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="J33" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -3646,34 +3614,34 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C34" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>141</v>
-      </c>
       <c r="J34" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -3681,34 +3649,34 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>141</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C35" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" t="s">
-        <v>144</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>145</v>
-      </c>
       <c r="J35" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3716,31 +3684,29 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C36" s="35" t="s">
-        <v>147</v>
+        <v>143</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>144</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -3748,32 +3714,30 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C37" s="35" t="s">
-        <v>149</v>
+        <v>145</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>146</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I37" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="I37" s="9"/>
       <c r="J37" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -3781,34 +3745,34 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
+        <v>149</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C38" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" t="s">
-        <v>152</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>153</v>
-      </c>
       <c r="J38" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3816,32 +3780,30 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C39" s="35" t="s">
-        <v>155</v>
+        <v>151</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>152</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I39" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="I39" s="9"/>
       <c r="J39" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3849,34 +3811,34 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>155</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C40" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" t="s">
-        <v>158</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>159</v>
-      </c>
       <c r="J40" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3884,34 +3846,34 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="I41" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I41" s="26" t="s">
-        <v>164</v>
-      </c>
       <c r="J41" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3919,34 +3881,34 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H42" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="I42" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E42" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H42" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="I42" s="26" t="s">
-        <v>169</v>
-      </c>
       <c r="J42" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -3954,34 +3916,34 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H43" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="I43" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H43" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="I43" s="25" t="s">
-        <v>174</v>
-      </c>
       <c r="J43" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -3989,70 +3951,70 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H44" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="I44" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H44" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="I44" s="27" t="s">
-        <v>179</v>
-      </c>
       <c r="J44" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L44" s="14"/>
+        <v>53</v>
+      </c>
+      <c r="L44" s="11"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H45" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="I45" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="I45" s="27" t="s">
-        <v>184</v>
-      </c>
       <c r="J45" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -4060,34 +4022,34 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="C46" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I46" s="25" t="s">
-        <v>188</v>
-      </c>
       <c r="J46" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -4095,31 +4057,29 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C47" s="35" t="s">
-        <v>190</v>
+        <v>186</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>187</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E47" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F47" s="2"/>
       <c r="G47" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -4127,31 +4087,29 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C48" s="35" t="s">
-        <v>192</v>
+        <v>188</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>189</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -4159,34 +4117,32 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C49" s="35" t="s">
-        <v>194</v>
+        <v>190</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>191</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E49" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I49" s="25" t="s">
-        <v>195</v>
+        <v>30</v>
+      </c>
+      <c r="I49" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -4194,34 +4150,34 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="I50" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I50" s="23" t="s">
-        <v>200</v>
-      </c>
       <c r="J50" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -4229,34 +4185,34 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" t="s">
+        <v>200</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H51" t="s">
         <v>201</v>
       </c>
-      <c r="C51" s="35" t="s">
+      <c r="I51" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" t="s">
-        <v>203</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H51" t="s">
-        <v>204</v>
-      </c>
-      <c r="I51" s="26" t="s">
-        <v>205</v>
-      </c>
       <c r="J51" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -4264,34 +4220,34 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="C52" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I52" s="12" t="s">
-        <v>209</v>
-      </c>
       <c r="J52" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -4299,34 +4255,34 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C53" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E53" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I53" s="12" t="s">
-        <v>213</v>
-      </c>
       <c r="J53" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -4334,34 +4290,34 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C54" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C54" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E54" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I54" s="12" t="s">
-        <v>217</v>
-      </c>
       <c r="J54" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -4369,34 +4325,34 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C55" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H55" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="I55" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E55" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="G55" s="2" t="s">
+      <c r="J55" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H55" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="I55" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="K55" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -4404,32 +4360,30 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C56" s="35" t="s">
-        <v>224</v>
+        <v>220</v>
+      </c>
+      <c r="C56" s="32" t="s">
+        <v>221</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E56" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F56" s="2"/>
       <c r="G56" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I56" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="I56" s="9"/>
       <c r="J56" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -4437,34 +4391,34 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C57" s="35" t="s">
-        <v>226</v>
+        <v>222</v>
+      </c>
+      <c r="C57" s="32" t="s">
+        <v>223</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E57" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G57" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H57" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="I57" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="J57" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H57" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="I57" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="K57" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -4472,34 +4426,34 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C58" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>227</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="C58" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E58" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I58" s="25" t="s">
-        <v>231</v>
-      </c>
       <c r="J58" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -4507,32 +4461,30 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C59" s="35" t="s">
-        <v>233</v>
+        <v>229</v>
+      </c>
+      <c r="C59" s="32" t="s">
+        <v>230</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E59" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F59" s="2"/>
       <c r="G59" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I59" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="I59" s="9"/>
       <c r="J59" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -4540,32 +4492,30 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C60" s="35" t="s">
-        <v>235</v>
+        <v>231</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>232</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E60" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F60" s="2"/>
       <c r="G60" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I60" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="I60" s="9"/>
       <c r="J60" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -4573,32 +4523,30 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C61" s="35" t="s">
-        <v>237</v>
+        <v>233</v>
+      </c>
+      <c r="C61" s="32" t="s">
+        <v>234</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E61" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F61" s="2"/>
       <c r="G61" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I61" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="I61" s="9"/>
       <c r="J61" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -4606,32 +4554,30 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C62" s="35" t="s">
-        <v>239</v>
+        <v>235</v>
+      </c>
+      <c r="C62" s="32" t="s">
+        <v>236</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E62" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F62" s="2"/>
       <c r="G62" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I62" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="I62" s="9"/>
       <c r="J62" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -4639,32 +4585,30 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C63" s="35" t="s">
-        <v>241</v>
+        <v>237</v>
+      </c>
+      <c r="C63" s="32" t="s">
+        <v>238</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E63" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F63" s="2"/>
       <c r="G63" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I63" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="I63" s="9"/>
       <c r="J63" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -4672,32 +4616,30 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C64" s="35" t="s">
-        <v>243</v>
+        <v>239</v>
+      </c>
+      <c r="C64" s="32" t="s">
+        <v>240</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E64" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F64" s="2"/>
       <c r="G64" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I64" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="I64" s="9"/>
       <c r="J64" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4705,34 +4647,34 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C65" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>243</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I65" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="C65" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E65" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" t="s">
-        <v>246</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I65" s="12" t="s">
-        <v>247</v>
-      </c>
       <c r="J65" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -4740,34 +4682,34 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C66" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H66" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C66" s="35" t="s">
+      <c r="I66" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="D66" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E66" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I66" s="23" t="s">
-        <v>252</v>
-      </c>
       <c r="J66" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -4775,34 +4717,34 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C67" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" t="s">
+        <v>252</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I67" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="C67" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E67" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" t="s">
-        <v>255</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I67" s="25" t="s">
-        <v>256</v>
-      </c>
       <c r="J67" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -4810,34 +4752,34 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C68" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H68" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C68" s="35" t="s">
+      <c r="I68" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="D68" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E68" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="I68" s="23" t="s">
-        <v>261</v>
-      </c>
       <c r="J68" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -4845,34 +4787,34 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C69" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" t="s">
+        <v>261</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I69" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="C69" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E69" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" t="s">
-        <v>264</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I69" s="25" t="s">
-        <v>265</v>
-      </c>
       <c r="J69" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -4880,32 +4822,30 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C70" s="35" t="s">
-        <v>267</v>
+        <v>263</v>
+      </c>
+      <c r="C70" s="32" t="s">
+        <v>264</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E70" t="s">
-        <v>14</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F70" s="2"/>
       <c r="G70" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I70" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="I70" s="9"/>
       <c r="J70" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -4913,34 +4853,34 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C71" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H71" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C71" s="35" t="s">
+      <c r="I71" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="D71" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E71" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="I71" s="26" t="s">
-        <v>272</v>
-      </c>
       <c r="J71" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4948,34 +4888,34 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>270</v>
+      </c>
+      <c r="C72" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H72" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="C72" s="35" t="s">
+      <c r="I72" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="D72" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E72" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H72" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="I72" s="25" t="s">
-        <v>277</v>
-      </c>
       <c r="J72" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -4983,34 +4923,34 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>275</v>
+      </c>
+      <c r="C73" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E73" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I73" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="C73" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E73" t="s">
-        <v>14</v>
-      </c>
-      <c r="F73" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I73" s="25" t="s">
-        <v>281</v>
-      </c>
       <c r="J73" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -5018,34 +4958,34 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>279</v>
+      </c>
+      <c r="C74" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E74" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H74" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C74" s="35" t="s">
+      <c r="I74" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="D74" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E74" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="I74" s="26" t="s">
-        <v>286</v>
-      </c>
       <c r="J74" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -5053,34 +4993,34 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>284</v>
+      </c>
+      <c r="C75" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E75" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I75" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="C75" s="35" t="s">
-        <v>288</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E75" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I75" s="25" t="s">
-        <v>290</v>
-      </c>
       <c r="J75" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -5088,34 +5028,34 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>288</v>
+      </c>
+      <c r="C76" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E76" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I76" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="C76" s="35" t="s">
-        <v>292</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E76" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I76" s="25" t="s">
-        <v>294</v>
-      </c>
       <c r="J76" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -5123,34 +5063,34 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>292</v>
+      </c>
+      <c r="C77" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E77" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I77" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="C77" s="35" t="s">
-        <v>296</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E77" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I77" s="25" t="s">
-        <v>298</v>
-      </c>
       <c r="J77" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -5158,32 +5098,30 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>299</v>
-      </c>
-      <c r="C78" s="35" t="s">
-        <v>300</v>
+        <v>296</v>
+      </c>
+      <c r="C78" s="32" t="s">
+        <v>297</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E78" t="s">
-        <v>14</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F78" s="2"/>
       <c r="G78" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I78" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="I78" s="9"/>
       <c r="J78" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -5191,31 +5129,29 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>301</v>
-      </c>
-      <c r="C79" s="35" t="s">
-        <v>302</v>
+        <v>298</v>
+      </c>
+      <c r="C79" s="32" t="s">
+        <v>299</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E79" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F79" s="2"/>
       <c r="G79" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5223,31 +5159,29 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>303</v>
-      </c>
-      <c r="C80" s="35" t="s">
-        <v>304</v>
+        <v>300</v>
+      </c>
+      <c r="C80" s="32" t="s">
+        <v>301</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E80" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F80" s="2"/>
       <c r="G80" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5255,34 +5189,34 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>302</v>
+      </c>
+      <c r="C81" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E81" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H81" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C81" s="35" t="s">
+      <c r="I81" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="D81" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E81" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I81" s="26" t="s">
-        <v>309</v>
-      </c>
       <c r="J81" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5290,34 +5224,34 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>307</v>
+      </c>
+      <c r="C82" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E82" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H82" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="C82" s="35" t="s">
+      <c r="I82" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="D82" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E82" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H82" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="I82" s="25" t="s">
-        <v>314</v>
-      </c>
       <c r="J82" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5325,34 +5259,34 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>312</v>
+      </c>
+      <c r="C83" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E83" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" t="s">
+        <v>314</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H83" t="s">
         <v>315</v>
       </c>
-      <c r="C83" s="35" t="s">
+      <c r="I83" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="D83" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E83" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" t="s">
-        <v>317</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H83" t="s">
-        <v>318</v>
-      </c>
-      <c r="I83" s="26" t="s">
-        <v>319</v>
-      </c>
       <c r="J83" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5360,34 +5294,34 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>317</v>
+      </c>
+      <c r="C84" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E84" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I84" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="C84" s="35" t="s">
-        <v>321</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E84" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I84" s="8" t="s">
-        <v>323</v>
-      </c>
       <c r="J84" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -5395,32 +5329,30 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>324</v>
-      </c>
-      <c r="C85" s="35" t="s">
-        <v>325</v>
+        <v>321</v>
+      </c>
+      <c r="C85" s="32" t="s">
+        <v>322</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E85" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F85" s="2"/>
       <c r="G85" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I85" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="I85" s="9"/>
       <c r="J85" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -5428,31 +5360,29 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>326</v>
-      </c>
-      <c r="C86" s="35" t="s">
-        <v>327</v>
+        <v>323</v>
+      </c>
+      <c r="C86" s="32" t="s">
+        <v>324</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E86" t="s">
-        <v>14</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F86" s="2"/>
       <c r="G86" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -5460,34 +5390,34 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>325</v>
+      </c>
+      <c r="C87" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E87" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" t="s">
+        <v>327</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I87" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="C87" s="35" t="s">
-        <v>329</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E87" t="s">
-        <v>14</v>
-      </c>
-      <c r="F87" t="s">
-        <v>330</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I87" s="12" t="s">
-        <v>331</v>
-      </c>
       <c r="J87" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -5495,32 +5425,30 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>332</v>
-      </c>
-      <c r="C88" s="35" t="s">
-        <v>333</v>
+        <v>329</v>
+      </c>
+      <c r="C88" s="32" t="s">
+        <v>330</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E88" t="s">
-        <v>14</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F88" s="2"/>
       <c r="G88" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I88" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="I88" s="9"/>
       <c r="J88" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -5528,32 +5456,30 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>334</v>
-      </c>
-      <c r="C89" s="35" t="s">
-        <v>335</v>
+        <v>331</v>
+      </c>
+      <c r="C89" s="32" t="s">
+        <v>332</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E89" t="s">
-        <v>14</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F89" s="2"/>
       <c r="G89" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I89" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="I89" s="9"/>
       <c r="J89" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -5561,34 +5487,34 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>333</v>
+      </c>
+      <c r="C90" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E90" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H90" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C90" s="35" t="s">
+      <c r="I90" s="24" t="s">
         <v>337</v>
       </c>
-      <c r="D90" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E90" t="s">
-        <v>14</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="I90" s="27" t="s">
-        <v>340</v>
-      </c>
       <c r="J90" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -5596,32 +5522,30 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>341</v>
-      </c>
-      <c r="C91" s="35" t="s">
-        <v>342</v>
+        <v>338</v>
+      </c>
+      <c r="C91" s="32" t="s">
+        <v>339</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E91" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F91" s="2"/>
       <c r="G91" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I91" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="I91" s="9"/>
       <c r="J91" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -5629,32 +5553,30 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>343</v>
-      </c>
-      <c r="C92" s="35" t="s">
-        <v>344</v>
+        <v>340</v>
+      </c>
+      <c r="C92" s="32" t="s">
+        <v>341</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E92" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F92" s="2"/>
       <c r="G92" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I92" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="I92" s="9"/>
       <c r="J92" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -5662,34 +5584,34 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>342</v>
+      </c>
+      <c r="C93" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E93" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H93" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C93" s="35" t="s">
+      <c r="I93" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="D93" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E93" t="s">
-        <v>14</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="I93" s="8" t="s">
-        <v>349</v>
-      </c>
       <c r="J93" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -5697,34 +5619,34 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>347</v>
+      </c>
+      <c r="C94" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I94" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="C94" s="35" t="s">
-        <v>351</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E94" t="s">
-        <v>14</v>
-      </c>
-      <c r="F94" s="19" t="s">
-        <v>352</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I94" s="25" t="s">
-        <v>353</v>
-      </c>
       <c r="J94" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -5732,34 +5654,34 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>351</v>
+      </c>
+      <c r="C95" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E95" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" t="s">
+        <v>353</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H95" t="s">
         <v>354</v>
       </c>
-      <c r="C95" s="35" t="s">
+      <c r="I95" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="D95" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E95" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" t="s">
-        <v>356</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H95" t="s">
-        <v>357</v>
-      </c>
-      <c r="I95" s="23" t="s">
-        <v>358</v>
-      </c>
       <c r="J95" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5767,34 +5689,34 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>356</v>
+      </c>
+      <c r="C96" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E96" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H96" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="C96" s="35" t="s">
+      <c r="I96" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="D96" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E96" t="s">
-        <v>14</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H96" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="I96" s="26" t="s">
-        <v>363</v>
-      </c>
       <c r="J96" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -5802,34 +5724,34 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>361</v>
+      </c>
+      <c r="C97" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E97" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" t="s">
+        <v>363</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H97" t="s">
         <v>364</v>
       </c>
-      <c r="C97" s="35" t="s">
+      <c r="I97" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="D97" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E97" t="s">
-        <v>14</v>
-      </c>
-      <c r="F97" t="s">
-        <v>366</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H97" t="s">
-        <v>367</v>
-      </c>
-      <c r="I97" s="26" t="s">
-        <v>368</v>
-      </c>
       <c r="J97" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -5837,34 +5759,34 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>366</v>
+      </c>
+      <c r="C98" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E98" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I98" s="22" t="s">
         <v>369</v>
       </c>
-      <c r="C98" s="35" t="s">
-        <v>370</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E98" t="s">
-        <v>14</v>
-      </c>
-      <c r="F98" s="19" t="s">
-        <v>371</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I98" s="25" t="s">
-        <v>372</v>
-      </c>
       <c r="J98" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -5872,31 +5794,29 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>373</v>
-      </c>
-      <c r="C99" s="35" t="s">
-        <v>374</v>
+        <v>370</v>
+      </c>
+      <c r="C99" s="32" t="s">
+        <v>371</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E99" t="s">
-        <v>14</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F99" s="2"/>
       <c r="G99" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5904,32 +5824,30 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>375</v>
-      </c>
-      <c r="C100" s="35" t="s">
-        <v>376</v>
+        <v>372</v>
+      </c>
+      <c r="C100" s="32" t="s">
+        <v>373</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E100" t="s">
-        <v>14</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F100" s="2"/>
       <c r="G100" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I100" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="I100" s="9"/>
       <c r="J100" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -5937,34 +5855,34 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>374</v>
+      </c>
+      <c r="C101" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E101" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I101" s="22" t="s">
         <v>377</v>
       </c>
-      <c r="C101" s="35" t="s">
-        <v>378</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E101" t="s">
-        <v>14</v>
-      </c>
-      <c r="F101" s="19" t="s">
-        <v>379</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I101" s="25" t="s">
-        <v>380</v>
-      </c>
       <c r="J101" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -5972,34 +5890,34 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
+        <v>378</v>
+      </c>
+      <c r="C102" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E102" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H102" t="s">
         <v>381</v>
       </c>
-      <c r="C102" s="35" t="s">
+      <c r="I102" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="D102" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E102" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H102" t="s">
-        <v>384</v>
-      </c>
-      <c r="I102" s="8" t="s">
-        <v>385</v>
-      </c>
       <c r="J102" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -6007,34 +5925,34 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>383</v>
+      </c>
+      <c r="C103" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E103" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" t="s">
+        <v>385</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H103" t="s">
         <v>386</v>
       </c>
-      <c r="C103" s="35" t="s">
+      <c r="I103" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="D103" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E103" t="s">
-        <v>14</v>
-      </c>
-      <c r="F103" t="s">
-        <v>388</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H103" t="s">
-        <v>389</v>
-      </c>
-      <c r="I103" s="8" t="s">
-        <v>390</v>
-      </c>
       <c r="J103" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -6042,32 +5960,30 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>391</v>
-      </c>
-      <c r="C104" s="35" t="s">
-        <v>392</v>
+        <v>388</v>
+      </c>
+      <c r="C104" s="32" t="s">
+        <v>389</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E104" t="s">
-        <v>14</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F104" s="2"/>
       <c r="G104" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I104" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="I104" s="9"/>
       <c r="J104" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -6075,34 +5991,34 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>390</v>
+      </c>
+      <c r="C105" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E105" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I105" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="C105" s="35" t="s">
-        <v>394</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E105" t="s">
-        <v>14</v>
-      </c>
-      <c r="F105" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I105" s="8" t="s">
-        <v>396</v>
-      </c>
       <c r="J105" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -6110,34 +6026,34 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
+        <v>394</v>
+      </c>
+      <c r="C106" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E106" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" t="s">
+        <v>396</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I106" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="C106" s="35" t="s">
-        <v>398</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E106" t="s">
-        <v>14</v>
-      </c>
-      <c r="F106" t="s">
-        <v>399</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I106" s="8" t="s">
-        <v>400</v>
-      </c>
       <c r="J106" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -6145,31 +6061,29 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>401</v>
-      </c>
-      <c r="C107" s="35" t="s">
-        <v>402</v>
+        <v>398</v>
+      </c>
+      <c r="C107" s="32" t="s">
+        <v>399</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E107" t="s">
-        <v>14</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F107" s="2"/>
       <c r="G107" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -6177,31 +6091,29 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>403</v>
-      </c>
-      <c r="C108" s="35" t="s">
-        <v>404</v>
+        <v>400</v>
+      </c>
+      <c r="C108" s="32" t="s">
+        <v>401</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E108" t="s">
-        <v>14</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F108" s="2"/>
       <c r="G108" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -6209,31 +6121,29 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>405</v>
-      </c>
-      <c r="C109" s="35" t="s">
-        <v>406</v>
+        <v>402</v>
+      </c>
+      <c r="C109" s="32" t="s">
+        <v>403</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E109" t="s">
-        <v>14</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F109" s="2"/>
       <c r="G109" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -6241,31 +6151,29 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>407</v>
-      </c>
-      <c r="C110" s="35" t="s">
-        <v>408</v>
+        <v>404</v>
+      </c>
+      <c r="C110" s="32" t="s">
+        <v>405</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E110" t="s">
-        <v>14</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F110" s="2"/>
       <c r="G110" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -6273,32 +6181,30 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>409</v>
-      </c>
-      <c r="C111" s="35" t="s">
-        <v>410</v>
+        <v>406</v>
+      </c>
+      <c r="C111" s="32" t="s">
+        <v>407</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E111" t="s">
-        <v>14</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F111" s="2"/>
       <c r="G111" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I111" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="I111" s="9"/>
       <c r="J111" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -6306,32 +6212,30 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>411</v>
-      </c>
-      <c r="C112" s="35" t="s">
-        <v>412</v>
+        <v>408</v>
+      </c>
+      <c r="C112" s="32" t="s">
+        <v>409</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E112" t="s">
-        <v>14</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F112" s="2"/>
       <c r="G112" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I112" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="I112" s="9"/>
       <c r="J112" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -6339,32 +6243,30 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>413</v>
-      </c>
-      <c r="C113" s="35" t="s">
-        <v>414</v>
+        <v>410</v>
+      </c>
+      <c r="C113" s="32" t="s">
+        <v>411</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E113" t="s">
-        <v>14</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F113" s="2"/>
       <c r="G113" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I113" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="I113" s="9"/>
       <c r="J113" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -6372,32 +6274,30 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>415</v>
-      </c>
-      <c r="C114" s="35" t="s">
-        <v>416</v>
+        <v>412</v>
+      </c>
+      <c r="C114" s="32" t="s">
+        <v>413</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E114" t="s">
-        <v>14</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F114" s="2"/>
       <c r="G114" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I114" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="I114" s="9"/>
       <c r="J114" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -6405,32 +6305,30 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>417</v>
-      </c>
-      <c r="C115" s="35" t="s">
-        <v>418</v>
+        <v>414</v>
+      </c>
+      <c r="C115" s="32" t="s">
+        <v>415</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E115" t="s">
-        <v>14</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F115" s="2"/>
       <c r="G115" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I115" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="I115" s="9"/>
       <c r="J115" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -6438,32 +6336,30 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>419</v>
-      </c>
-      <c r="C116" s="35" t="s">
-        <v>420</v>
+        <v>416</v>
+      </c>
+      <c r="C116" s="32" t="s">
+        <v>417</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E116" t="s">
-        <v>14</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F116" s="2"/>
       <c r="G116" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I116" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="I116" s="9"/>
       <c r="J116" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -6471,32 +6367,30 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>421</v>
-      </c>
-      <c r="C117" s="35" t="s">
-        <v>422</v>
+        <v>418</v>
+      </c>
+      <c r="C117" s="32" t="s">
+        <v>419</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E117" t="s">
-        <v>14</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F117" s="2"/>
       <c r="G117" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I117" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="I117" s="9"/>
       <c r="J117" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -6504,32 +6398,30 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>423</v>
-      </c>
-      <c r="C118" s="35" t="s">
-        <v>424</v>
+        <v>420</v>
+      </c>
+      <c r="C118" s="32" t="s">
+        <v>421</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E118" t="s">
-        <v>14</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F118" s="2"/>
       <c r="G118" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I118" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="I118" s="9"/>
       <c r="J118" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -6537,31 +6429,29 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>425</v>
-      </c>
-      <c r="C119" s="35" t="s">
-        <v>426</v>
+        <v>422</v>
+      </c>
+      <c r="C119" s="32" t="s">
+        <v>423</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E119" t="s">
-        <v>14</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F119" s="2"/>
       <c r="G119" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -6569,31 +6459,29 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>427</v>
-      </c>
-      <c r="C120" s="35" t="s">
-        <v>428</v>
+        <v>424</v>
+      </c>
+      <c r="C120" s="32" t="s">
+        <v>425</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E120" t="s">
-        <v>14</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F120" s="2"/>
       <c r="G120" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6601,31 +6489,29 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>429</v>
-      </c>
-      <c r="C121" s="35" t="s">
-        <v>430</v>
+        <v>426</v>
+      </c>
+      <c r="C121" s="32" t="s">
+        <v>427</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E121" t="s">
-        <v>14</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F121" s="2"/>
       <c r="G121" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -6633,31 +6519,29 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>431</v>
-      </c>
-      <c r="C122" s="35" t="s">
-        <v>432</v>
+        <v>428</v>
+      </c>
+      <c r="C122" s="32" t="s">
+        <v>429</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E122" t="s">
-        <v>14</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F122" s="2"/>
       <c r="G122" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -6665,31 +6549,29 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>433</v>
-      </c>
-      <c r="C123" s="35" t="s">
-        <v>434</v>
+        <v>430</v>
+      </c>
+      <c r="C123" s="32" t="s">
+        <v>431</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E123" t="s">
-        <v>14</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F123" s="2"/>
       <c r="G123" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -6697,31 +6579,29 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>435</v>
-      </c>
-      <c r="C124" s="35" t="s">
-        <v>436</v>
+        <v>432</v>
+      </c>
+      <c r="C124" s="32" t="s">
+        <v>433</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E124" t="s">
-        <v>14</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F124" s="2"/>
       <c r="G124" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -6729,31 +6609,29 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>437</v>
-      </c>
-      <c r="C125" s="35" t="s">
-        <v>438</v>
+        <v>434</v>
+      </c>
+      <c r="C125" s="32" t="s">
+        <v>435</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E125" t="s">
-        <v>14</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F125" s="2"/>
       <c r="G125" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6761,31 +6639,29 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>439</v>
-      </c>
-      <c r="C126" s="35" t="s">
-        <v>440</v>
+        <v>436</v>
+      </c>
+      <c r="C126" s="32" t="s">
+        <v>437</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E126" t="s">
-        <v>14</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F126" s="2"/>
       <c r="G126" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -6793,31 +6669,29 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>441</v>
-      </c>
-      <c r="C127" s="35" t="s">
-        <v>442</v>
+        <v>438</v>
+      </c>
+      <c r="C127" s="32" t="s">
+        <v>439</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E127" t="s">
-        <v>14</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F127" s="2"/>
       <c r="G127" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -6825,31 +6699,29 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>443</v>
-      </c>
-      <c r="C128" s="35" t="s">
-        <v>444</v>
+        <v>440</v>
+      </c>
+      <c r="C128" s="32" t="s">
+        <v>441</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E128" t="s">
-        <v>14</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F128" s="2"/>
       <c r="G128" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -6858,15 +6730,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7111,27 +6980,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4056A9CA-2F02-448B-95FE-A9EC616FB2A9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7156,9 +7019,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4056A9CA-2F02-448B-95FE-A9EC616FB2A9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_KORA_S3_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S3_P1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\HarmonizR\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1442E767-B7D0-411F-91C9-8BED54A43322}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329A574C-BB57-4E6C-A9E5-71983EFD057C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -906,20 +895,6 @@
     <t>Intake of processed or preserved meat [g/d]</t>
   </si>
   <si>
-    <t>DV131; DV141; DV145; DV147; DV150; DV160</t>
-  </si>
-  <si>
-    <t>DV131 + DV141 + DV145 + DV147 + DV150 + DV160</t>
-  </si>
-  <si>
-    <t>DV131 (all kinds of minced meat) + 
-DV141 (sausage) + 
-DV145 (ham) + 
-DV147 (bacon) + 
-DV150 (canned, frozen meat or meat products) + 
-DV160 (other meat products)</t>
-  </si>
-  <si>
     <t>OFFALS_0705</t>
   </si>
   <si>
@@ -1514,6 +1489,15 @@
   </si>
   <si>
     <t>intake of amphibians, reptiles, snails, insects [g/d]</t>
+  </si>
+  <si>
+    <t>DV141; DV145; DV147; DV150; DV160</t>
+  </si>
+  <si>
+    <t>DV141 + DV145 + DV147 + DV150 + DV160</t>
+  </si>
+  <si>
+    <t>DV141 (sausage) + DV145 (ham) + DV147 (bacon) + DV150 (canned, frozen meat or meat products) + DV160 (other meat products)</t>
   </si>
 </sst>
 </file>
@@ -2117,9 +2101,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2137,6 +2118,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2496,8 +2480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G144" sqref="G144"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2507,6 +2491,7 @@
     <col min="3" max="3" width="50" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="8"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="130.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.28515625" style="8" bestFit="1" customWidth="1"/>
@@ -2557,7 +2542,7 @@
       <c r="B2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="35" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="10" t="s">
@@ -2592,7 +2577,7 @@
       <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="33" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -2625,7 +2610,7 @@
       <c r="B4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -2658,7 +2643,7 @@
       <c r="B5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="32" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="16" t="s">
@@ -2691,7 +2676,7 @@
       <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="33" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -2724,7 +2709,7 @@
       <c r="B7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="32" t="s">
         <v>36</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -2766,7 +2751,7 @@
       <c r="E8" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="29" t="s">
         <v>40</v>
       </c>
       <c r="G8" s="14" t="s">
@@ -2799,7 +2784,7 @@
       <c r="E9" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="31" t="s">
         <v>43</v>
       </c>
       <c r="G9" s="14" t="s">
@@ -2823,7 +2808,7 @@
       <c r="B10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -2858,7 +2843,7 @@
       <c r="B11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="34" t="s">
         <v>53</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -2867,7 +2852,7 @@
       <c r="E11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" t="s">
         <v>46</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -2893,7 +2878,7 @@
       <c r="B12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="34" t="s">
         <v>58</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -2926,7 +2911,7 @@
       <c r="B13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="34" t="s">
         <v>61</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -2961,7 +2946,7 @@
       <c r="B14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="34" t="s">
         <v>66</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -2996,7 +2981,7 @@
       <c r="B15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="34" t="s">
         <v>71</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -3031,7 +3016,7 @@
       <c r="B16" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="34" t="s">
         <v>76</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -3066,7 +3051,7 @@
       <c r="B17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="34" t="s">
         <v>80</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -3101,7 +3086,7 @@
       <c r="B18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="34" t="s">
         <v>85</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -3133,7 +3118,7 @@
       <c r="B19" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="34" t="s">
         <v>87</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -3166,7 +3151,7 @@
       <c r="B20" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="34" t="s">
         <v>89</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -3201,7 +3186,7 @@
       <c r="B21" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="34" t="s">
         <v>93</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -3236,7 +3221,7 @@
       <c r="B22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="34" t="s">
         <v>95</v>
       </c>
       <c r="D22" s="8" t="s">
@@ -3269,7 +3254,7 @@
       <c r="B23" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="34" t="s">
         <v>97</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -3304,7 +3289,7 @@
       <c r="B24" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="34" t="s">
         <v>101</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -3337,7 +3322,7 @@
       <c r="B25" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="34" t="s">
         <v>103</v>
       </c>
       <c r="D25" s="8" t="s">
@@ -3372,7 +3357,7 @@
       <c r="B26" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="34" t="s">
         <v>108</v>
       </c>
       <c r="D26" s="8" t="s">
@@ -3407,7 +3392,7 @@
       <c r="B27" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="34" t="s">
         <v>113</v>
       </c>
       <c r="D27" s="8" t="s">
@@ -3442,7 +3427,7 @@
       <c r="B28" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="34" t="s">
         <v>117</v>
       </c>
       <c r="D28" s="8" t="s">
@@ -3477,7 +3462,7 @@
       <c r="B29" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="34" t="s">
         <v>122</v>
       </c>
       <c r="D29" s="8" t="s">
@@ -3510,7 +3495,7 @@
       <c r="B30" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="34" t="s">
         <v>124</v>
       </c>
       <c r="D30" s="8" t="s">
@@ -3545,7 +3530,7 @@
       <c r="B31" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="34" t="s">
         <v>129</v>
       </c>
       <c r="D31" s="8" t="s">
@@ -3580,7 +3565,7 @@
       <c r="B32" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="34" t="s">
         <v>133</v>
       </c>
       <c r="D32" s="8" t="s">
@@ -3613,7 +3598,7 @@
       <c r="B33" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="34" t="s">
         <v>135</v>
       </c>
       <c r="D33" s="8" t="s">
@@ -3648,7 +3633,7 @@
       <c r="B34" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="34" t="s">
         <v>139</v>
       </c>
       <c r="D34" s="8" t="s">
@@ -3683,7 +3668,7 @@
       <c r="B35" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="34" t="s">
         <v>143</v>
       </c>
       <c r="D35" s="8" t="s">
@@ -3718,7 +3703,7 @@
       <c r="B36" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="34" t="s">
         <v>147</v>
       </c>
       <c r="D36" s="8" t="s">
@@ -3750,7 +3735,7 @@
       <c r="B37" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="34" t="s">
         <v>149</v>
       </c>
       <c r="D37" s="8" t="s">
@@ -3783,7 +3768,7 @@
       <c r="B38" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="34" t="s">
         <v>151</v>
       </c>
       <c r="D38" s="8" t="s">
@@ -3818,7 +3803,7 @@
       <c r="B39" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="34" t="s">
         <v>155</v>
       </c>
       <c r="D39" s="8" t="s">
@@ -3851,7 +3836,7 @@
       <c r="B40" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="34" t="s">
         <v>157</v>
       </c>
       <c r="D40" s="8" t="s">
@@ -3886,7 +3871,7 @@
       <c r="B41" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="34" t="s">
         <v>161</v>
       </c>
       <c r="D41" s="8" t="s">
@@ -3921,7 +3906,7 @@
       <c r="B42" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="34" t="s">
         <v>166</v>
       </c>
       <c r="D42" s="8" t="s">
@@ -3956,7 +3941,7 @@
       <c r="B43" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="34" t="s">
         <v>171</v>
       </c>
       <c r="D43" s="8" t="s">
@@ -3991,7 +3976,7 @@
       <c r="B44" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="34" t="s">
         <v>176</v>
       </c>
       <c r="D44" s="8" t="s">
@@ -4027,7 +4012,7 @@
       <c r="B45" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="34" t="s">
         <v>181</v>
       </c>
       <c r="D45" s="8" t="s">
@@ -4062,7 +4047,7 @@
       <c r="B46" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="34" t="s">
         <v>186</v>
       </c>
       <c r="D46" s="8" t="s">
@@ -4097,7 +4082,7 @@
       <c r="B47" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="34" t="s">
         <v>190</v>
       </c>
       <c r="D47" s="8" t="s">
@@ -4129,7 +4114,7 @@
       <c r="B48" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="34" t="s">
         <v>192</v>
       </c>
       <c r="D48" s="8" t="s">
@@ -4161,7 +4146,7 @@
       <c r="B49" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="34" t="s">
         <v>194</v>
       </c>
       <c r="D49" s="8" t="s">
@@ -4196,7 +4181,7 @@
       <c r="B50" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="C50" s="34" t="s">
         <v>197</v>
       </c>
       <c r="D50" s="8" t="s">
@@ -4231,7 +4216,7 @@
       <c r="B51" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C51" s="35" t="s">
+      <c r="C51" s="34" t="s">
         <v>202</v>
       </c>
       <c r="D51" s="8" t="s">
@@ -4266,7 +4251,7 @@
       <c r="B52" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="34" t="s">
         <v>207</v>
       </c>
       <c r="D52" s="8" t="s">
@@ -4301,7 +4286,7 @@
       <c r="B53" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="34" t="s">
         <v>211</v>
       </c>
       <c r="D53" s="8" t="s">
@@ -4336,7 +4321,7 @@
       <c r="B54" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="C54" s="34" t="s">
         <v>215</v>
       </c>
       <c r="D54" s="8" t="s">
@@ -4371,7 +4356,7 @@
       <c r="B55" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="34" t="s">
         <v>219</v>
       </c>
       <c r="D55" s="8" t="s">
@@ -4389,7 +4374,7 @@
       <c r="H55" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="I55" s="31" t="s">
+      <c r="I55" s="30" t="s">
         <v>222</v>
       </c>
       <c r="J55" s="1" t="s">
@@ -4406,7 +4391,7 @@
       <c r="B56" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C56" s="35" t="s">
+      <c r="C56" s="34" t="s">
         <v>224</v>
       </c>
       <c r="D56" s="8" t="s">
@@ -4439,7 +4424,7 @@
       <c r="B57" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="34" t="s">
         <v>226</v>
       </c>
       <c r="D57" s="8" t="s">
@@ -4457,7 +4442,7 @@
       <c r="H57" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="I57" s="31" t="s">
+      <c r="I57" s="30" t="s">
         <v>222</v>
       </c>
       <c r="J57" s="1" t="s">
@@ -4474,7 +4459,7 @@
       <c r="B58" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C58" s="35" t="s">
+      <c r="C58" s="34" t="s">
         <v>229</v>
       </c>
       <c r="D58" s="8" t="s">
@@ -4509,7 +4494,7 @@
       <c r="B59" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="C59" s="34" t="s">
         <v>233</v>
       </c>
       <c r="D59" s="8" t="s">
@@ -4542,7 +4527,7 @@
       <c r="B60" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C60" s="35" t="s">
+      <c r="C60" s="34" t="s">
         <v>235</v>
       </c>
       <c r="D60" s="8" t="s">
@@ -4575,7 +4560,7 @@
       <c r="B61" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C61" s="35" t="s">
+      <c r="C61" s="34" t="s">
         <v>237</v>
       </c>
       <c r="D61" s="8" t="s">
@@ -4608,7 +4593,7 @@
       <c r="B62" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C62" s="35" t="s">
+      <c r="C62" s="34" t="s">
         <v>239</v>
       </c>
       <c r="D62" s="8" t="s">
@@ -4641,7 +4626,7 @@
       <c r="B63" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C63" s="35" t="s">
+      <c r="C63" s="34" t="s">
         <v>241</v>
       </c>
       <c r="D63" s="8" t="s">
@@ -4674,7 +4659,7 @@
       <c r="B64" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C64" s="35" t="s">
+      <c r="C64" s="34" t="s">
         <v>243</v>
       </c>
       <c r="D64" s="8" t="s">
@@ -4707,7 +4692,7 @@
       <c r="B65" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C65" s="35" t="s">
+      <c r="C65" s="34" t="s">
         <v>245</v>
       </c>
       <c r="D65" s="8" t="s">
@@ -4735,14 +4720,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C66" s="35" t="s">
+      <c r="C66" s="34" t="s">
         <v>249</v>
       </c>
       <c r="D66" s="8" t="s">
@@ -4752,16 +4737,16 @@
         <v>14</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>250</v>
+        <v>442</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I66" s="23" t="s">
-        <v>252</v>
+        <v>443</v>
+      </c>
+      <c r="I66" s="36" t="s">
+        <v>444</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>55</v>
@@ -4775,10 +4760,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C67" s="35" t="s">
-        <v>254</v>
+        <v>250</v>
+      </c>
+      <c r="C67" s="34" t="s">
+        <v>251</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>32</v>
@@ -4787,7 +4772,7 @@
         <v>14</v>
       </c>
       <c r="F67" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>23</v>
@@ -4796,7 +4781,7 @@
         <v>23</v>
       </c>
       <c r="I67" s="25" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>55</v>
@@ -4810,10 +4795,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C68" s="35" t="s">
-        <v>258</v>
+        <v>254</v>
+      </c>
+      <c r="C68" s="34" t="s">
+        <v>255</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>32</v>
@@ -4822,16 +4807,16 @@
         <v>14</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I68" s="23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>55</v>
@@ -4845,10 +4830,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C69" s="35" t="s">
-        <v>263</v>
+        <v>259</v>
+      </c>
+      <c r="C69" s="34" t="s">
+        <v>260</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>32</v>
@@ -4857,7 +4842,7 @@
         <v>14</v>
       </c>
       <c r="F69" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>23</v>
@@ -4866,7 +4851,7 @@
         <v>23</v>
       </c>
       <c r="I69" s="25" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>55</v>
@@ -4880,10 +4865,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C70" s="35" t="s">
-        <v>267</v>
+        <v>263</v>
+      </c>
+      <c r="C70" s="34" t="s">
+        <v>264</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>32</v>
@@ -4913,10 +4898,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C71" s="35" t="s">
-        <v>269</v>
+        <v>265</v>
+      </c>
+      <c r="C71" s="34" t="s">
+        <v>266</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>32</v>
@@ -4925,16 +4910,16 @@
         <v>14</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I71" s="26" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>55</v>
@@ -4948,10 +4933,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>273</v>
-      </c>
-      <c r="C72" s="35" t="s">
-        <v>274</v>
+        <v>270</v>
+      </c>
+      <c r="C72" s="34" t="s">
+        <v>271</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>32</v>
@@ -4960,16 +4945,16 @@
         <v>14</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H72" s="19" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I72" s="25" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>55</v>
@@ -4983,10 +4968,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>278</v>
-      </c>
-      <c r="C73" s="35" t="s">
-        <v>279</v>
+        <v>275</v>
+      </c>
+      <c r="C73" s="34" t="s">
+        <v>276</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>32</v>
@@ -4995,7 +4980,7 @@
         <v>14</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>23</v>
@@ -5004,7 +4989,7 @@
         <v>23</v>
       </c>
       <c r="I73" s="25" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>55</v>
@@ -5018,10 +5003,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>282</v>
-      </c>
-      <c r="C74" s="35" t="s">
-        <v>283</v>
+        <v>279</v>
+      </c>
+      <c r="C74" s="34" t="s">
+        <v>280</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>32</v>
@@ -5030,16 +5015,16 @@
         <v>14</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I74" s="26" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>55</v>
@@ -5053,10 +5038,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>287</v>
-      </c>
-      <c r="C75" s="35" t="s">
-        <v>288</v>
+        <v>284</v>
+      </c>
+      <c r="C75" s="34" t="s">
+        <v>285</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>32</v>
@@ -5065,7 +5050,7 @@
         <v>14</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>23</v>
@@ -5074,7 +5059,7 @@
         <v>23</v>
       </c>
       <c r="I75" s="25" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>55</v>
@@ -5088,10 +5073,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>291</v>
-      </c>
-      <c r="C76" s="35" t="s">
-        <v>292</v>
+        <v>288</v>
+      </c>
+      <c r="C76" s="34" t="s">
+        <v>289</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>32</v>
@@ -5100,7 +5085,7 @@
         <v>14</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>23</v>
@@ -5109,7 +5094,7 @@
         <v>23</v>
       </c>
       <c r="I76" s="25" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>55</v>
@@ -5123,10 +5108,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>295</v>
-      </c>
-      <c r="C77" s="35" t="s">
-        <v>296</v>
+        <v>292</v>
+      </c>
+      <c r="C77" s="34" t="s">
+        <v>293</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>32</v>
@@ -5135,7 +5120,7 @@
         <v>14</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>23</v>
@@ -5144,7 +5129,7 @@
         <v>23</v>
       </c>
       <c r="I77" s="25" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>55</v>
@@ -5158,10 +5143,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>299</v>
-      </c>
-      <c r="C78" s="35" t="s">
-        <v>300</v>
+        <v>296</v>
+      </c>
+      <c r="C78" s="34" t="s">
+        <v>297</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>32</v>
@@ -5191,10 +5176,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>301</v>
-      </c>
-      <c r="C79" s="35" t="s">
-        <v>302</v>
+        <v>298</v>
+      </c>
+      <c r="C79" s="34" t="s">
+        <v>299</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>32</v>
@@ -5223,10 +5208,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>303</v>
-      </c>
-      <c r="C80" s="35" t="s">
-        <v>304</v>
+        <v>300</v>
+      </c>
+      <c r="C80" s="34" t="s">
+        <v>301</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>32</v>
@@ -5255,10 +5240,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>305</v>
-      </c>
-      <c r="C81" s="35" t="s">
-        <v>306</v>
+        <v>302</v>
+      </c>
+      <c r="C81" s="34" t="s">
+        <v>303</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>32</v>
@@ -5267,16 +5252,16 @@
         <v>14</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="I81" s="26" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>55</v>
@@ -5290,10 +5275,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>310</v>
-      </c>
-      <c r="C82" s="35" t="s">
-        <v>311</v>
+        <v>307</v>
+      </c>
+      <c r="C82" s="34" t="s">
+        <v>308</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>32</v>
@@ -5302,16 +5287,16 @@
         <v>14</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H82" s="19" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="I82" s="25" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>55</v>
@@ -5325,10 +5310,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>315</v>
-      </c>
-      <c r="C83" s="35" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="C83" s="34" t="s">
+        <v>313</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>32</v>
@@ -5337,16 +5322,16 @@
         <v>14</v>
       </c>
       <c r="F83" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I83" s="26" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>55</v>
@@ -5360,10 +5345,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>320</v>
-      </c>
-      <c r="C84" s="35" t="s">
-        <v>321</v>
+        <v>317</v>
+      </c>
+      <c r="C84" s="34" t="s">
+        <v>318</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>32</v>
@@ -5372,7 +5357,7 @@
         <v>14</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>23</v>
@@ -5381,7 +5366,7 @@
         <v>23</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>55</v>
@@ -5395,10 +5380,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>324</v>
-      </c>
-      <c r="C85" s="35" t="s">
-        <v>325</v>
+        <v>321</v>
+      </c>
+      <c r="C85" s="34" t="s">
+        <v>322</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>32</v>
@@ -5428,10 +5413,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>326</v>
-      </c>
-      <c r="C86" s="35" t="s">
-        <v>327</v>
+        <v>323</v>
+      </c>
+      <c r="C86" s="34" t="s">
+        <v>324</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>32</v>
@@ -5460,10 +5445,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>328</v>
-      </c>
-      <c r="C87" s="35" t="s">
-        <v>329</v>
+        <v>325</v>
+      </c>
+      <c r="C87" s="34" t="s">
+        <v>326</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>32</v>
@@ -5472,7 +5457,7 @@
         <v>14</v>
       </c>
       <c r="F87" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>23</v>
@@ -5481,7 +5466,7 @@
         <v>23</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>55</v>
@@ -5495,10 +5480,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>332</v>
-      </c>
-      <c r="C88" s="35" t="s">
-        <v>333</v>
+        <v>329</v>
+      </c>
+      <c r="C88" s="34" t="s">
+        <v>330</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>32</v>
@@ -5528,10 +5513,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>334</v>
-      </c>
-      <c r="C89" s="35" t="s">
-        <v>335</v>
+        <v>331</v>
+      </c>
+      <c r="C89" s="34" t="s">
+        <v>332</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>32</v>
@@ -5561,10 +5546,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>336</v>
-      </c>
-      <c r="C90" s="35" t="s">
-        <v>337</v>
+        <v>333</v>
+      </c>
+      <c r="C90" s="34" t="s">
+        <v>334</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>32</v>
@@ -5573,16 +5558,16 @@
         <v>14</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>47</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="I90" s="27" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>55</v>
@@ -5596,10 +5581,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>341</v>
-      </c>
-      <c r="C91" s="35" t="s">
-        <v>342</v>
+        <v>338</v>
+      </c>
+      <c r="C91" s="34" t="s">
+        <v>339</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>32</v>
@@ -5629,10 +5614,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>343</v>
-      </c>
-      <c r="C92" s="35" t="s">
-        <v>344</v>
+        <v>340</v>
+      </c>
+      <c r="C92" s="34" t="s">
+        <v>341</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>32</v>
@@ -5662,10 +5647,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>345</v>
-      </c>
-      <c r="C93" s="35" t="s">
-        <v>346</v>
+        <v>342</v>
+      </c>
+      <c r="C93" s="34" t="s">
+        <v>343</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>32</v>
@@ -5674,16 +5659,16 @@
         <v>14</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>55</v>
@@ -5697,10 +5682,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>350</v>
-      </c>
-      <c r="C94" s="35" t="s">
-        <v>351</v>
+        <v>347</v>
+      </c>
+      <c r="C94" s="34" t="s">
+        <v>348</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>32</v>
@@ -5709,7 +5694,7 @@
         <v>14</v>
       </c>
       <c r="F94" s="19" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>23</v>
@@ -5718,7 +5703,7 @@
         <v>23</v>
       </c>
       <c r="I94" s="25" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>55</v>
@@ -5732,10 +5717,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>354</v>
-      </c>
-      <c r="C95" s="35" t="s">
-        <v>355</v>
+        <v>351</v>
+      </c>
+      <c r="C95" s="34" t="s">
+        <v>352</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>32</v>
@@ -5744,16 +5729,16 @@
         <v>14</v>
       </c>
       <c r="F95" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I95" s="23" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>55</v>
@@ -5767,10 +5752,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>359</v>
-      </c>
-      <c r="C96" s="35" t="s">
-        <v>360</v>
+        <v>356</v>
+      </c>
+      <c r="C96" s="34" t="s">
+        <v>357</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>32</v>
@@ -5779,16 +5764,16 @@
         <v>14</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I96" s="26" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>55</v>
@@ -5802,10 +5787,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>364</v>
-      </c>
-      <c r="C97" s="35" t="s">
-        <v>365</v>
+        <v>361</v>
+      </c>
+      <c r="C97" s="34" t="s">
+        <v>362</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>32</v>
@@ -5814,16 +5799,16 @@
         <v>14</v>
       </c>
       <c r="F97" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I97" s="26" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>55</v>
@@ -5837,10 +5822,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>369</v>
-      </c>
-      <c r="C98" s="35" t="s">
-        <v>370</v>
+        <v>366</v>
+      </c>
+      <c r="C98" s="34" t="s">
+        <v>367</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>32</v>
@@ -5849,7 +5834,7 @@
         <v>14</v>
       </c>
       <c r="F98" s="19" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>23</v>
@@ -5858,7 +5843,7 @@
         <v>23</v>
       </c>
       <c r="I98" s="25" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>55</v>
@@ -5872,10 +5857,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>373</v>
-      </c>
-      <c r="C99" s="35" t="s">
-        <v>374</v>
+        <v>370</v>
+      </c>
+      <c r="C99" s="34" t="s">
+        <v>371</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>32</v>
@@ -5904,10 +5889,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>375</v>
-      </c>
-      <c r="C100" s="35" t="s">
-        <v>376</v>
+        <v>372</v>
+      </c>
+      <c r="C100" s="34" t="s">
+        <v>373</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>32</v>
@@ -5937,10 +5922,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>377</v>
-      </c>
-      <c r="C101" s="35" t="s">
-        <v>378</v>
+        <v>374</v>
+      </c>
+      <c r="C101" s="34" t="s">
+        <v>375</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>32</v>
@@ -5949,7 +5934,7 @@
         <v>14</v>
       </c>
       <c r="F101" s="19" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>23</v>
@@ -5958,7 +5943,7 @@
         <v>23</v>
       </c>
       <c r="I101" s="25" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>55</v>
@@ -5972,10 +5957,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>381</v>
-      </c>
-      <c r="C102" s="35" t="s">
-        <v>382</v>
+        <v>378</v>
+      </c>
+      <c r="C102" s="34" t="s">
+        <v>379</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>32</v>
@@ -5984,16 +5969,16 @@
         <v>14</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>55</v>
@@ -6007,10 +5992,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>386</v>
-      </c>
-      <c r="C103" s="35" t="s">
-        <v>387</v>
+        <v>383</v>
+      </c>
+      <c r="C103" s="34" t="s">
+        <v>384</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>32</v>
@@ -6019,16 +6004,16 @@
         <v>14</v>
       </c>
       <c r="F103" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="I103" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>55</v>
@@ -6042,10 +6027,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>391</v>
-      </c>
-      <c r="C104" s="35" t="s">
-        <v>392</v>
+        <v>388</v>
+      </c>
+      <c r="C104" s="34" t="s">
+        <v>389</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>32</v>
@@ -6075,10 +6060,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>393</v>
-      </c>
-      <c r="C105" s="35" t="s">
-        <v>394</v>
+        <v>390</v>
+      </c>
+      <c r="C105" s="34" t="s">
+        <v>391</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>32</v>
@@ -6087,7 +6072,7 @@
         <v>14</v>
       </c>
       <c r="F105" s="19" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>23</v>
@@ -6096,7 +6081,7 @@
         <v>23</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>55</v>
@@ -6110,10 +6095,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>397</v>
-      </c>
-      <c r="C106" s="35" t="s">
-        <v>398</v>
+        <v>394</v>
+      </c>
+      <c r="C106" s="34" t="s">
+        <v>395</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>32</v>
@@ -6122,7 +6107,7 @@
         <v>14</v>
       </c>
       <c r="F106" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>23</v>
@@ -6131,7 +6116,7 @@
         <v>23</v>
       </c>
       <c r="I106" s="8" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>55</v>
@@ -6145,10 +6130,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>401</v>
-      </c>
-      <c r="C107" s="35" t="s">
-        <v>402</v>
+        <v>398</v>
+      </c>
+      <c r="C107" s="34" t="s">
+        <v>399</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>32</v>
@@ -6177,10 +6162,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>403</v>
-      </c>
-      <c r="C108" s="35" t="s">
-        <v>404</v>
+        <v>400</v>
+      </c>
+      <c r="C108" s="34" t="s">
+        <v>401</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>32</v>
@@ -6209,10 +6194,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>405</v>
-      </c>
-      <c r="C109" s="35" t="s">
-        <v>406</v>
+        <v>402</v>
+      </c>
+      <c r="C109" s="34" t="s">
+        <v>403</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>32</v>
@@ -6241,10 +6226,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>407</v>
-      </c>
-      <c r="C110" s="35" t="s">
-        <v>408</v>
+        <v>404</v>
+      </c>
+      <c r="C110" s="34" t="s">
+        <v>405</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>32</v>
@@ -6273,10 +6258,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>409</v>
-      </c>
-      <c r="C111" s="35" t="s">
-        <v>410</v>
+        <v>406</v>
+      </c>
+      <c r="C111" s="34" t="s">
+        <v>407</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>32</v>
@@ -6306,10 +6291,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>411</v>
-      </c>
-      <c r="C112" s="35" t="s">
-        <v>412</v>
+        <v>408</v>
+      </c>
+      <c r="C112" s="34" t="s">
+        <v>409</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>32</v>
@@ -6339,10 +6324,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>413</v>
-      </c>
-      <c r="C113" s="35" t="s">
-        <v>414</v>
+        <v>410</v>
+      </c>
+      <c r="C113" s="34" t="s">
+        <v>411</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>32</v>
@@ -6372,10 +6357,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>415</v>
-      </c>
-      <c r="C114" s="35" t="s">
-        <v>416</v>
+        <v>412</v>
+      </c>
+      <c r="C114" s="34" t="s">
+        <v>413</v>
       </c>
       <c r="D114" s="8" t="s">
         <v>32</v>
@@ -6405,10 +6390,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>417</v>
-      </c>
-      <c r="C115" s="35" t="s">
-        <v>418</v>
+        <v>414</v>
+      </c>
+      <c r="C115" s="34" t="s">
+        <v>415</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>32</v>
@@ -6438,10 +6423,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>419</v>
-      </c>
-      <c r="C116" s="35" t="s">
-        <v>420</v>
+        <v>416</v>
+      </c>
+      <c r="C116" s="34" t="s">
+        <v>417</v>
       </c>
       <c r="D116" s="8" t="s">
         <v>32</v>
@@ -6471,10 +6456,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>421</v>
-      </c>
-      <c r="C117" s="35" t="s">
-        <v>422</v>
+        <v>418</v>
+      </c>
+      <c r="C117" s="34" t="s">
+        <v>419</v>
       </c>
       <c r="D117" s="8" t="s">
         <v>32</v>
@@ -6504,10 +6489,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>423</v>
-      </c>
-      <c r="C118" s="35" t="s">
-        <v>424</v>
+        <v>420</v>
+      </c>
+      <c r="C118" s="34" t="s">
+        <v>421</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>32</v>
@@ -6537,10 +6522,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>425</v>
-      </c>
-      <c r="C119" s="35" t="s">
-        <v>426</v>
+        <v>422</v>
+      </c>
+      <c r="C119" s="34" t="s">
+        <v>423</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>32</v>
@@ -6569,10 +6554,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>427</v>
-      </c>
-      <c r="C120" s="35" t="s">
-        <v>428</v>
+        <v>424</v>
+      </c>
+      <c r="C120" s="34" t="s">
+        <v>425</v>
       </c>
       <c r="D120" s="8" t="s">
         <v>32</v>
@@ -6601,10 +6586,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>429</v>
-      </c>
-      <c r="C121" s="35" t="s">
-        <v>430</v>
+        <v>426</v>
+      </c>
+      <c r="C121" s="34" t="s">
+        <v>427</v>
       </c>
       <c r="D121" s="8" t="s">
         <v>32</v>
@@ -6633,10 +6618,10 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>431</v>
-      </c>
-      <c r="C122" s="35" t="s">
-        <v>432</v>
+        <v>428</v>
+      </c>
+      <c r="C122" s="34" t="s">
+        <v>429</v>
       </c>
       <c r="D122" s="8" t="s">
         <v>32</v>
@@ -6665,10 +6650,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>433</v>
-      </c>
-      <c r="C123" s="35" t="s">
-        <v>434</v>
+        <v>430</v>
+      </c>
+      <c r="C123" s="34" t="s">
+        <v>431</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>32</v>
@@ -6697,10 +6682,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>435</v>
-      </c>
-      <c r="C124" s="35" t="s">
-        <v>436</v>
+        <v>432</v>
+      </c>
+      <c r="C124" s="34" t="s">
+        <v>433</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>32</v>
@@ -6729,10 +6714,10 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>437</v>
-      </c>
-      <c r="C125" s="35" t="s">
-        <v>438</v>
+        <v>434</v>
+      </c>
+      <c r="C125" s="34" t="s">
+        <v>435</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>32</v>
@@ -6761,10 +6746,10 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>439</v>
-      </c>
-      <c r="C126" s="35" t="s">
-        <v>440</v>
+        <v>436</v>
+      </c>
+      <c r="C126" s="34" t="s">
+        <v>437</v>
       </c>
       <c r="D126" s="8" t="s">
         <v>32</v>
@@ -6793,10 +6778,10 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>441</v>
-      </c>
-      <c r="C127" s="35" t="s">
-        <v>442</v>
+        <v>438</v>
+      </c>
+      <c r="C127" s="34" t="s">
+        <v>439</v>
       </c>
       <c r="D127" s="8" t="s">
         <v>32</v>
@@ -6825,10 +6810,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>443</v>
-      </c>
-      <c r="C128" s="35" t="s">
-        <v>444</v>
+        <v>440</v>
+      </c>
+      <c r="C128" s="34" t="s">
+        <v>441</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>32</v>
@@ -6854,19 +6839,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7111,27 +7094,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4056A9CA-2F02-448B-95FE-A9EC616FB2A9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7156,9 +7133,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4056A9CA-2F02-448B-95FE-A9EC616FB2A9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_KORA_S3_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S3_P1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236F5CA6-31EF-4031-9A67-8D6399CF295B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A6541E-634C-4981-ABF9-E604BBEB0679}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements_templa" sheetId="1" r:id="rId1"/>
@@ -886,20 +886,6 @@
     <t>Intake of processed or preserved meat [g/d]</t>
   </si>
   <si>
-    <t>DV131; DV141; DV145; DV147; DV150; DV160</t>
-  </si>
-  <si>
-    <t>DV131 + DV141 + DV145 + DV147 + DV150 + DV160</t>
-  </si>
-  <si>
-    <t>DV131 (all kinds of minced meat) + 
-DV141 (sausage) + 
-DV145 (ham) + 
-DV147 (bacon) + 
-DV150 (canned, frozen meat or meat products) + 
-DV160 (other meat products)</t>
-  </si>
-  <si>
     <t>OFFALS_0705</t>
   </si>
   <si>
@@ -1500,6 +1486,19 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>DV141; DV145; DV147; DV150; DV160</t>
+  </si>
+  <si>
+    <t>DV141 + DV145 + DV147 + DV150 + DV160</t>
+  </si>
+  <si>
+    <t>DV141 (sausage) + 
+DV145 (ham) + 
+DV147 (bacon) + 
+DV150 (canned, frozen meat or meat products) + 
+DV160 (other meat products)</t>
   </si>
 </sst>
 </file>
@@ -2045,7 +2044,7 @@
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2119,6 +2118,9 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2477,27 +2479,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="7"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="7"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="8"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="8"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2532,12 +2534,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>11</v>
@@ -2549,7 +2551,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>13</v>
@@ -2567,7 +2569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -2600,7 +2602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -2633,7 +2635,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -2666,7 +2668,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -2699,7 +2701,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -2732,7 +2734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -2765,7 +2767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -2798,7 +2800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -2833,7 +2835,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -2868,7 +2870,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -2899,7 +2901,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -2934,7 +2936,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -2969,7 +2971,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -3004,7 +3006,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -3039,7 +3041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -3074,7 +3076,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -3104,7 +3106,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -3135,7 +3137,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -3170,7 +3172,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -3205,7 +3207,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -3236,7 +3238,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -3271,7 +3273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -3302,7 +3304,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -3337,7 +3339,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -3372,7 +3374,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -3407,7 +3409,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -3442,7 +3444,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -3473,7 +3475,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -3508,7 +3510,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -3543,7 +3545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -3574,7 +3576,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -3609,7 +3611,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -3644,7 +3646,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -3679,7 +3681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -3709,7 +3711,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -3740,7 +3742,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -3775,7 +3777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -3806,7 +3808,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>39</v>
       </c>
@@ -3841,7 +3843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -3876,7 +3878,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>41</v>
       </c>
@@ -3911,7 +3913,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -3946,7 +3948,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>43</v>
       </c>
@@ -3982,7 +3984,7 @@
       </c>
       <c r="L44" s="11"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -4017,7 +4019,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -4052,7 +4054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>46</v>
       </c>
@@ -4082,7 +4084,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -4112,7 +4114,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>48</v>
       </c>
@@ -4145,7 +4147,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <v>49</v>
       </c>
@@ -4180,7 +4182,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>50</v>
       </c>
@@ -4215,7 +4217,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
         <v>51</v>
       </c>
@@ -4250,7 +4252,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <v>52</v>
       </c>
@@ -4285,7 +4287,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>53</v>
       </c>
@@ -4320,7 +4322,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <v>54</v>
       </c>
@@ -4355,7 +4357,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>55</v>
       </c>
@@ -4386,7 +4388,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
         <v>56</v>
       </c>
@@ -4421,7 +4423,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>57</v>
       </c>
@@ -4456,7 +4458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
         <v>58</v>
       </c>
@@ -4487,7 +4489,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
         <v>59</v>
       </c>
@@ -4518,7 +4520,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>60</v>
       </c>
@@ -4549,7 +4551,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
         <v>61</v>
       </c>
@@ -4580,7 +4582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>62</v>
       </c>
@@ -4611,7 +4613,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
         <v>63</v>
       </c>
@@ -4642,7 +4644,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>64</v>
       </c>
@@ -4677,7 +4679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
         <v>65</v>
       </c>
@@ -4694,16 +4696,16 @@
         <v>12</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>247</v>
+        <v>441</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="I66" s="20" t="s">
-        <v>249</v>
+        <v>442</v>
+      </c>
+      <c r="I66" s="34" t="s">
+        <v>443</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>52</v>
@@ -4712,15 +4714,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C67" s="32" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>29</v>
@@ -4729,7 +4731,7 @@
         <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>20</v>
@@ -4738,7 +4740,7 @@
         <v>20</v>
       </c>
       <c r="I67" s="22" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>52</v>
@@ -4747,15 +4749,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>29</v>
@@ -4764,16 +4766,16 @@
         <v>12</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I68" s="20" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>52</v>
@@ -4782,15 +4784,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>29</v>
@@ -4799,7 +4801,7 @@
         <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>20</v>
@@ -4808,7 +4810,7 @@
         <v>20</v>
       </c>
       <c r="I69" s="22" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>52</v>
@@ -4817,15 +4819,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>29</v>
@@ -4848,15 +4850,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C71" s="32" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>29</v>
@@ -4865,16 +4867,16 @@
         <v>12</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I71" s="23" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>52</v>
@@ -4883,15 +4885,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>29</v>
@@ -4900,16 +4902,16 @@
         <v>12</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H72" s="16" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="I72" s="22" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>52</v>
@@ -4918,15 +4920,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>29</v>
@@ -4935,7 +4937,7 @@
         <v>12</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>20</v>
@@ -4944,7 +4946,7 @@
         <v>20</v>
       </c>
       <c r="I73" s="22" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>52</v>
@@ -4953,15 +4955,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C74" s="32" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>29</v>
@@ -4970,16 +4972,16 @@
         <v>12</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="I74" s="23" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>52</v>
@@ -4988,15 +4990,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C75" s="32" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>29</v>
@@ -5005,7 +5007,7 @@
         <v>12</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>20</v>
@@ -5014,7 +5016,7 @@
         <v>20</v>
       </c>
       <c r="I75" s="22" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>52</v>
@@ -5023,15 +5025,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="7">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>29</v>
@@ -5040,7 +5042,7 @@
         <v>12</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>20</v>
@@ -5049,7 +5051,7 @@
         <v>20</v>
       </c>
       <c r="I76" s="22" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>52</v>
@@ -5058,15 +5060,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C77" s="32" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>29</v>
@@ -5075,7 +5077,7 @@
         <v>12</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>20</v>
@@ -5084,7 +5086,7 @@
         <v>20</v>
       </c>
       <c r="I77" s="22" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>52</v>
@@ -5093,15 +5095,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>29</v>
@@ -5124,15 +5126,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C79" s="32" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>29</v>
@@ -5154,15 +5156,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C80" s="32" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>29</v>
@@ -5184,15 +5186,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="7">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C81" s="32" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>29</v>
@@ -5201,16 +5203,16 @@
         <v>12</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I81" s="23" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>52</v>
@@ -5219,15 +5221,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>29</v>
@@ -5236,16 +5238,16 @@
         <v>12</v>
       </c>
       <c r="F82" s="16" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H82" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="I82" s="22" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>52</v>
@@ -5254,15 +5256,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="7">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C83" s="32" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>29</v>
@@ -5271,16 +5273,16 @@
         <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H83" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I83" s="23" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>52</v>
@@ -5289,15 +5291,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A84" s="8">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C84" s="32" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>29</v>
@@ -5306,7 +5308,7 @@
         <v>12</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>20</v>
@@ -5315,7 +5317,7 @@
         <v>20</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>52</v>
@@ -5324,15 +5326,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C85" s="32" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>29</v>
@@ -5355,15 +5357,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="8">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C86" s="32" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>29</v>
@@ -5385,15 +5387,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="7">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C87" s="32" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>29</v>
@@ -5402,7 +5404,7 @@
         <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>20</v>
@@ -5411,7 +5413,7 @@
         <v>20</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>52</v>
@@ -5420,15 +5422,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="7">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C88" s="32" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>29</v>
@@ -5451,15 +5453,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C89" s="32" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>29</v>
@@ -5482,15 +5484,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="7">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C90" s="32" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>29</v>
@@ -5499,16 +5501,16 @@
         <v>12</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>44</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="I90" s="24" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>52</v>
@@ -5517,15 +5519,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C91" s="32" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>29</v>
@@ -5548,15 +5550,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="7">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C92" s="32" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>29</v>
@@ -5579,15 +5581,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="8">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C93" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>29</v>
@@ -5596,16 +5598,16 @@
         <v>12</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>52</v>
@@ -5614,15 +5616,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="7">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C94" s="32" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>29</v>
@@ -5631,7 +5633,7 @@
         <v>12</v>
       </c>
       <c r="F94" s="16" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>20</v>
@@ -5640,7 +5642,7 @@
         <v>20</v>
       </c>
       <c r="I94" s="22" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>52</v>
@@ -5649,15 +5651,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="7">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C95" s="32" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>29</v>
@@ -5666,16 +5668,16 @@
         <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H95" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I95" s="20" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>52</v>
@@ -5684,15 +5686,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="8">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C96" s="32" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>29</v>
@@ -5701,16 +5703,16 @@
         <v>12</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="I96" s="23" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>52</v>
@@ -5719,15 +5721,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="7">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C97" s="32" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>29</v>
@@ -5736,16 +5738,16 @@
         <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H97" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="I97" s="23" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>52</v>
@@ -5754,15 +5756,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="8">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C98" s="32" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>29</v>
@@ -5771,7 +5773,7 @@
         <v>12</v>
       </c>
       <c r="F98" s="16" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>20</v>
@@ -5780,7 +5782,7 @@
         <v>20</v>
       </c>
       <c r="I98" s="22" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>52</v>
@@ -5789,15 +5791,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="7">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C99" s="32" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>29</v>
@@ -5819,15 +5821,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="8">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C100" s="32" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>29</v>
@@ -5850,15 +5852,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="7">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C101" s="32" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>29</v>
@@ -5867,7 +5869,7 @@
         <v>12</v>
       </c>
       <c r="F101" s="16" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>20</v>
@@ -5876,7 +5878,7 @@
         <v>20</v>
       </c>
       <c r="I101" s="22" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>52</v>
@@ -5885,15 +5887,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="7">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C102" s="32" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>29</v>
@@ -5902,16 +5904,16 @@
         <v>12</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H102" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>52</v>
@@ -5920,15 +5922,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="8">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C103" s="32" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>29</v>
@@ -5937,16 +5939,16 @@
         <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H103" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="I103" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>52</v>
@@ -5955,15 +5957,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="7">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C104" s="32" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>29</v>
@@ -5986,15 +5988,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="8">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C105" s="32" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>29</v>
@@ -6003,7 +6005,7 @@
         <v>12</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>20</v>
@@ -6012,7 +6014,7 @@
         <v>20</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>52</v>
@@ -6021,15 +6023,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="7">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C106" s="32" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>29</v>
@@ -6038,7 +6040,7 @@
         <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>20</v>
@@ -6047,7 +6049,7 @@
         <v>20</v>
       </c>
       <c r="I106" s="8" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>52</v>
@@ -6056,15 +6058,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="8">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C107" s="32" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>29</v>
@@ -6086,15 +6088,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="7">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C108" s="32" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>29</v>
@@ -6116,15 +6118,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="7">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C109" s="32" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>29</v>
@@ -6146,15 +6148,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="8">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C110" s="32" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>29</v>
@@ -6176,15 +6178,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="7">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C111" s="32" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>29</v>
@@ -6207,15 +6209,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="8">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>29</v>
@@ -6238,15 +6240,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="7">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C113" s="32" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>29</v>
@@ -6269,15 +6271,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="8">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C114" s="32" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D114" s="8" t="s">
         <v>29</v>
@@ -6300,15 +6302,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="7">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C115" s="32" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>29</v>
@@ -6331,15 +6333,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="7">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C116" s="32" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D116" s="8" t="s">
         <v>29</v>
@@ -6362,15 +6364,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="8">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C117" s="32" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D117" s="8" t="s">
         <v>29</v>
@@ -6393,15 +6395,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="7">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C118" s="32" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>29</v>
@@ -6424,15 +6426,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="8">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C119" s="32" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>29</v>
@@ -6454,15 +6456,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="7">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C120" s="32" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D120" s="8" t="s">
         <v>29</v>
@@ -6484,15 +6486,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="8">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C121" s="32" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D121" s="8" t="s">
         <v>29</v>
@@ -6514,15 +6516,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="7">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C122" s="32" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D122" s="8" t="s">
         <v>29</v>
@@ -6544,15 +6546,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="7">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C123" s="32" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>29</v>
@@ -6574,15 +6576,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="8">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C124" s="32" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>29</v>
@@ -6604,15 +6606,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="7">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C125" s="32" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>29</v>
@@ -6634,15 +6636,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="8">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C126" s="32" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D126" s="8" t="s">
         <v>29</v>
@@ -6664,15 +6666,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="7">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C127" s="32" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D127" s="8" t="s">
         <v>29</v>
@@ -6694,15 +6696,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="8">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C128" s="32" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>29</v>
@@ -6730,15 +6732,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -6979,6 +6972,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -6992,14 +6994,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8FD927B-486E-4736-8E9F-ABBC39C726CA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7014,6 +7008,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/rmonize/data_proc_elem/DPE_KORA_S3_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S3_P1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\HarmonizR\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A6541E-634C-4981-ABF9-E604BBEB0679}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{0DC89B52-5B10-4A06-9106-C32747F8F37A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements_templa" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="444">
   <si>
     <t>index</t>
   </si>
@@ -1482,9 +1482,6 @@
     <t>intake of amphibians, reptiles, snails, insects [g/d]</t>
   </si>
   <si>
-    <t>D_ID</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -1499,6 +1496,9 @@
 DV147 (bacon) + 
 DV150 (canned, frozen meat or meat products) + 
 DV160 (other meat products)</t>
+  </si>
+  <si>
+    <t>d_id</t>
   </si>
 </sst>
 </file>
@@ -2097,9 +2097,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2120,6 +2117,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2479,27 +2479,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F137" sqref="F137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="7"/>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="7"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="8"/>
-    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="8"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2534,14 +2534,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="C2" s="30" t="s">
+        <v>439</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="13" t="s">
@@ -2550,8 +2550,8 @@
       <c r="E2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="33" t="s">
-        <v>439</v>
+      <c r="F2" s="32" t="s">
+        <v>443</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>13</v>
@@ -2569,14 +2569,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="30" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -2602,14 +2602,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -2635,14 +2635,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="29" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -2668,14 +2668,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -2701,14 +2701,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="29" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -2734,7 +2734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -2750,7 +2750,7 @@
       <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="26" t="s">
         <v>37</v>
       </c>
       <c r="G8" s="11" t="s">
@@ -2767,7 +2767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -2783,7 +2783,7 @@
       <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="28" t="s">
         <v>40</v>
       </c>
       <c r="G9" s="11" t="s">
@@ -2800,14 +2800,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="29" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -2835,14 +2835,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="31" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -2851,7 +2851,7 @@
       <c r="E11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" t="s">
         <v>43</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -2870,14 +2870,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="31" t="s">
         <v>55</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -2886,7 +2886,9 @@
       <c r="E12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="G12" s="2" t="s">
         <v>56</v>
       </c>
@@ -2901,14 +2903,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="31" t="s">
         <v>58</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -2917,7 +2919,7 @@
       <c r="E13" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="34" t="s">
         <v>59</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -2936,14 +2938,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="31" t="s">
         <v>63</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -2971,14 +2973,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="31" t="s">
         <v>68</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -3006,14 +3008,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="31" t="s">
         <v>73</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -3041,14 +3043,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="31" t="s">
         <v>77</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -3076,14 +3078,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="31" t="s">
         <v>82</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -3092,7 +3094,9 @@
       <c r="E18" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G18" s="2" t="s">
         <v>56</v>
       </c>
@@ -3106,14 +3110,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="31" t="s">
         <v>84</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -3122,7 +3126,9 @@
       <c r="E19" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G19" s="2" t="s">
         <v>56</v>
       </c>
@@ -3137,14 +3143,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="31" t="s">
         <v>86</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -3172,14 +3178,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="31" t="s">
         <v>90</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -3207,14 +3213,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="31" t="s">
         <v>92</v>
       </c>
       <c r="D22" s="8" t="s">
@@ -3223,7 +3229,9 @@
       <c r="E22" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G22" s="2" t="s">
         <v>56</v>
       </c>
@@ -3238,14 +3246,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="31" t="s">
         <v>94</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -3273,14 +3281,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="31" t="s">
         <v>98</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -3289,7 +3297,9 @@
       <c r="E24" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G24" s="2" t="s">
         <v>56</v>
       </c>
@@ -3304,14 +3314,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="31" t="s">
         <v>100</v>
       </c>
       <c r="D25" s="8" t="s">
@@ -3339,14 +3349,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="31" t="s">
         <v>105</v>
       </c>
       <c r="D26" s="8" t="s">
@@ -3374,14 +3384,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="31" t="s">
         <v>110</v>
       </c>
       <c r="D27" s="8" t="s">
@@ -3409,14 +3419,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="31" t="s">
         <v>114</v>
       </c>
       <c r="D28" s="8" t="s">
@@ -3444,14 +3454,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="31" t="s">
         <v>119</v>
       </c>
       <c r="D29" s="8" t="s">
@@ -3460,7 +3470,9 @@
       <c r="E29" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G29" s="2" t="s">
         <v>56</v>
       </c>
@@ -3475,14 +3487,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="31" t="s">
         <v>121</v>
       </c>
       <c r="D30" s="8" t="s">
@@ -3510,14 +3522,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="31" t="s">
         <v>126</v>
       </c>
       <c r="D31" s="8" t="s">
@@ -3545,14 +3557,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="31" t="s">
         <v>130</v>
       </c>
       <c r="D32" s="8" t="s">
@@ -3561,7 +3573,9 @@
       <c r="E32" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G32" s="2" t="s">
         <v>56</v>
       </c>
@@ -3576,14 +3590,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="31" t="s">
         <v>132</v>
       </c>
       <c r="D33" s="8" t="s">
@@ -3611,14 +3625,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="31" t="s">
         <v>136</v>
       </c>
       <c r="D34" s="8" t="s">
@@ -3646,14 +3660,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="31" t="s">
         <v>140</v>
       </c>
       <c r="D35" s="8" t="s">
@@ -3681,14 +3695,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="31" t="s">
         <v>144</v>
       </c>
       <c r="D36" s="8" t="s">
@@ -3697,7 +3711,9 @@
       <c r="E36" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G36" s="2" t="s">
         <v>56</v>
       </c>
@@ -3711,14 +3727,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="31" t="s">
         <v>146</v>
       </c>
       <c r="D37" s="8" t="s">
@@ -3727,7 +3743,9 @@
       <c r="E37" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G37" s="2" t="s">
         <v>56</v>
       </c>
@@ -3742,14 +3760,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="C38" s="31" t="s">
         <v>148</v>
       </c>
       <c r="D38" s="8" t="s">
@@ -3777,14 +3795,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="31" t="s">
         <v>152</v>
       </c>
       <c r="D39" s="8" t="s">
@@ -3793,7 +3811,9 @@
       <c r="E39" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G39" s="2" t="s">
         <v>56</v>
       </c>
@@ -3808,14 +3828,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C40" s="32" t="s">
+      <c r="C40" s="31" t="s">
         <v>154</v>
       </c>
       <c r="D40" s="8" t="s">
@@ -3843,14 +3863,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C41" s="31" t="s">
         <v>158</v>
       </c>
       <c r="D41" s="8" t="s">
@@ -3878,14 +3898,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="31" t="s">
         <v>163</v>
       </c>
       <c r="D42" s="8" t="s">
@@ -3913,14 +3933,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="C43" s="31" t="s">
         <v>168</v>
       </c>
       <c r="D43" s="8" t="s">
@@ -3948,14 +3968,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="C44" s="31" t="s">
         <v>173</v>
       </c>
       <c r="D44" s="8" t="s">
@@ -3984,14 +4004,14 @@
       </c>
       <c r="L44" s="11"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C45" s="31" t="s">
         <v>178</v>
       </c>
       <c r="D45" s="8" t="s">
@@ -4019,14 +4039,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="31" t="s">
         <v>183</v>
       </c>
       <c r="D46" s="8" t="s">
@@ -4054,14 +4074,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C47" s="32" t="s">
+      <c r="C47" s="31" t="s">
         <v>187</v>
       </c>
       <c r="D47" s="8" t="s">
@@ -4070,7 +4090,9 @@
       <c r="E47" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="2"/>
+      <c r="F47" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G47" s="2" t="s">
         <v>56</v>
       </c>
@@ -4084,14 +4106,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C48" s="32" t="s">
+      <c r="C48" s="31" t="s">
         <v>189</v>
       </c>
       <c r="D48" s="8" t="s">
@@ -4100,7 +4122,9 @@
       <c r="E48" t="s">
         <v>12</v>
       </c>
-      <c r="F48" s="2"/>
+      <c r="F48" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G48" s="2" t="s">
         <v>56</v>
       </c>
@@ -4114,14 +4138,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C49" s="32" t="s">
+      <c r="C49" s="31" t="s">
         <v>191</v>
       </c>
       <c r="D49" s="8" t="s">
@@ -4130,7 +4154,9 @@
       <c r="E49" t="s">
         <v>12</v>
       </c>
-      <c r="F49" s="2"/>
+      <c r="F49" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G49" s="2" t="s">
         <v>30</v>
       </c>
@@ -4147,14 +4173,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C50" s="32" t="s">
+      <c r="C50" s="31" t="s">
         <v>194</v>
       </c>
       <c r="D50" s="8" t="s">
@@ -4182,14 +4208,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="C51" s="31" t="s">
         <v>199</v>
       </c>
       <c r="D51" s="8" t="s">
@@ -4217,14 +4243,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C52" s="32" t="s">
+      <c r="C52" s="31" t="s">
         <v>204</v>
       </c>
       <c r="D52" s="8" t="s">
@@ -4252,14 +4278,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C53" s="32" t="s">
+      <c r="C53" s="31" t="s">
         <v>208</v>
       </c>
       <c r="D53" s="8" t="s">
@@ -4287,14 +4313,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C54" s="32" t="s">
+      <c r="C54" s="31" t="s">
         <v>212</v>
       </c>
       <c r="D54" s="8" t="s">
@@ -4322,14 +4348,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C55" s="32" t="s">
+      <c r="C55" s="31" t="s">
         <v>216</v>
       </c>
       <c r="D55" s="8" t="s">
@@ -4347,7 +4373,7 @@
       <c r="H55" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="I55" s="28" t="s">
+      <c r="I55" s="27" t="s">
         <v>219</v>
       </c>
       <c r="J55" s="1" t="s">
@@ -4357,14 +4383,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C56" s="32" t="s">
+      <c r="C56" s="31" t="s">
         <v>221</v>
       </c>
       <c r="D56" s="8" t="s">
@@ -4373,7 +4399,9 @@
       <c r="E56" t="s">
         <v>12</v>
       </c>
-      <c r="F56" s="2"/>
+      <c r="F56" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G56" s="2" t="s">
         <v>56</v>
       </c>
@@ -4388,14 +4416,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C57" s="32" t="s">
+      <c r="C57" s="31" t="s">
         <v>223</v>
       </c>
       <c r="D57" s="8" t="s">
@@ -4413,7 +4441,7 @@
       <c r="H57" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="I57" s="28" t="s">
+      <c r="I57" s="27" t="s">
         <v>219</v>
       </c>
       <c r="J57" s="1" t="s">
@@ -4423,14 +4451,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C58" s="32" t="s">
+      <c r="C58" s="31" t="s">
         <v>226</v>
       </c>
       <c r="D58" s="8" t="s">
@@ -4458,14 +4486,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C59" s="32" t="s">
+      <c r="C59" s="31" t="s">
         <v>230</v>
       </c>
       <c r="D59" s="8" t="s">
@@ -4474,7 +4502,9 @@
       <c r="E59" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="2"/>
+      <c r="F59" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G59" s="2" t="s">
         <v>56</v>
       </c>
@@ -4489,14 +4519,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C60" s="32" t="s">
+      <c r="C60" s="31" t="s">
         <v>232</v>
       </c>
       <c r="D60" s="8" t="s">
@@ -4505,7 +4535,9 @@
       <c r="E60" t="s">
         <v>12</v>
       </c>
-      <c r="F60" s="2"/>
+      <c r="F60" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G60" s="2" t="s">
         <v>56</v>
       </c>
@@ -4520,14 +4552,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C61" s="32" t="s">
+      <c r="C61" s="31" t="s">
         <v>234</v>
       </c>
       <c r="D61" s="8" t="s">
@@ -4536,7 +4568,9 @@
       <c r="E61" t="s">
         <v>12</v>
       </c>
-      <c r="F61" s="2"/>
+      <c r="F61" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G61" s="2" t="s">
         <v>56</v>
       </c>
@@ -4551,14 +4585,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C62" s="32" t="s">
+      <c r="C62" s="31" t="s">
         <v>236</v>
       </c>
       <c r="D62" s="8" t="s">
@@ -4567,7 +4601,9 @@
       <c r="E62" t="s">
         <v>12</v>
       </c>
-      <c r="F62" s="2"/>
+      <c r="F62" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G62" s="2" t="s">
         <v>56</v>
       </c>
@@ -4582,14 +4618,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C63" s="32" t="s">
+      <c r="C63" s="31" t="s">
         <v>238</v>
       </c>
       <c r="D63" s="8" t="s">
@@ -4598,7 +4634,9 @@
       <c r="E63" t="s">
         <v>12</v>
       </c>
-      <c r="F63" s="2"/>
+      <c r="F63" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G63" s="2" t="s">
         <v>56</v>
       </c>
@@ -4613,14 +4651,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C64" s="32" t="s">
+      <c r="C64" s="31" t="s">
         <v>240</v>
       </c>
       <c r="D64" s="8" t="s">
@@ -4629,7 +4667,9 @@
       <c r="E64" t="s">
         <v>12</v>
       </c>
-      <c r="F64" s="2"/>
+      <c r="F64" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G64" s="2" t="s">
         <v>56</v>
       </c>
@@ -4644,14 +4684,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C65" s="32" t="s">
+      <c r="C65" s="31" t="s">
         <v>242</v>
       </c>
       <c r="D65" s="8" t="s">
@@ -4679,14 +4719,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C66" s="32" t="s">
+      <c r="C66" s="31" t="s">
         <v>246</v>
       </c>
       <c r="D66" s="8" t="s">
@@ -4696,16 +4736,16 @@
         <v>12</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H66" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="I66" s="33" t="s">
         <v>442</v>
-      </c>
-      <c r="I66" s="34" t="s">
-        <v>443</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>52</v>
@@ -4714,14 +4754,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C67" s="32" t="s">
+      <c r="C67" s="31" t="s">
         <v>248</v>
       </c>
       <c r="D67" s="8" t="s">
@@ -4749,14 +4789,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C68" s="32" t="s">
+      <c r="C68" s="31" t="s">
         <v>252</v>
       </c>
       <c r="D68" s="8" t="s">
@@ -4784,14 +4824,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C69" s="32" t="s">
+      <c r="C69" s="31" t="s">
         <v>257</v>
       </c>
       <c r="D69" s="8" t="s">
@@ -4819,14 +4859,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C70" s="32" t="s">
+      <c r="C70" s="31" t="s">
         <v>261</v>
       </c>
       <c r="D70" s="8" t="s">
@@ -4835,7 +4875,9 @@
       <c r="E70" t="s">
         <v>12</v>
       </c>
-      <c r="F70" s="2"/>
+      <c r="F70" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G70" s="2" t="s">
         <v>56</v>
       </c>
@@ -4850,14 +4892,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C71" s="32" t="s">
+      <c r="C71" s="31" t="s">
         <v>263</v>
       </c>
       <c r="D71" s="8" t="s">
@@ -4885,14 +4927,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>267</v>
       </c>
-      <c r="C72" s="32" t="s">
+      <c r="C72" s="31" t="s">
         <v>268</v>
       </c>
       <c r="D72" s="8" t="s">
@@ -4920,14 +4962,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>272</v>
       </c>
-      <c r="C73" s="32" t="s">
+      <c r="C73" s="31" t="s">
         <v>273</v>
       </c>
       <c r="D73" s="8" t="s">
@@ -4955,14 +4997,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>276</v>
       </c>
-      <c r="C74" s="32" t="s">
+      <c r="C74" s="31" t="s">
         <v>277</v>
       </c>
       <c r="D74" s="8" t="s">
@@ -4990,14 +5032,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>281</v>
       </c>
-      <c r="C75" s="32" t="s">
+      <c r="C75" s="31" t="s">
         <v>282</v>
       </c>
       <c r="D75" s="8" t="s">
@@ -5025,14 +5067,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>285</v>
       </c>
-      <c r="C76" s="32" t="s">
+      <c r="C76" s="31" t="s">
         <v>286</v>
       </c>
       <c r="D76" s="8" t="s">
@@ -5060,14 +5102,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>289</v>
       </c>
-      <c r="C77" s="32" t="s">
+      <c r="C77" s="31" t="s">
         <v>290</v>
       </c>
       <c r="D77" s="8" t="s">
@@ -5095,14 +5137,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>293</v>
       </c>
-      <c r="C78" s="32" t="s">
+      <c r="C78" s="31" t="s">
         <v>294</v>
       </c>
       <c r="D78" s="8" t="s">
@@ -5111,7 +5153,9 @@
       <c r="E78" t="s">
         <v>12</v>
       </c>
-      <c r="F78" s="2"/>
+      <c r="F78" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G78" s="2" t="s">
         <v>56</v>
       </c>
@@ -5126,14 +5170,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>295</v>
       </c>
-      <c r="C79" s="32" t="s">
+      <c r="C79" s="31" t="s">
         <v>296</v>
       </c>
       <c r="D79" s="8" t="s">
@@ -5142,7 +5186,9 @@
       <c r="E79" t="s">
         <v>12</v>
       </c>
-      <c r="F79" s="2"/>
+      <c r="F79" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G79" s="2" t="s">
         <v>56</v>
       </c>
@@ -5156,14 +5202,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>297</v>
       </c>
-      <c r="C80" s="32" t="s">
+      <c r="C80" s="31" t="s">
         <v>298</v>
       </c>
       <c r="D80" s="8" t="s">
@@ -5172,7 +5218,9 @@
       <c r="E80" t="s">
         <v>12</v>
       </c>
-      <c r="F80" s="2"/>
+      <c r="F80" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G80" s="2" t="s">
         <v>56</v>
       </c>
@@ -5186,14 +5234,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>299</v>
       </c>
-      <c r="C81" s="32" t="s">
+      <c r="C81" s="31" t="s">
         <v>300</v>
       </c>
       <c r="D81" s="8" t="s">
@@ -5221,14 +5269,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>304</v>
       </c>
-      <c r="C82" s="32" t="s">
+      <c r="C82" s="31" t="s">
         <v>305</v>
       </c>
       <c r="D82" s="8" t="s">
@@ -5256,14 +5304,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>309</v>
       </c>
-      <c r="C83" s="32" t="s">
+      <c r="C83" s="31" t="s">
         <v>310</v>
       </c>
       <c r="D83" s="8" t="s">
@@ -5291,14 +5339,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>314</v>
       </c>
-      <c r="C84" s="32" t="s">
+      <c r="C84" s="31" t="s">
         <v>315</v>
       </c>
       <c r="D84" s="8" t="s">
@@ -5326,14 +5374,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>318</v>
       </c>
-      <c r="C85" s="32" t="s">
+      <c r="C85" s="31" t="s">
         <v>319</v>
       </c>
       <c r="D85" s="8" t="s">
@@ -5342,7 +5390,9 @@
       <c r="E85" t="s">
         <v>12</v>
       </c>
-      <c r="F85" s="2"/>
+      <c r="F85" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G85" s="2" t="s">
         <v>56</v>
       </c>
@@ -5357,14 +5407,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
         <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>320</v>
       </c>
-      <c r="C86" s="32" t="s">
+      <c r="C86" s="31" t="s">
         <v>321</v>
       </c>
       <c r="D86" s="8" t="s">
@@ -5373,7 +5423,9 @@
       <c r="E86" t="s">
         <v>12</v>
       </c>
-      <c r="F86" s="2"/>
+      <c r="F86" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G86" s="2" t="s">
         <v>56</v>
       </c>
@@ -5387,14 +5439,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>322</v>
       </c>
-      <c r="C87" s="32" t="s">
+      <c r="C87" s="31" t="s">
         <v>323</v>
       </c>
       <c r="D87" s="8" t="s">
@@ -5422,14 +5474,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>326</v>
       </c>
-      <c r="C88" s="32" t="s">
+      <c r="C88" s="31" t="s">
         <v>327</v>
       </c>
       <c r="D88" s="8" t="s">
@@ -5438,7 +5490,9 @@
       <c r="E88" t="s">
         <v>12</v>
       </c>
-      <c r="F88" s="2"/>
+      <c r="F88" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G88" s="2" t="s">
         <v>56</v>
       </c>
@@ -5453,14 +5507,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
         <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>328</v>
       </c>
-      <c r="C89" s="32" t="s">
+      <c r="C89" s="31" t="s">
         <v>329</v>
       </c>
       <c r="D89" s="8" t="s">
@@ -5469,7 +5523,9 @@
       <c r="E89" t="s">
         <v>12</v>
       </c>
-      <c r="F89" s="2"/>
+      <c r="F89" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G89" s="2" t="s">
         <v>56</v>
       </c>
@@ -5484,14 +5540,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>330</v>
       </c>
-      <c r="C90" s="32" t="s">
+      <c r="C90" s="31" t="s">
         <v>331</v>
       </c>
       <c r="D90" s="8" t="s">
@@ -5519,14 +5575,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
         <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>335</v>
       </c>
-      <c r="C91" s="32" t="s">
+      <c r="C91" s="31" t="s">
         <v>336</v>
       </c>
       <c r="D91" s="8" t="s">
@@ -5535,7 +5591,9 @@
       <c r="E91" t="s">
         <v>12</v>
       </c>
-      <c r="F91" s="2"/>
+      <c r="F91" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G91" s="2" t="s">
         <v>56</v>
       </c>
@@ -5550,14 +5608,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
         <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>337</v>
       </c>
-      <c r="C92" s="32" t="s">
+      <c r="C92" s="31" t="s">
         <v>338</v>
       </c>
       <c r="D92" s="8" t="s">
@@ -5566,7 +5624,9 @@
       <c r="E92" t="s">
         <v>12</v>
       </c>
-      <c r="F92" s="2"/>
+      <c r="F92" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G92" s="2" t="s">
         <v>56</v>
       </c>
@@ -5581,14 +5641,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
         <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>339</v>
       </c>
-      <c r="C93" s="32" t="s">
+      <c r="C93" s="31" t="s">
         <v>340</v>
       </c>
       <c r="D93" s="8" t="s">
@@ -5616,14 +5676,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
         <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>344</v>
       </c>
-      <c r="C94" s="32" t="s">
+      <c r="C94" s="31" t="s">
         <v>345</v>
       </c>
       <c r="D94" s="8" t="s">
@@ -5651,14 +5711,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>348</v>
       </c>
-      <c r="C95" s="32" t="s">
+      <c r="C95" s="31" t="s">
         <v>349</v>
       </c>
       <c r="D95" s="8" t="s">
@@ -5686,14 +5746,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>353</v>
       </c>
-      <c r="C96" s="32" t="s">
+      <c r="C96" s="31" t="s">
         <v>354</v>
       </c>
       <c r="D96" s="8" t="s">
@@ -5721,14 +5781,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>358</v>
       </c>
-      <c r="C97" s="32" t="s">
+      <c r="C97" s="31" t="s">
         <v>359</v>
       </c>
       <c r="D97" s="8" t="s">
@@ -5756,14 +5816,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
         <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>363</v>
       </c>
-      <c r="C98" s="32" t="s">
+      <c r="C98" s="31" t="s">
         <v>364</v>
       </c>
       <c r="D98" s="8" t="s">
@@ -5791,14 +5851,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>367</v>
       </c>
-      <c r="C99" s="32" t="s">
+      <c r="C99" s="31" t="s">
         <v>368</v>
       </c>
       <c r="D99" s="8" t="s">
@@ -5807,7 +5867,9 @@
       <c r="E99" t="s">
         <v>12</v>
       </c>
-      <c r="F99" s="2"/>
+      <c r="F99" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G99" s="2" t="s">
         <v>56</v>
       </c>
@@ -5821,14 +5883,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
         <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>369</v>
       </c>
-      <c r="C100" s="32" t="s">
+      <c r="C100" s="31" t="s">
         <v>370</v>
       </c>
       <c r="D100" s="8" t="s">
@@ -5837,7 +5899,9 @@
       <c r="E100" t="s">
         <v>12</v>
       </c>
-      <c r="F100" s="2"/>
+      <c r="F100" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G100" s="2" t="s">
         <v>56</v>
       </c>
@@ -5852,14 +5916,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>371</v>
       </c>
-      <c r="C101" s="32" t="s">
+      <c r="C101" s="31" t="s">
         <v>372</v>
       </c>
       <c r="D101" s="8" t="s">
@@ -5887,14 +5951,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="7">
         <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>375</v>
       </c>
-      <c r="C102" s="32" t="s">
+      <c r="C102" s="31" t="s">
         <v>376</v>
       </c>
       <c r="D102" s="8" t="s">
@@ -5922,14 +5986,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
         <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>380</v>
       </c>
-      <c r="C103" s="32" t="s">
+      <c r="C103" s="31" t="s">
         <v>381</v>
       </c>
       <c r="D103" s="8" t="s">
@@ -5957,14 +6021,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="7">
         <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>385</v>
       </c>
-      <c r="C104" s="32" t="s">
+      <c r="C104" s="31" t="s">
         <v>386</v>
       </c>
       <c r="D104" s="8" t="s">
@@ -5973,7 +6037,9 @@
       <c r="E104" t="s">
         <v>12</v>
       </c>
-      <c r="F104" s="2"/>
+      <c r="F104" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G104" s="2" t="s">
         <v>56</v>
       </c>
@@ -5988,14 +6054,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
         <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>387</v>
       </c>
-      <c r="C105" s="32" t="s">
+      <c r="C105" s="31" t="s">
         <v>388</v>
       </c>
       <c r="D105" s="8" t="s">
@@ -6023,14 +6089,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="7">
         <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>391</v>
       </c>
-      <c r="C106" s="32" t="s">
+      <c r="C106" s="31" t="s">
         <v>392</v>
       </c>
       <c r="D106" s="8" t="s">
@@ -6058,14 +6124,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
         <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>395</v>
       </c>
-      <c r="C107" s="32" t="s">
+      <c r="C107" s="31" t="s">
         <v>396</v>
       </c>
       <c r="D107" s="8" t="s">
@@ -6074,7 +6140,9 @@
       <c r="E107" t="s">
         <v>12</v>
       </c>
-      <c r="F107" s="2"/>
+      <c r="F107" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G107" s="2" t="s">
         <v>56</v>
       </c>
@@ -6088,14 +6156,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="7">
         <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>397</v>
       </c>
-      <c r="C108" s="32" t="s">
+      <c r="C108" s="31" t="s">
         <v>398</v>
       </c>
       <c r="D108" s="8" t="s">
@@ -6104,7 +6172,9 @@
       <c r="E108" t="s">
         <v>12</v>
       </c>
-      <c r="F108" s="2"/>
+      <c r="F108" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G108" s="2" t="s">
         <v>56</v>
       </c>
@@ -6118,14 +6188,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
         <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>399</v>
       </c>
-      <c r="C109" s="32" t="s">
+      <c r="C109" s="31" t="s">
         <v>400</v>
       </c>
       <c r="D109" s="8" t="s">
@@ -6134,7 +6204,9 @@
       <c r="E109" t="s">
         <v>12</v>
       </c>
-      <c r="F109" s="2"/>
+      <c r="F109" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G109" s="2" t="s">
         <v>56</v>
       </c>
@@ -6148,14 +6220,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
         <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>401</v>
       </c>
-      <c r="C110" s="32" t="s">
+      <c r="C110" s="31" t="s">
         <v>402</v>
       </c>
       <c r="D110" s="8" t="s">
@@ -6164,7 +6236,9 @@
       <c r="E110" t="s">
         <v>12</v>
       </c>
-      <c r="F110" s="2"/>
+      <c r="F110" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G110" s="2" t="s">
         <v>56</v>
       </c>
@@ -6178,14 +6252,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
         <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>403</v>
       </c>
-      <c r="C111" s="32" t="s">
+      <c r="C111" s="31" t="s">
         <v>404</v>
       </c>
       <c r="D111" s="8" t="s">
@@ -6194,7 +6268,9 @@
       <c r="E111" t="s">
         <v>12</v>
       </c>
-      <c r="F111" s="2"/>
+      <c r="F111" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G111" s="2" t="s">
         <v>56</v>
       </c>
@@ -6209,14 +6285,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="8">
         <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>405</v>
       </c>
-      <c r="C112" s="32" t="s">
+      <c r="C112" s="31" t="s">
         <v>406</v>
       </c>
       <c r="D112" s="8" t="s">
@@ -6225,7 +6301,9 @@
       <c r="E112" t="s">
         <v>12</v>
       </c>
-      <c r="F112" s="2"/>
+      <c r="F112" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G112" s="2" t="s">
         <v>56</v>
       </c>
@@ -6240,14 +6318,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
         <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>407</v>
       </c>
-      <c r="C113" s="32" t="s">
+      <c r="C113" s="31" t="s">
         <v>408</v>
       </c>
       <c r="D113" s="8" t="s">
@@ -6256,7 +6334,9 @@
       <c r="E113" t="s">
         <v>12</v>
       </c>
-      <c r="F113" s="2"/>
+      <c r="F113" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G113" s="2" t="s">
         <v>56</v>
       </c>
@@ -6271,14 +6351,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="8">
         <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>409</v>
       </c>
-      <c r="C114" s="32" t="s">
+      <c r="C114" s="31" t="s">
         <v>410</v>
       </c>
       <c r="D114" s="8" t="s">
@@ -6287,7 +6367,9 @@
       <c r="E114" t="s">
         <v>12</v>
       </c>
-      <c r="F114" s="2"/>
+      <c r="F114" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G114" s="2" t="s">
         <v>56</v>
       </c>
@@ -6302,14 +6384,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
         <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>411</v>
       </c>
-      <c r="C115" s="32" t="s">
+      <c r="C115" s="31" t="s">
         <v>412</v>
       </c>
       <c r="D115" s="8" t="s">
@@ -6318,7 +6400,9 @@
       <c r="E115" t="s">
         <v>12</v>
       </c>
-      <c r="F115" s="2"/>
+      <c r="F115" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G115" s="2" t="s">
         <v>56</v>
       </c>
@@ -6333,14 +6417,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
         <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>413</v>
       </c>
-      <c r="C116" s="32" t="s">
+      <c r="C116" s="31" t="s">
         <v>414</v>
       </c>
       <c r="D116" s="8" t="s">
@@ -6349,7 +6433,9 @@
       <c r="E116" t="s">
         <v>12</v>
       </c>
-      <c r="F116" s="2"/>
+      <c r="F116" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G116" s="2" t="s">
         <v>56</v>
       </c>
@@ -6364,14 +6450,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="8">
         <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>415</v>
       </c>
-      <c r="C117" s="32" t="s">
+      <c r="C117" s="31" t="s">
         <v>416</v>
       </c>
       <c r="D117" s="8" t="s">
@@ -6380,7 +6466,9 @@
       <c r="E117" t="s">
         <v>12</v>
       </c>
-      <c r="F117" s="2"/>
+      <c r="F117" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G117" s="2" t="s">
         <v>56</v>
       </c>
@@ -6395,14 +6483,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="7">
         <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>417</v>
       </c>
-      <c r="C118" s="32" t="s">
+      <c r="C118" s="31" t="s">
         <v>418</v>
       </c>
       <c r="D118" s="8" t="s">
@@ -6411,7 +6499,9 @@
       <c r="E118" t="s">
         <v>12</v>
       </c>
-      <c r="F118" s="2"/>
+      <c r="F118" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G118" s="2" t="s">
         <v>56</v>
       </c>
@@ -6426,14 +6516,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="8">
         <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>419</v>
       </c>
-      <c r="C119" s="32" t="s">
+      <c r="C119" s="31" t="s">
         <v>420</v>
       </c>
       <c r="D119" s="8" t="s">
@@ -6442,7 +6532,9 @@
       <c r="E119" t="s">
         <v>12</v>
       </c>
-      <c r="F119" s="2"/>
+      <c r="F119" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G119" s="2" t="s">
         <v>56</v>
       </c>
@@ -6456,14 +6548,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="7">
         <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>421</v>
       </c>
-      <c r="C120" s="32" t="s">
+      <c r="C120" s="31" t="s">
         <v>422</v>
       </c>
       <c r="D120" s="8" t="s">
@@ -6472,7 +6564,9 @@
       <c r="E120" t="s">
         <v>12</v>
       </c>
-      <c r="F120" s="2"/>
+      <c r="F120" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G120" s="2" t="s">
         <v>56</v>
       </c>
@@ -6486,14 +6580,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="8">
         <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>423</v>
       </c>
-      <c r="C121" s="32" t="s">
+      <c r="C121" s="31" t="s">
         <v>424</v>
       </c>
       <c r="D121" s="8" t="s">
@@ -6502,7 +6596,9 @@
       <c r="E121" t="s">
         <v>12</v>
       </c>
-      <c r="F121" s="2"/>
+      <c r="F121" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G121" s="2" t="s">
         <v>56</v>
       </c>
@@ -6516,14 +6612,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="7">
         <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>425</v>
       </c>
-      <c r="C122" s="32" t="s">
+      <c r="C122" s="31" t="s">
         <v>426</v>
       </c>
       <c r="D122" s="8" t="s">
@@ -6532,7 +6628,9 @@
       <c r="E122" t="s">
         <v>12</v>
       </c>
-      <c r="F122" s="2"/>
+      <c r="F122" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G122" s="2" t="s">
         <v>56</v>
       </c>
@@ -6546,14 +6644,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="7">
         <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>427</v>
       </c>
-      <c r="C123" s="32" t="s">
+      <c r="C123" s="31" t="s">
         <v>428</v>
       </c>
       <c r="D123" s="8" t="s">
@@ -6562,7 +6660,9 @@
       <c r="E123" t="s">
         <v>12</v>
       </c>
-      <c r="F123" s="2"/>
+      <c r="F123" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G123" s="2" t="s">
         <v>56</v>
       </c>
@@ -6576,14 +6676,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="8">
         <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>429</v>
       </c>
-      <c r="C124" s="32" t="s">
+      <c r="C124" s="31" t="s">
         <v>430</v>
       </c>
       <c r="D124" s="8" t="s">
@@ -6592,7 +6692,9 @@
       <c r="E124" t="s">
         <v>12</v>
       </c>
-      <c r="F124" s="2"/>
+      <c r="F124" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G124" s="2" t="s">
         <v>56</v>
       </c>
@@ -6606,14 +6708,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="7">
         <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>431</v>
       </c>
-      <c r="C125" s="32" t="s">
+      <c r="C125" s="31" t="s">
         <v>432</v>
       </c>
       <c r="D125" s="8" t="s">
@@ -6622,7 +6724,9 @@
       <c r="E125" t="s">
         <v>12</v>
       </c>
-      <c r="F125" s="2"/>
+      <c r="F125" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G125" s="2" t="s">
         <v>56</v>
       </c>
@@ -6636,14 +6740,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="8">
         <v>125</v>
       </c>
       <c r="B126" t="s">
         <v>433</v>
       </c>
-      <c r="C126" s="32" t="s">
+      <c r="C126" s="31" t="s">
         <v>434</v>
       </c>
       <c r="D126" s="8" t="s">
@@ -6652,7 +6756,9 @@
       <c r="E126" t="s">
         <v>12</v>
       </c>
-      <c r="F126" s="2"/>
+      <c r="F126" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G126" s="2" t="s">
         <v>56</v>
       </c>
@@ -6666,14 +6772,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="7">
         <v>126</v>
       </c>
       <c r="B127" t="s">
         <v>435</v>
       </c>
-      <c r="C127" s="32" t="s">
+      <c r="C127" s="31" t="s">
         <v>436</v>
       </c>
       <c r="D127" s="8" t="s">
@@ -6682,7 +6788,9 @@
       <c r="E127" t="s">
         <v>12</v>
       </c>
-      <c r="F127" s="2"/>
+      <c r="F127" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G127" s="2" t="s">
         <v>56</v>
       </c>
@@ -6696,14 +6804,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="8">
         <v>127</v>
       </c>
       <c r="B128" t="s">
         <v>437</v>
       </c>
-      <c r="C128" s="32" t="s">
+      <c r="C128" s="31" t="s">
         <v>438</v>
       </c>
       <c r="D128" s="8" t="s">
@@ -6712,7 +6820,9 @@
       <c r="E128" t="s">
         <v>12</v>
       </c>
-      <c r="F128" s="2"/>
+      <c r="F128" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G128" s="2" t="s">
         <v>56</v>
       </c>
@@ -6732,6 +6842,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -6972,15 +7091,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -6994,6 +7104,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8FD927B-486E-4736-8E9F-ABBC39C726CA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7012,27 +7130,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4056A9CA-2F02-448B-95FE-A9EC616FB2A9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_KORA_S3_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S3_P1.xlsx
@@ -6732,8 +6732,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="469a6eb96ad966ecf414cbd08d83bba5">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5915d0245b59987052a213843dad7059" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
     <xsd:import namespace="12535b08-222e-45d2-b6db-15019f1afee6"/>
     <xsd:element name="properties">
@@ -6787,7 +6787,7 @@
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkierungen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="202992e8-d9f0-41e6-b50d-31ec800fc6f2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="202992e8-d9f0-41e6-b50d-31ec800fc6f2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -6846,7 +6846,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Freigegeben für" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -6865,7 +6865,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Freigegeben für - Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -6882,8 +6882,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhaltstyp"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -6994,22 +6994,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8FD927B-486E-4736-8E9F-ABBC39C726CA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C38A3F21-A454-40C5-AB70-1508AA3402A3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/rmonize/data_proc_elem/DPE_KORA_S3_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S3_P1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\HarmonizR\use-cases-harmonisation\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{0DC89B52-5B10-4A06-9106-C32747F8F37A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A6541E-634C-4981-ABF9-E604BBEB0679}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements_templa" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="444">
   <si>
     <t>index</t>
   </si>
@@ -1482,6 +1482,9 @@
     <t>intake of amphibians, reptiles, snails, insects [g/d]</t>
   </si>
   <si>
+    <t>D_ID</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -1496,9 +1499,6 @@
 DV147 (bacon) + 
 DV150 (canned, frozen meat or meat products) + 
 DV160 (other meat products)</t>
-  </si>
-  <si>
-    <t>d_id</t>
   </si>
 </sst>
 </file>
@@ -2097,6 +2097,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2117,9 +2120,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2479,27 +2479,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F137" sqref="F137"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="7"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="7"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="8"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="8"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2534,14 +2534,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="C2" s="29" t="s">
+        <v>440</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="13" t="s">
@@ -2550,8 +2550,8 @@
       <c r="E2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="32" t="s">
-        <v>443</v>
+      <c r="F2" s="33" t="s">
+        <v>439</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>13</v>
@@ -2569,14 +2569,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="31" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -2602,14 +2602,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="31" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -2635,14 +2635,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="30" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -2668,14 +2668,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="31" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -2701,14 +2701,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="30" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -2734,7 +2734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -2750,7 +2750,7 @@
       <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="27" t="s">
         <v>37</v>
       </c>
       <c r="G8" s="11" t="s">
@@ -2767,7 +2767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -2783,7 +2783,7 @@
       <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="29" t="s">
         <v>40</v>
       </c>
       <c r="G9" s="11" t="s">
@@ -2800,14 +2800,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="30" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -2835,14 +2835,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="32" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -2851,7 +2851,7 @@
       <c r="E11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="26" t="s">
         <v>43</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -2870,14 +2870,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="32" t="s">
         <v>55</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -2886,9 +2886,7 @@
       <c r="E12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
         <v>56</v>
       </c>
@@ -2903,14 +2901,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="32" t="s">
         <v>58</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -2919,7 +2917,7 @@
       <c r="E13" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="2" t="s">
         <v>59</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -2938,14 +2936,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="32" t="s">
         <v>63</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -2973,14 +2971,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="32" t="s">
         <v>68</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -3008,14 +3006,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -3043,14 +3041,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="32" t="s">
         <v>77</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -3078,14 +3076,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="32" t="s">
         <v>82</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -3094,9 +3092,7 @@
       <c r="E18" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
         <v>56</v>
       </c>
@@ -3110,14 +3106,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="32" t="s">
         <v>84</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -3126,9 +3122,7 @@
       <c r="E19" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
         <v>56</v>
       </c>
@@ -3143,14 +3137,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="32" t="s">
         <v>86</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -3178,14 +3172,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="32" t="s">
         <v>90</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -3213,14 +3207,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="32" t="s">
         <v>92</v>
       </c>
       <c r="D22" s="8" t="s">
@@ -3229,9 +3223,7 @@
       <c r="E22" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
         <v>56</v>
       </c>
@@ -3246,14 +3238,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="32" t="s">
         <v>94</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -3281,14 +3273,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="32" t="s">
         <v>98</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -3297,9 +3289,7 @@
       <c r="E24" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
         <v>56</v>
       </c>
@@ -3314,14 +3304,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="32" t="s">
         <v>100</v>
       </c>
       <c r="D25" s="8" t="s">
@@ -3349,14 +3339,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="32" t="s">
         <v>105</v>
       </c>
       <c r="D26" s="8" t="s">
@@ -3384,14 +3374,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="32" t="s">
         <v>110</v>
       </c>
       <c r="D27" s="8" t="s">
@@ -3419,14 +3409,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="32" t="s">
         <v>114</v>
       </c>
       <c r="D28" s="8" t="s">
@@ -3454,14 +3444,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="32" t="s">
         <v>119</v>
       </c>
       <c r="D29" s="8" t="s">
@@ -3470,9 +3460,7 @@
       <c r="E29" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
         <v>56</v>
       </c>
@@ -3487,14 +3475,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="32" t="s">
         <v>121</v>
       </c>
       <c r="D30" s="8" t="s">
@@ -3522,14 +3510,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="32" t="s">
         <v>126</v>
       </c>
       <c r="D31" s="8" t="s">
@@ -3557,14 +3545,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="32" t="s">
         <v>130</v>
       </c>
       <c r="D32" s="8" t="s">
@@ -3573,9 +3561,7 @@
       <c r="E32" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
         <v>56</v>
       </c>
@@ -3590,14 +3576,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="32" t="s">
         <v>132</v>
       </c>
       <c r="D33" s="8" t="s">
@@ -3625,14 +3611,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="32" t="s">
         <v>136</v>
       </c>
       <c r="D34" s="8" t="s">
@@ -3660,14 +3646,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="32" t="s">
         <v>140</v>
       </c>
       <c r="D35" s="8" t="s">
@@ -3695,14 +3681,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="32" t="s">
         <v>144</v>
       </c>
       <c r="D36" s="8" t="s">
@@ -3711,9 +3697,7 @@
       <c r="E36" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
         <v>56</v>
       </c>
@@ -3727,14 +3711,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="32" t="s">
         <v>146</v>
       </c>
       <c r="D37" s="8" t="s">
@@ -3743,9 +3727,7 @@
       <c r="E37" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
         <v>56</v>
       </c>
@@ -3760,14 +3742,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="32" t="s">
         <v>148</v>
       </c>
       <c r="D38" s="8" t="s">
@@ -3795,14 +3777,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="32" t="s">
         <v>152</v>
       </c>
       <c r="D39" s="8" t="s">
@@ -3811,9 +3793,7 @@
       <c r="E39" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
         <v>56</v>
       </c>
@@ -3828,14 +3808,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C40" s="31" t="s">
+      <c r="C40" s="32" t="s">
         <v>154</v>
       </c>
       <c r="D40" s="8" t="s">
@@ -3863,14 +3843,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C41" s="31" t="s">
+      <c r="C41" s="32" t="s">
         <v>158</v>
       </c>
       <c r="D41" s="8" t="s">
@@ -3898,14 +3878,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C42" s="31" t="s">
+      <c r="C42" s="32" t="s">
         <v>163</v>
       </c>
       <c r="D42" s="8" t="s">
@@ -3933,14 +3913,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="32" t="s">
         <v>168</v>
       </c>
       <c r="D43" s="8" t="s">
@@ -3968,14 +3948,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="32" t="s">
         <v>173</v>
       </c>
       <c r="D44" s="8" t="s">
@@ -4004,14 +3984,14 @@
       </c>
       <c r="L44" s="11"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C45" s="31" t="s">
+      <c r="C45" s="32" t="s">
         <v>178</v>
       </c>
       <c r="D45" s="8" t="s">
@@ -4039,14 +4019,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C46" s="31" t="s">
+      <c r="C46" s="32" t="s">
         <v>183</v>
       </c>
       <c r="D46" s="8" t="s">
@@ -4074,14 +4054,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C47" s="31" t="s">
+      <c r="C47" s="32" t="s">
         <v>187</v>
       </c>
       <c r="D47" s="8" t="s">
@@ -4090,9 +4070,7 @@
       <c r="E47" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F47" s="2"/>
       <c r="G47" s="2" t="s">
         <v>56</v>
       </c>
@@ -4106,14 +4084,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C48" s="31" t="s">
+      <c r="C48" s="32" t="s">
         <v>189</v>
       </c>
       <c r="D48" s="8" t="s">
@@ -4122,9 +4100,7 @@
       <c r="E48" t="s">
         <v>12</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
         <v>56</v>
       </c>
@@ -4138,14 +4114,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C49" s="31" t="s">
+      <c r="C49" s="32" t="s">
         <v>191</v>
       </c>
       <c r="D49" s="8" t="s">
@@ -4154,9 +4130,7 @@
       <c r="E49" t="s">
         <v>12</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
         <v>30</v>
       </c>
@@ -4173,14 +4147,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C50" s="31" t="s">
+      <c r="C50" s="32" t="s">
         <v>194</v>
       </c>
       <c r="D50" s="8" t="s">
@@ -4208,14 +4182,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C51" s="31" t="s">
+      <c r="C51" s="32" t="s">
         <v>199</v>
       </c>
       <c r="D51" s="8" t="s">
@@ -4243,14 +4217,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="32" t="s">
         <v>204</v>
       </c>
       <c r="D52" s="8" t="s">
@@ -4278,14 +4252,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C53" s="31" t="s">
+      <c r="C53" s="32" t="s">
         <v>208</v>
       </c>
       <c r="D53" s="8" t="s">
@@ -4313,14 +4287,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C54" s="31" t="s">
+      <c r="C54" s="32" t="s">
         <v>212</v>
       </c>
       <c r="D54" s="8" t="s">
@@ -4348,14 +4322,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C55" s="31" t="s">
+      <c r="C55" s="32" t="s">
         <v>216</v>
       </c>
       <c r="D55" s="8" t="s">
@@ -4373,7 +4347,7 @@
       <c r="H55" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="I55" s="27" t="s">
+      <c r="I55" s="28" t="s">
         <v>219</v>
       </c>
       <c r="J55" s="1" t="s">
@@ -4383,14 +4357,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C56" s="31" t="s">
+      <c r="C56" s="32" t="s">
         <v>221</v>
       </c>
       <c r="D56" s="8" t="s">
@@ -4399,9 +4373,7 @@
       <c r="E56" t="s">
         <v>12</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F56" s="2"/>
       <c r="G56" s="2" t="s">
         <v>56</v>
       </c>
@@ -4416,14 +4388,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C57" s="31" t="s">
+      <c r="C57" s="32" t="s">
         <v>223</v>
       </c>
       <c r="D57" s="8" t="s">
@@ -4441,7 +4413,7 @@
       <c r="H57" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="I57" s="27" t="s">
+      <c r="I57" s="28" t="s">
         <v>219</v>
       </c>
       <c r="J57" s="1" t="s">
@@ -4451,14 +4423,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C58" s="31" t="s">
+      <c r="C58" s="32" t="s">
         <v>226</v>
       </c>
       <c r="D58" s="8" t="s">
@@ -4486,14 +4458,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C59" s="31" t="s">
+      <c r="C59" s="32" t="s">
         <v>230</v>
       </c>
       <c r="D59" s="8" t="s">
@@ -4502,9 +4474,7 @@
       <c r="E59" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F59" s="2"/>
       <c r="G59" s="2" t="s">
         <v>56</v>
       </c>
@@ -4519,14 +4489,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C60" s="31" t="s">
+      <c r="C60" s="32" t="s">
         <v>232</v>
       </c>
       <c r="D60" s="8" t="s">
@@ -4535,9 +4505,7 @@
       <c r="E60" t="s">
         <v>12</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F60" s="2"/>
       <c r="G60" s="2" t="s">
         <v>56</v>
       </c>
@@ -4552,14 +4520,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C61" s="31" t="s">
+      <c r="C61" s="32" t="s">
         <v>234</v>
       </c>
       <c r="D61" s="8" t="s">
@@ -4568,9 +4536,7 @@
       <c r="E61" t="s">
         <v>12</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F61" s="2"/>
       <c r="G61" s="2" t="s">
         <v>56</v>
       </c>
@@ -4585,14 +4551,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C62" s="31" t="s">
+      <c r="C62" s="32" t="s">
         <v>236</v>
       </c>
       <c r="D62" s="8" t="s">
@@ -4601,9 +4567,7 @@
       <c r="E62" t="s">
         <v>12</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F62" s="2"/>
       <c r="G62" s="2" t="s">
         <v>56</v>
       </c>
@@ -4618,14 +4582,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C63" s="31" t="s">
+      <c r="C63" s="32" t="s">
         <v>238</v>
       </c>
       <c r="D63" s="8" t="s">
@@ -4634,9 +4598,7 @@
       <c r="E63" t="s">
         <v>12</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F63" s="2"/>
       <c r="G63" s="2" t="s">
         <v>56</v>
       </c>
@@ -4651,14 +4613,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C64" s="31" t="s">
+      <c r="C64" s="32" t="s">
         <v>240</v>
       </c>
       <c r="D64" s="8" t="s">
@@ -4667,9 +4629,7 @@
       <c r="E64" t="s">
         <v>12</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F64" s="2"/>
       <c r="G64" s="2" t="s">
         <v>56</v>
       </c>
@@ -4684,14 +4644,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C65" s="31" t="s">
+      <c r="C65" s="32" t="s">
         <v>242</v>
       </c>
       <c r="D65" s="8" t="s">
@@ -4719,14 +4679,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C66" s="31" t="s">
+      <c r="C66" s="32" t="s">
         <v>246</v>
       </c>
       <c r="D66" s="8" t="s">
@@ -4736,16 +4696,16 @@
         <v>12</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="I66" s="33" t="s">
         <v>442</v>
+      </c>
+      <c r="I66" s="34" t="s">
+        <v>443</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>52</v>
@@ -4754,14 +4714,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C67" s="31" t="s">
+      <c r="C67" s="32" t="s">
         <v>248</v>
       </c>
       <c r="D67" s="8" t="s">
@@ -4789,14 +4749,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C68" s="31" t="s">
+      <c r="C68" s="32" t="s">
         <v>252</v>
       </c>
       <c r="D68" s="8" t="s">
@@ -4824,14 +4784,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C69" s="31" t="s">
+      <c r="C69" s="32" t="s">
         <v>257</v>
       </c>
       <c r="D69" s="8" t="s">
@@ -4859,14 +4819,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C70" s="31" t="s">
+      <c r="C70" s="32" t="s">
         <v>261</v>
       </c>
       <c r="D70" s="8" t="s">
@@ -4875,9 +4835,7 @@
       <c r="E70" t="s">
         <v>12</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F70" s="2"/>
       <c r="G70" s="2" t="s">
         <v>56</v>
       </c>
@@ -4892,14 +4850,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C71" s="31" t="s">
+      <c r="C71" s="32" t="s">
         <v>263</v>
       </c>
       <c r="D71" s="8" t="s">
@@ -4927,14 +4885,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>267</v>
       </c>
-      <c r="C72" s="31" t="s">
+      <c r="C72" s="32" t="s">
         <v>268</v>
       </c>
       <c r="D72" s="8" t="s">
@@ -4962,14 +4920,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>272</v>
       </c>
-      <c r="C73" s="31" t="s">
+      <c r="C73" s="32" t="s">
         <v>273</v>
       </c>
       <c r="D73" s="8" t="s">
@@ -4997,14 +4955,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
         <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>276</v>
       </c>
-      <c r="C74" s="31" t="s">
+      <c r="C74" s="32" t="s">
         <v>277</v>
       </c>
       <c r="D74" s="8" t="s">
@@ -5032,14 +4990,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>281</v>
       </c>
-      <c r="C75" s="31" t="s">
+      <c r="C75" s="32" t="s">
         <v>282</v>
       </c>
       <c r="D75" s="8" t="s">
@@ -5067,14 +5025,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="7">
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>285</v>
       </c>
-      <c r="C76" s="31" t="s">
+      <c r="C76" s="32" t="s">
         <v>286</v>
       </c>
       <c r="D76" s="8" t="s">
@@ -5102,14 +5060,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
         <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>289</v>
       </c>
-      <c r="C77" s="31" t="s">
+      <c r="C77" s="32" t="s">
         <v>290</v>
       </c>
       <c r="D77" s="8" t="s">
@@ -5137,14 +5095,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
         <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>293</v>
       </c>
-      <c r="C78" s="31" t="s">
+      <c r="C78" s="32" t="s">
         <v>294</v>
       </c>
       <c r="D78" s="8" t="s">
@@ -5153,9 +5111,7 @@
       <c r="E78" t="s">
         <v>12</v>
       </c>
-      <c r="F78" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F78" s="2"/>
       <c r="G78" s="2" t="s">
         <v>56</v>
       </c>
@@ -5170,14 +5126,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
         <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>295</v>
       </c>
-      <c r="C79" s="31" t="s">
+      <c r="C79" s="32" t="s">
         <v>296</v>
       </c>
       <c r="D79" s="8" t="s">
@@ -5186,9 +5142,7 @@
       <c r="E79" t="s">
         <v>12</v>
       </c>
-      <c r="F79" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F79" s="2"/>
       <c r="G79" s="2" t="s">
         <v>56</v>
       </c>
@@ -5202,14 +5156,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
         <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>297</v>
       </c>
-      <c r="C80" s="31" t="s">
+      <c r="C80" s="32" t="s">
         <v>298</v>
       </c>
       <c r="D80" s="8" t="s">
@@ -5218,9 +5172,7 @@
       <c r="E80" t="s">
         <v>12</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F80" s="2"/>
       <c r="G80" s="2" t="s">
         <v>56</v>
       </c>
@@ -5234,14 +5186,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="7">
         <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>299</v>
       </c>
-      <c r="C81" s="31" t="s">
+      <c r="C81" s="32" t="s">
         <v>300</v>
       </c>
       <c r="D81" s="8" t="s">
@@ -5269,14 +5221,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
         <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>304</v>
       </c>
-      <c r="C82" s="31" t="s">
+      <c r="C82" s="32" t="s">
         <v>305</v>
       </c>
       <c r="D82" s="8" t="s">
@@ -5304,14 +5256,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="7">
         <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>309</v>
       </c>
-      <c r="C83" s="31" t="s">
+      <c r="C83" s="32" t="s">
         <v>310</v>
       </c>
       <c r="D83" s="8" t="s">
@@ -5339,14 +5291,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A84" s="8">
         <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>314</v>
       </c>
-      <c r="C84" s="31" t="s">
+      <c r="C84" s="32" t="s">
         <v>315</v>
       </c>
       <c r="D84" s="8" t="s">
@@ -5374,14 +5326,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
         <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>318</v>
       </c>
-      <c r="C85" s="31" t="s">
+      <c r="C85" s="32" t="s">
         <v>319</v>
       </c>
       <c r="D85" s="8" t="s">
@@ -5390,9 +5342,7 @@
       <c r="E85" t="s">
         <v>12</v>
       </c>
-      <c r="F85" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F85" s="2"/>
       <c r="G85" s="2" t="s">
         <v>56</v>
       </c>
@@ -5407,14 +5357,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="8">
         <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>320</v>
       </c>
-      <c r="C86" s="31" t="s">
+      <c r="C86" s="32" t="s">
         <v>321</v>
       </c>
       <c r="D86" s="8" t="s">
@@ -5423,9 +5373,7 @@
       <c r="E86" t="s">
         <v>12</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F86" s="2"/>
       <c r="G86" s="2" t="s">
         <v>56</v>
       </c>
@@ -5439,14 +5387,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="7">
         <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>322</v>
       </c>
-      <c r="C87" s="31" t="s">
+      <c r="C87" s="32" t="s">
         <v>323</v>
       </c>
       <c r="D87" s="8" t="s">
@@ -5474,14 +5422,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="7">
         <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>326</v>
       </c>
-      <c r="C88" s="31" t="s">
+      <c r="C88" s="32" t="s">
         <v>327</v>
       </c>
       <c r="D88" s="8" t="s">
@@ -5490,9 +5438,7 @@
       <c r="E88" t="s">
         <v>12</v>
       </c>
-      <c r="F88" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F88" s="2"/>
       <c r="G88" s="2" t="s">
         <v>56</v>
       </c>
@@ -5507,14 +5453,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
         <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>328</v>
       </c>
-      <c r="C89" s="31" t="s">
+      <c r="C89" s="32" t="s">
         <v>329</v>
       </c>
       <c r="D89" s="8" t="s">
@@ -5523,9 +5469,7 @@
       <c r="E89" t="s">
         <v>12</v>
       </c>
-      <c r="F89" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F89" s="2"/>
       <c r="G89" s="2" t="s">
         <v>56</v>
       </c>
@@ -5540,14 +5484,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="7">
         <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>330</v>
       </c>
-      <c r="C90" s="31" t="s">
+      <c r="C90" s="32" t="s">
         <v>331</v>
       </c>
       <c r="D90" s="8" t="s">
@@ -5575,14 +5519,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
         <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>335</v>
       </c>
-      <c r="C91" s="31" t="s">
+      <c r="C91" s="32" t="s">
         <v>336</v>
       </c>
       <c r="D91" s="8" t="s">
@@ -5591,9 +5535,7 @@
       <c r="E91" t="s">
         <v>12</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F91" s="2"/>
       <c r="G91" s="2" t="s">
         <v>56</v>
       </c>
@@ -5608,14 +5550,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="7">
         <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>337</v>
       </c>
-      <c r="C92" s="31" t="s">
+      <c r="C92" s="32" t="s">
         <v>338</v>
       </c>
       <c r="D92" s="8" t="s">
@@ -5624,9 +5566,7 @@
       <c r="E92" t="s">
         <v>12</v>
       </c>
-      <c r="F92" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F92" s="2"/>
       <c r="G92" s="2" t="s">
         <v>56</v>
       </c>
@@ -5641,14 +5581,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="8">
         <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>339</v>
       </c>
-      <c r="C93" s="31" t="s">
+      <c r="C93" s="32" t="s">
         <v>340</v>
       </c>
       <c r="D93" s="8" t="s">
@@ -5676,14 +5616,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="7">
         <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>344</v>
       </c>
-      <c r="C94" s="31" t="s">
+      <c r="C94" s="32" t="s">
         <v>345</v>
       </c>
       <c r="D94" s="8" t="s">
@@ -5711,14 +5651,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="7">
         <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>348</v>
       </c>
-      <c r="C95" s="31" t="s">
+      <c r="C95" s="32" t="s">
         <v>349</v>
       </c>
       <c r="D95" s="8" t="s">
@@ -5746,14 +5686,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="8">
         <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>353</v>
       </c>
-      <c r="C96" s="31" t="s">
+      <c r="C96" s="32" t="s">
         <v>354</v>
       </c>
       <c r="D96" s="8" t="s">
@@ -5781,14 +5721,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="7">
         <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>358</v>
       </c>
-      <c r="C97" s="31" t="s">
+      <c r="C97" s="32" t="s">
         <v>359</v>
       </c>
       <c r="D97" s="8" t="s">
@@ -5816,14 +5756,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="8">
         <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>363</v>
       </c>
-      <c r="C98" s="31" t="s">
+      <c r="C98" s="32" t="s">
         <v>364</v>
       </c>
       <c r="D98" s="8" t="s">
@@ -5851,14 +5791,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="7">
         <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>367</v>
       </c>
-      <c r="C99" s="31" t="s">
+      <c r="C99" s="32" t="s">
         <v>368</v>
       </c>
       <c r="D99" s="8" t="s">
@@ -5867,9 +5807,7 @@
       <c r="E99" t="s">
         <v>12</v>
       </c>
-      <c r="F99" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F99" s="2"/>
       <c r="G99" s="2" t="s">
         <v>56</v>
       </c>
@@ -5883,14 +5821,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="8">
         <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>369</v>
       </c>
-      <c r="C100" s="31" t="s">
+      <c r="C100" s="32" t="s">
         <v>370</v>
       </c>
       <c r="D100" s="8" t="s">
@@ -5899,9 +5837,7 @@
       <c r="E100" t="s">
         <v>12</v>
       </c>
-      <c r="F100" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F100" s="2"/>
       <c r="G100" s="2" t="s">
         <v>56</v>
       </c>
@@ -5916,14 +5852,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="7">
         <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>371</v>
       </c>
-      <c r="C101" s="31" t="s">
+      <c r="C101" s="32" t="s">
         <v>372</v>
       </c>
       <c r="D101" s="8" t="s">
@@ -5951,14 +5887,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="7">
         <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>375</v>
       </c>
-      <c r="C102" s="31" t="s">
+      <c r="C102" s="32" t="s">
         <v>376</v>
       </c>
       <c r="D102" s="8" t="s">
@@ -5986,14 +5922,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="8">
         <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>380</v>
       </c>
-      <c r="C103" s="31" t="s">
+      <c r="C103" s="32" t="s">
         <v>381</v>
       </c>
       <c r="D103" s="8" t="s">
@@ -6021,14 +5957,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="7">
         <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>385</v>
       </c>
-      <c r="C104" s="31" t="s">
+      <c r="C104" s="32" t="s">
         <v>386</v>
       </c>
       <c r="D104" s="8" t="s">
@@ -6037,9 +5973,7 @@
       <c r="E104" t="s">
         <v>12</v>
       </c>
-      <c r="F104" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F104" s="2"/>
       <c r="G104" s="2" t="s">
         <v>56</v>
       </c>
@@ -6054,14 +5988,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="8">
         <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>387</v>
       </c>
-      <c r="C105" s="31" t="s">
+      <c r="C105" s="32" t="s">
         <v>388</v>
       </c>
       <c r="D105" s="8" t="s">
@@ -6089,14 +6023,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="7">
         <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>391</v>
       </c>
-      <c r="C106" s="31" t="s">
+      <c r="C106" s="32" t="s">
         <v>392</v>
       </c>
       <c r="D106" s="8" t="s">
@@ -6124,14 +6058,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="8">
         <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>395</v>
       </c>
-      <c r="C107" s="31" t="s">
+      <c r="C107" s="32" t="s">
         <v>396</v>
       </c>
       <c r="D107" s="8" t="s">
@@ -6140,9 +6074,7 @@
       <c r="E107" t="s">
         <v>12</v>
       </c>
-      <c r="F107" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F107" s="2"/>
       <c r="G107" s="2" t="s">
         <v>56</v>
       </c>
@@ -6156,14 +6088,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="7">
         <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>397</v>
       </c>
-      <c r="C108" s="31" t="s">
+      <c r="C108" s="32" t="s">
         <v>398</v>
       </c>
       <c r="D108" s="8" t="s">
@@ -6172,9 +6104,7 @@
       <c r="E108" t="s">
         <v>12</v>
       </c>
-      <c r="F108" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F108" s="2"/>
       <c r="G108" s="2" t="s">
         <v>56</v>
       </c>
@@ -6188,14 +6118,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="7">
         <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>399</v>
       </c>
-      <c r="C109" s="31" t="s">
+      <c r="C109" s="32" t="s">
         <v>400</v>
       </c>
       <c r="D109" s="8" t="s">
@@ -6204,9 +6134,7 @@
       <c r="E109" t="s">
         <v>12</v>
       </c>
-      <c r="F109" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F109" s="2"/>
       <c r="G109" s="2" t="s">
         <v>56</v>
       </c>
@@ -6220,14 +6148,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="8">
         <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>401</v>
       </c>
-      <c r="C110" s="31" t="s">
+      <c r="C110" s="32" t="s">
         <v>402</v>
       </c>
       <c r="D110" s="8" t="s">
@@ -6236,9 +6164,7 @@
       <c r="E110" t="s">
         <v>12</v>
       </c>
-      <c r="F110" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F110" s="2"/>
       <c r="G110" s="2" t="s">
         <v>56</v>
       </c>
@@ -6252,14 +6178,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="7">
         <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>403</v>
       </c>
-      <c r="C111" s="31" t="s">
+      <c r="C111" s="32" t="s">
         <v>404</v>
       </c>
       <c r="D111" s="8" t="s">
@@ -6268,9 +6194,7 @@
       <c r="E111" t="s">
         <v>12</v>
       </c>
-      <c r="F111" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F111" s="2"/>
       <c r="G111" s="2" t="s">
         <v>56</v>
       </c>
@@ -6285,14 +6209,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="8">
         <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>405</v>
       </c>
-      <c r="C112" s="31" t="s">
+      <c r="C112" s="32" t="s">
         <v>406</v>
       </c>
       <c r="D112" s="8" t="s">
@@ -6301,9 +6225,7 @@
       <c r="E112" t="s">
         <v>12</v>
       </c>
-      <c r="F112" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F112" s="2"/>
       <c r="G112" s="2" t="s">
         <v>56</v>
       </c>
@@ -6318,14 +6240,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="7">
         <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>407</v>
       </c>
-      <c r="C113" s="31" t="s">
+      <c r="C113" s="32" t="s">
         <v>408</v>
       </c>
       <c r="D113" s="8" t="s">
@@ -6334,9 +6256,7 @@
       <c r="E113" t="s">
         <v>12</v>
       </c>
-      <c r="F113" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F113" s="2"/>
       <c r="G113" s="2" t="s">
         <v>56</v>
       </c>
@@ -6351,14 +6271,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="8">
         <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>409</v>
       </c>
-      <c r="C114" s="31" t="s">
+      <c r="C114" s="32" t="s">
         <v>410</v>
       </c>
       <c r="D114" s="8" t="s">
@@ -6367,9 +6287,7 @@
       <c r="E114" t="s">
         <v>12</v>
       </c>
-      <c r="F114" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F114" s="2"/>
       <c r="G114" s="2" t="s">
         <v>56</v>
       </c>
@@ -6384,14 +6302,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="7">
         <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>411</v>
       </c>
-      <c r="C115" s="31" t="s">
+      <c r="C115" s="32" t="s">
         <v>412</v>
       </c>
       <c r="D115" s="8" t="s">
@@ -6400,9 +6318,7 @@
       <c r="E115" t="s">
         <v>12</v>
       </c>
-      <c r="F115" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F115" s="2"/>
       <c r="G115" s="2" t="s">
         <v>56</v>
       </c>
@@ -6417,14 +6333,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="7">
         <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>413</v>
       </c>
-      <c r="C116" s="31" t="s">
+      <c r="C116" s="32" t="s">
         <v>414</v>
       </c>
       <c r="D116" s="8" t="s">
@@ -6433,9 +6349,7 @@
       <c r="E116" t="s">
         <v>12</v>
       </c>
-      <c r="F116" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F116" s="2"/>
       <c r="G116" s="2" t="s">
         <v>56</v>
       </c>
@@ -6450,14 +6364,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="8">
         <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>415</v>
       </c>
-      <c r="C117" s="31" t="s">
+      <c r="C117" s="32" t="s">
         <v>416</v>
       </c>
       <c r="D117" s="8" t="s">
@@ -6466,9 +6380,7 @@
       <c r="E117" t="s">
         <v>12</v>
       </c>
-      <c r="F117" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F117" s="2"/>
       <c r="G117" s="2" t="s">
         <v>56</v>
       </c>
@@ -6483,14 +6395,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="7">
         <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>417</v>
       </c>
-      <c r="C118" s="31" t="s">
+      <c r="C118" s="32" t="s">
         <v>418</v>
       </c>
       <c r="D118" s="8" t="s">
@@ -6499,9 +6411,7 @@
       <c r="E118" t="s">
         <v>12</v>
       </c>
-      <c r="F118" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F118" s="2"/>
       <c r="G118" s="2" t="s">
         <v>56</v>
       </c>
@@ -6516,14 +6426,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="8">
         <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>419</v>
       </c>
-      <c r="C119" s="31" t="s">
+      <c r="C119" s="32" t="s">
         <v>420</v>
       </c>
       <c r="D119" s="8" t="s">
@@ -6532,9 +6442,7 @@
       <c r="E119" t="s">
         <v>12</v>
       </c>
-      <c r="F119" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F119" s="2"/>
       <c r="G119" s="2" t="s">
         <v>56</v>
       </c>
@@ -6548,14 +6456,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="7">
         <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>421</v>
       </c>
-      <c r="C120" s="31" t="s">
+      <c r="C120" s="32" t="s">
         <v>422</v>
       </c>
       <c r="D120" s="8" t="s">
@@ -6564,9 +6472,7 @@
       <c r="E120" t="s">
         <v>12</v>
       </c>
-      <c r="F120" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F120" s="2"/>
       <c r="G120" s="2" t="s">
         <v>56</v>
       </c>
@@ -6580,14 +6486,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="8">
         <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>423</v>
       </c>
-      <c r="C121" s="31" t="s">
+      <c r="C121" s="32" t="s">
         <v>424</v>
       </c>
       <c r="D121" s="8" t="s">
@@ -6596,9 +6502,7 @@
       <c r="E121" t="s">
         <v>12</v>
       </c>
-      <c r="F121" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F121" s="2"/>
       <c r="G121" s="2" t="s">
         <v>56</v>
       </c>
@@ -6612,14 +6516,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="7">
         <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>425</v>
       </c>
-      <c r="C122" s="31" t="s">
+      <c r="C122" s="32" t="s">
         <v>426</v>
       </c>
       <c r="D122" s="8" t="s">
@@ -6628,9 +6532,7 @@
       <c r="E122" t="s">
         <v>12</v>
       </c>
-      <c r="F122" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F122" s="2"/>
       <c r="G122" s="2" t="s">
         <v>56</v>
       </c>
@@ -6644,14 +6546,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="7">
         <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>427</v>
       </c>
-      <c r="C123" s="31" t="s">
+      <c r="C123" s="32" t="s">
         <v>428</v>
       </c>
       <c r="D123" s="8" t="s">
@@ -6660,9 +6562,7 @@
       <c r="E123" t="s">
         <v>12</v>
       </c>
-      <c r="F123" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F123" s="2"/>
       <c r="G123" s="2" t="s">
         <v>56</v>
       </c>
@@ -6676,14 +6576,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="8">
         <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>429</v>
       </c>
-      <c r="C124" s="31" t="s">
+      <c r="C124" s="32" t="s">
         <v>430</v>
       </c>
       <c r="D124" s="8" t="s">
@@ -6692,9 +6592,7 @@
       <c r="E124" t="s">
         <v>12</v>
       </c>
-      <c r="F124" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F124" s="2"/>
       <c r="G124" s="2" t="s">
         <v>56</v>
       </c>
@@ -6708,14 +6606,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="7">
         <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>431</v>
       </c>
-      <c r="C125" s="31" t="s">
+      <c r="C125" s="32" t="s">
         <v>432</v>
       </c>
       <c r="D125" s="8" t="s">
@@ -6724,9 +6622,7 @@
       <c r="E125" t="s">
         <v>12</v>
       </c>
-      <c r="F125" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F125" s="2"/>
       <c r="G125" s="2" t="s">
         <v>56</v>
       </c>
@@ -6740,14 +6636,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="8">
         <v>125</v>
       </c>
       <c r="B126" t="s">
         <v>433</v>
       </c>
-      <c r="C126" s="31" t="s">
+      <c r="C126" s="32" t="s">
         <v>434</v>
       </c>
       <c r="D126" s="8" t="s">
@@ -6756,9 +6652,7 @@
       <c r="E126" t="s">
         <v>12</v>
       </c>
-      <c r="F126" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F126" s="2"/>
       <c r="G126" s="2" t="s">
         <v>56</v>
       </c>
@@ -6772,14 +6666,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="7">
         <v>126</v>
       </c>
       <c r="B127" t="s">
         <v>435</v>
       </c>
-      <c r="C127" s="31" t="s">
+      <c r="C127" s="32" t="s">
         <v>436</v>
       </c>
       <c r="D127" s="8" t="s">
@@ -6788,9 +6682,7 @@
       <c r="E127" t="s">
         <v>12</v>
       </c>
-      <c r="F127" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F127" s="2"/>
       <c r="G127" s="2" t="s">
         <v>56</v>
       </c>
@@ -6804,14 +6696,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="8">
         <v>127</v>
       </c>
       <c r="B128" t="s">
         <v>437</v>
       </c>
-      <c r="C128" s="31" t="s">
+      <c r="C128" s="32" t="s">
         <v>438</v>
       </c>
       <c r="D128" s="8" t="s">
@@ -6820,9 +6712,7 @@
       <c r="E128" t="s">
         <v>12</v>
       </c>
-      <c r="F128" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F128" s="2"/>
       <c r="G128" s="2" t="s">
         <v>56</v>
       </c>
@@ -6842,15 +6732,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -7091,6 +6972,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -7104,14 +6994,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8FD927B-486E-4736-8E9F-ABBC39C726CA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7130,19 +7012,27 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4056A9CA-2F02-448B-95FE-A9EC616FB2A9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_KORA_S3_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S3_P1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\HarmonizR\use-cases-harmonisation\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{0DC89B52-5B10-4A06-9106-C32747F8F37A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F77259-2A82-497A-9A97-C5A20580B001}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements_templa" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="449">
   <si>
     <t>index</t>
   </si>
@@ -1500,12 +1500,27 @@
   <si>
     <t>d_id</t>
   </si>
+  <si>
+    <t>DIETARY_ASSESS_INSTR</t>
+  </si>
+  <si>
+    <t>Dietary Assessment Instrument</t>
+  </si>
+  <si>
+    <t>__BLANK__</t>
+  </si>
+  <si>
+    <t>paste</t>
+  </si>
+  <si>
+    <t>5 (7_d_FR_w)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1689,12 +1704,19 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -2044,7 +2066,7 @@
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2122,6 +2144,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2477,29 +2501,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L128"/>
+  <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F137" sqref="F137"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="7"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="7"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="8"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="8"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2534,7 +2558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -2569,7 +2593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -2602,7 +2626,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -2635,7 +2659,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -2668,7 +2692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -2701,7 +2725,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -2734,7 +2758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -2767,7 +2791,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -2800,7 +2824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -2835,7 +2859,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -2870,7 +2894,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -2903,7 +2927,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -2938,7 +2962,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -2973,7 +2997,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -3008,7 +3032,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -3043,7 +3067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -3078,7 +3102,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -3110,7 +3134,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -3143,7 +3167,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -3178,7 +3202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -3213,7 +3237,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -3246,7 +3270,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -3281,7 +3305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -3314,7 +3338,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -3349,7 +3373,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -3384,7 +3408,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -3419,7 +3443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -3454,7 +3478,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -3487,7 +3511,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -3522,7 +3546,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -3557,7 +3581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -3590,7 +3614,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -3625,7 +3649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -3660,7 +3684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -3695,7 +3719,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -3727,7 +3751,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -3760,7 +3784,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -3795,7 +3819,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -3828,7 +3852,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>39</v>
       </c>
@@ -3863,7 +3887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -3898,7 +3922,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>41</v>
       </c>
@@ -3933,7 +3957,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -3968,7 +3992,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>43</v>
       </c>
@@ -4004,7 +4028,7 @@
       </c>
       <c r="L44" s="11"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -4039,7 +4063,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -4074,7 +4098,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>46</v>
       </c>
@@ -4106,7 +4130,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -4138,7 +4162,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>48</v>
       </c>
@@ -4173,7 +4197,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <v>49</v>
       </c>
@@ -4208,7 +4232,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>50</v>
       </c>
@@ -4243,7 +4267,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
         <v>51</v>
       </c>
@@ -4278,7 +4302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <v>52</v>
       </c>
@@ -4313,7 +4337,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>53</v>
       </c>
@@ -4348,7 +4372,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <v>54</v>
       </c>
@@ -4383,7 +4407,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>55</v>
       </c>
@@ -4416,7 +4440,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
         <v>56</v>
       </c>
@@ -4451,7 +4475,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>57</v>
       </c>
@@ -4486,7 +4510,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
         <v>58</v>
       </c>
@@ -4519,7 +4543,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
         <v>59</v>
       </c>
@@ -4552,7 +4576,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>60</v>
       </c>
@@ -4585,7 +4609,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
         <v>61</v>
       </c>
@@ -4618,7 +4642,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>62</v>
       </c>
@@ -4651,7 +4675,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
         <v>63</v>
       </c>
@@ -4684,7 +4708,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>64</v>
       </c>
@@ -4719,7 +4743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
         <v>65</v>
       </c>
@@ -4754,7 +4778,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
         <v>66</v>
       </c>
@@ -4789,7 +4813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
         <v>67</v>
       </c>
@@ -4824,7 +4848,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
         <v>68</v>
       </c>
@@ -4859,7 +4883,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
         <v>69</v>
       </c>
@@ -4892,7 +4916,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
         <v>70</v>
       </c>
@@ -4927,7 +4951,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
         <v>71</v>
       </c>
@@ -4962,7 +4986,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <v>72</v>
       </c>
@@ -4997,7 +5021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
         <v>73</v>
       </c>
@@ -5032,7 +5056,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>74</v>
       </c>
@@ -5067,7 +5091,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="7">
         <v>75</v>
       </c>
@@ -5102,7 +5126,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
         <v>76</v>
       </c>
@@ -5137,7 +5161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
         <v>77</v>
       </c>
@@ -5170,7 +5194,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
         <v>78</v>
       </c>
@@ -5202,7 +5226,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
         <v>79</v>
       </c>
@@ -5234,7 +5258,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="7">
         <v>80</v>
       </c>
@@ -5269,7 +5293,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
         <v>81</v>
       </c>
@@ -5304,7 +5328,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="7">
         <v>82</v>
       </c>
@@ -5339,7 +5363,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A84" s="8">
         <v>83</v>
       </c>
@@ -5374,7 +5398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
         <v>84</v>
       </c>
@@ -5407,7 +5431,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="8">
         <v>85</v>
       </c>
@@ -5439,7 +5463,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="7">
         <v>86</v>
       </c>
@@ -5474,7 +5498,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="7">
         <v>87</v>
       </c>
@@ -5507,7 +5531,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
         <v>88</v>
       </c>
@@ -5540,7 +5564,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="7">
         <v>89</v>
       </c>
@@ -5575,7 +5599,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
         <v>90</v>
       </c>
@@ -5608,7 +5632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="7">
         <v>91</v>
       </c>
@@ -5641,7 +5665,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="8">
         <v>92</v>
       </c>
@@ -5676,7 +5700,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="7">
         <v>93</v>
       </c>
@@ -5711,7 +5735,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="7">
         <v>94</v>
       </c>
@@ -5746,7 +5770,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="8">
         <v>95</v>
       </c>
@@ -5781,7 +5805,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="7">
         <v>96</v>
       </c>
@@ -5816,7 +5840,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="8">
         <v>97</v>
       </c>
@@ -5851,7 +5875,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="7">
         <v>98</v>
       </c>
@@ -5883,7 +5907,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="8">
         <v>99</v>
       </c>
@@ -5916,7 +5940,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="7">
         <v>100</v>
       </c>
@@ -5951,7 +5975,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="7">
         <v>101</v>
       </c>
@@ -5986,7 +6010,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="8">
         <v>102</v>
       </c>
@@ -6021,7 +6045,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="7">
         <v>103</v>
       </c>
@@ -6054,7 +6078,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="8">
         <v>104</v>
       </c>
@@ -6089,7 +6113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="7">
         <v>105</v>
       </c>
@@ -6124,7 +6148,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="8">
         <v>106</v>
       </c>
@@ -6156,7 +6180,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="7">
         <v>107</v>
       </c>
@@ -6188,7 +6212,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="7">
         <v>108</v>
       </c>
@@ -6220,7 +6244,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="8">
         <v>109</v>
       </c>
@@ -6252,7 +6276,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="7">
         <v>110</v>
       </c>
@@ -6285,7 +6309,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="8">
         <v>111</v>
       </c>
@@ -6318,7 +6342,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="7">
         <v>112</v>
       </c>
@@ -6351,7 +6375,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="8">
         <v>113</v>
       </c>
@@ -6384,7 +6408,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="7">
         <v>114</v>
       </c>
@@ -6417,7 +6441,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="7">
         <v>115</v>
       </c>
@@ -6450,7 +6474,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="8">
         <v>116</v>
       </c>
@@ -6483,7 +6507,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="7">
         <v>117</v>
       </c>
@@ -6516,7 +6540,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="8">
         <v>118</v>
       </c>
@@ -6548,7 +6572,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="7">
         <v>119</v>
       </c>
@@ -6580,7 +6604,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="8">
         <v>120</v>
       </c>
@@ -6612,7 +6636,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="7">
         <v>121</v>
       </c>
@@ -6644,7 +6668,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="7">
         <v>122</v>
       </c>
@@ -6676,7 +6700,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="8">
         <v>123</v>
       </c>
@@ -6708,7 +6732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="7">
         <v>124</v>
       </c>
@@ -6740,7 +6764,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="8">
         <v>125</v>
       </c>
@@ -6772,7 +6796,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="7">
         <v>126</v>
       </c>
@@ -6804,7 +6828,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="8">
         <v>127</v>
       </c>
@@ -6834,6 +6858,41 @@
       </c>
       <c r="K128" s="2" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="8">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>444</v>
+      </c>
+      <c r="C129" t="s">
+        <v>445</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" s="35" t="s">
+        <v>446</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="H129">
+        <v>5</v>
+      </c>
+      <c r="I129" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="J129" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="K129" s="36" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -6851,6 +6910,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -7091,18 +7162,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}">
   <ds:schemaRefs>
@@ -7112,6 +7171,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4056A9CA-2F02-448B-95FE-A9EC616FB2A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8FD927B-486E-4736-8E9F-ABBC39C726CA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7128,21 +7204,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4056A9CA-2F02-448B-95FE-A9EC616FB2A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_KORA_S3_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S3_P1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\HarmonizR\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C436F9-6332-4135-BE71-D9A7CFEB2BD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767EDB5F-C707-413D-A7BE-B7A6C42BA971}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements_templa" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="450">
   <si>
     <t>index</t>
   </si>
@@ -317,9 +317,6 @@
   </si>
   <si>
     <t xml:space="preserve">DV491 </t>
-  </si>
-  <si>
-    <t>DV491 (dry legumes) </t>
   </si>
   <si>
     <t>LEGUMES_0301</t>
@@ -932,12 +929,6 @@
     <t>Intake of eggs [g/d]</t>
   </si>
   <si>
-    <t>DV255</t>
-  </si>
-  <si>
-    <t>DV255 (egg products)</t>
-  </si>
-  <si>
     <t>FAT_10</t>
   </si>
   <si>
@@ -1511,6 +1502,18 @@
   </si>
   <si>
     <t>Intake of amphibians, reptiles, snails, insects [g/d]</t>
+  </si>
+  <si>
+    <t>DV491*2</t>
+  </si>
+  <si>
+    <t>double the amount of DV491 (dry legumes) to be comparable to other studies</t>
+  </si>
+  <si>
+    <t>DV250</t>
+  </si>
+  <si>
+    <t>DV250 (fresh eggs)</t>
   </si>
 </sst>
 </file>
@@ -2500,27 +2503,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C129"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="6"/>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="6"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="7"/>
-    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="7"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2555,15 +2558,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>17</v>
@@ -2572,7 +2575,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>12</v>
@@ -2590,7 +2593,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -2623,7 +2626,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -2656,7 +2659,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -2689,7 +2692,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -2722,7 +2725,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -2755,7 +2758,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -2763,7 +2766,7 @@
         <v>34</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>28</v>
@@ -2788,7 +2791,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -2821,7 +2824,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -2856,7 +2859,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -2891,7 +2894,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -2924,7 +2927,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -2959,7 +2962,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -2994,7 +2997,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -3029,7 +3032,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -3064,7 +3067,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -3099,7 +3102,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -3131,7 +3134,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -3164,7 +3167,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -3199,7 +3202,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -3234,7 +3237,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -3267,7 +3270,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -3287,30 +3290,30 @@
         <v>93</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>19</v>
+        <v>446</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>94</v>
+        <v>447</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="30" t="s">
         <v>95</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>96</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>28</v>
@@ -3335,33 +3338,33 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="D25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="18" t="s">
         <v>98</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>99</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I25" s="19" t="s">
         <v>100</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>101</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>50</v>
@@ -3370,33 +3373,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="D26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="14" t="s">
         <v>103</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>104</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H26" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="I26" s="20" t="s">
         <v>105</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>106</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>50</v>
@@ -3405,24 +3408,24 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="D27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
         <v>108</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" t="s">
-        <v>109</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>19</v>
@@ -3431,7 +3434,7 @@
         <v>19</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>50</v>
@@ -3440,33 +3443,33 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="D28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H28" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I28" s="21" t="s">
         <v>114</v>
-      </c>
-      <c r="I28" s="21" t="s">
-        <v>115</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>50</v>
@@ -3475,15 +3478,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="30" t="s">
         <v>116</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>117</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>28</v>
@@ -3508,33 +3511,33 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="D30" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H30" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I30" s="22" t="s">
         <v>121</v>
-      </c>
-      <c r="I30" s="22" t="s">
-        <v>122</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>50</v>
@@ -3543,24 +3546,24 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="D31" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>19</v>
@@ -3569,7 +3572,7 @@
         <v>19</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>50</v>
@@ -3578,15 +3581,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="30" t="s">
         <v>127</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>128</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>28</v>
@@ -3611,24 +3614,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="D33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
         <v>130</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" t="s">
-        <v>131</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>19</v>
@@ -3637,7 +3640,7 @@
         <v>19</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>50</v>
@@ -3646,24 +3649,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="D34" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="24" t="s">
         <v>134</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>135</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>19</v>
@@ -3672,7 +3675,7 @@
         <v>19</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>50</v>
@@ -3681,24 +3684,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>432</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
         <v>137</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>435</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" t="s">
-        <v>138</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>19</v>
@@ -3707,7 +3710,7 @@
         <v>19</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>50</v>
@@ -3716,15 +3719,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>28</v>
@@ -3748,15 +3751,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="30" t="s">
         <v>141</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>142</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>28</v>
@@ -3781,24 +3784,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="D38" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
         <v>144</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" t="s">
-        <v>145</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>19</v>
@@ -3807,7 +3810,7 @@
         <v>19</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>50</v>
@@ -3816,15 +3819,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>28</v>
@@ -3849,24 +3852,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="D40" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
         <v>149</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E40" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" t="s">
-        <v>150</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>19</v>
@@ -3875,7 +3878,7 @@
         <v>19</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>50</v>
@@ -3884,33 +3887,33 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>435</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>438</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H41" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I41" s="22" t="s">
         <v>154</v>
-      </c>
-      <c r="I41" s="22" t="s">
-        <v>155</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>50</v>
@@ -3919,33 +3922,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="D42" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H42" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I42" s="22" t="s">
         <v>159</v>
-      </c>
-      <c r="I42" s="22" t="s">
-        <v>160</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>50</v>
@@ -3954,33 +3957,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="D43" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="15" t="s">
         <v>162</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E43" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>163</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H43" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="I43" s="21" t="s">
         <v>164</v>
-      </c>
-      <c r="I43" s="21" t="s">
-        <v>165</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>50</v>
@@ -3989,33 +3992,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C44" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="D44" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="18" t="s">
         <v>167</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="18" t="s">
-        <v>168</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H44" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="I44" s="23" t="s">
         <v>169</v>
-      </c>
-      <c r="I44" s="23" t="s">
-        <v>170</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>50</v>
@@ -4025,33 +4028,33 @@
       </c>
       <c r="L44" s="10"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C45" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="D45" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H45" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="I45" s="23" t="s">
         <v>174</v>
-      </c>
-      <c r="I45" s="23" t="s">
-        <v>175</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>50</v>
@@ -4060,24 +4063,24 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C46" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="D46" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="24" t="s">
         <v>177</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E46" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="24" t="s">
-        <v>178</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>19</v>
@@ -4086,7 +4089,7 @@
         <v>19</v>
       </c>
       <c r="I46" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>50</v>
@@ -4095,15 +4098,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C47" s="30" t="s">
         <v>180</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>181</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>28</v>
@@ -4127,15 +4130,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C48" s="30" t="s">
         <v>182</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>183</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>28</v>
@@ -4159,15 +4162,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>48</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>28</v>
@@ -4185,7 +4188,7 @@
         <v>29</v>
       </c>
       <c r="I49" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>29</v>
@@ -4194,33 +4197,33 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C50" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="D50" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E50" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H50" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I50" s="19" t="s">
         <v>189</v>
-      </c>
-      <c r="I50" s="19" t="s">
-        <v>190</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>50</v>
@@ -4229,33 +4232,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C51" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="D51" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" t="s">
         <v>192</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" t="s">
-        <v>193</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H51" t="s">
+        <v>193</v>
+      </c>
+      <c r="I51" s="22" t="s">
         <v>194</v>
-      </c>
-      <c r="I51" s="22" t="s">
-        <v>195</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>50</v>
@@ -4264,24 +4267,24 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C52" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="C52" s="30" t="s">
+      <c r="D52" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="15" t="s">
         <v>197</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E52" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>198</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>19</v>
@@ -4290,7 +4293,7 @@
         <v>19</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>50</v>
@@ -4299,24 +4302,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C53" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="C53" s="30" t="s">
+      <c r="D53" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="15" t="s">
         <v>201</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E53" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>202</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>19</v>
@@ -4325,7 +4328,7 @@
         <v>19</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>50</v>
@@ -4334,24 +4337,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C54" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="D54" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="15" t="s">
         <v>205</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E54" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>206</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>19</v>
@@ -4360,7 +4363,7 @@
         <v>19</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>50</v>
@@ -4369,33 +4372,33 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C55" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="C55" s="30" t="s">
+      <c r="D55" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E55" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>210</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H55" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="I55" s="26" t="s">
         <v>211</v>
-      </c>
-      <c r="I55" s="26" t="s">
-        <v>212</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>45</v>
@@ -4404,15 +4407,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C56" s="30" t="s">
         <v>213</v>
-      </c>
-      <c r="C56" s="30" t="s">
-        <v>214</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>28</v>
@@ -4437,16 +4440,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C57" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="C57" s="30" t="s">
-        <v>216</v>
-      </c>
       <c r="D57" s="7" t="s">
         <v>28</v>
       </c>
@@ -4454,16 +4457,16 @@
         <v>11</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I57" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>45</v>
@@ -4472,24 +4475,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C58" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="C58" s="30" t="s">
+      <c r="D58" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" t="s">
         <v>219</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E58" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" t="s">
-        <v>220</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>19</v>
@@ -4498,7 +4501,7 @@
         <v>19</v>
       </c>
       <c r="I58" s="21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>50</v>
@@ -4507,15 +4510,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C59" s="30" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>28</v>
@@ -4540,15 +4543,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C60" s="30" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>28</v>
@@ -4573,15 +4576,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C61" s="30" t="s">
         <v>224</v>
-      </c>
-      <c r="C61" s="30" t="s">
-        <v>225</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>28</v>
@@ -4606,15 +4609,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C62" s="30" t="s">
         <v>226</v>
-      </c>
-      <c r="C62" s="30" t="s">
-        <v>227</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>28</v>
@@ -4639,15 +4642,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C63" s="30" t="s">
         <v>228</v>
-      </c>
-      <c r="C63" s="30" t="s">
-        <v>229</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>28</v>
@@ -4672,15 +4675,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C64" s="30" t="s">
         <v>230</v>
-      </c>
-      <c r="C64" s="30" t="s">
-        <v>231</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>28</v>
@@ -4705,24 +4708,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C65" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="C65" s="30" t="s">
+      <c r="D65" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" t="s">
         <v>233</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E65" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" t="s">
-        <v>234</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>19</v>
@@ -4731,7 +4734,7 @@
         <v>19</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>50</v>
@@ -4740,16 +4743,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C66" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="C66" s="30" t="s">
-        <v>237</v>
-      </c>
       <c r="D66" s="7" t="s">
         <v>28</v>
       </c>
@@ -4757,16 +4760,16 @@
         <v>11</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="I66" s="32" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>50</v>
@@ -4775,24 +4778,24 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C67" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="C67" s="30" t="s">
+      <c r="D67" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" t="s">
         <v>239</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E67" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" t="s">
-        <v>240</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>19</v>
@@ -4801,7 +4804,7 @@
         <v>19</v>
       </c>
       <c r="I67" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>50</v>
@@ -4810,33 +4813,33 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C68" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="C68" s="30" t="s">
+      <c r="D68" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E68" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>244</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H68" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="I68" s="19" t="s">
         <v>245</v>
-      </c>
-      <c r="I68" s="19" t="s">
-        <v>246</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>50</v>
@@ -4845,24 +4848,24 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C69" s="30" t="s">
+        <v>439</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" t="s">
         <v>247</v>
-      </c>
-      <c r="C69" s="30" t="s">
-        <v>442</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E69" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" t="s">
-        <v>248</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>19</v>
@@ -4871,7 +4874,7 @@
         <v>19</v>
       </c>
       <c r="I69" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>50</v>
@@ -4880,15 +4883,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C70" s="30" t="s">
         <v>250</v>
-      </c>
-      <c r="C70" s="30" t="s">
-        <v>251</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>28</v>
@@ -4913,33 +4916,33 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C71" s="30" t="s">
+        <v>440</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="5" t="s">
         <v>252</v>
-      </c>
-      <c r="C71" s="30" t="s">
-        <v>443</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E71" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>253</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H71" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="I71" s="22" t="s">
         <v>254</v>
-      </c>
-      <c r="I71" s="22" t="s">
-        <v>255</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>50</v>
@@ -4948,33 +4951,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>255</v>
+      </c>
+      <c r="C72" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="C72" s="30" t="s">
+      <c r="D72" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E72" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="15" t="s">
         <v>257</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E72" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="15" t="s">
-        <v>258</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H72" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="I72" s="21" t="s">
         <v>259</v>
-      </c>
-      <c r="I72" s="21" t="s">
-        <v>260</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>50</v>
@@ -4983,16 +4986,16 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>260</v>
+      </c>
+      <c r="C73" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="C73" s="30" t="s">
-        <v>262</v>
-      </c>
       <c r="D73" s="7" t="s">
         <v>28</v>
       </c>
@@ -5000,7 +5003,7 @@
         <v>11</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>263</v>
+        <v>448</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>19</v>
@@ -5009,7 +5012,7 @@
         <v>19</v>
       </c>
       <c r="I73" s="21" t="s">
-        <v>264</v>
+        <v>449</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>50</v>
@@ -5018,15 +5021,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>28</v>
@@ -5035,16 +5038,16 @@
         <v>11</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I74" s="22" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>50</v>
@@ -5053,15 +5056,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C75" s="30" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>28</v>
@@ -5070,7 +5073,7 @@
         <v>11</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>19</v>
@@ -5079,7 +5082,7 @@
         <v>19</v>
       </c>
       <c r="I75" s="21" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>50</v>
@@ -5088,15 +5091,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C76" s="30" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>28</v>
@@ -5105,7 +5108,7 @@
         <v>11</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>19</v>
@@ -5114,7 +5117,7 @@
         <v>19</v>
       </c>
       <c r="I76" s="21" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>50</v>
@@ -5123,15 +5126,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C77" s="30" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>28</v>
@@ -5140,7 +5143,7 @@
         <v>11</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>19</v>
@@ -5149,7 +5152,7 @@
         <v>19</v>
       </c>
       <c r="I77" s="21" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>50</v>
@@ -5158,15 +5161,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C78" s="30" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>28</v>
@@ -5191,15 +5194,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C79" s="30" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>28</v>
@@ -5223,15 +5226,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C80" s="30" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>28</v>
@@ -5255,15 +5258,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C81" s="30" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>28</v>
@@ -5272,16 +5275,16 @@
         <v>11</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I81" s="22" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>50</v>
@@ -5290,15 +5293,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C82" s="30" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>28</v>
@@ -5307,16 +5310,16 @@
         <v>11</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H82" s="15" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I82" s="21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>50</v>
@@ -5325,15 +5328,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C83" s="30" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>28</v>
@@ -5342,16 +5345,16 @@
         <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H83" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I83" s="22" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>50</v>
@@ -5360,15 +5363,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C84" s="30" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>28</v>
@@ -5377,7 +5380,7 @@
         <v>11</v>
       </c>
       <c r="F84" s="15" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>19</v>
@@ -5386,7 +5389,7 @@
         <v>19</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>50</v>
@@ -5395,15 +5398,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C85" s="30" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>28</v>
@@ -5428,15 +5431,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C86" s="30" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>28</v>
@@ -5460,15 +5463,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C87" s="30" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>28</v>
@@ -5477,7 +5480,7 @@
         <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>19</v>
@@ -5486,7 +5489,7 @@
         <v>19</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>50</v>
@@ -5495,15 +5498,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C88" s="30" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>28</v>
@@ -5528,15 +5531,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C89" s="30" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>28</v>
@@ -5561,15 +5564,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C90" s="30" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>28</v>
@@ -5578,16 +5581,16 @@
         <v>11</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="I90" s="23" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>50</v>
@@ -5596,15 +5599,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C91" s="30" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>28</v>
@@ -5629,15 +5632,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C92" s="30" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>28</v>
@@ -5662,15 +5665,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C93" s="30" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>28</v>
@@ -5679,16 +5682,16 @@
         <v>11</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>50</v>
@@ -5697,15 +5700,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C94" s="30" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>28</v>
@@ -5714,7 +5717,7 @@
         <v>11</v>
       </c>
       <c r="F94" s="15" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>19</v>
@@ -5723,7 +5726,7 @@
         <v>19</v>
       </c>
       <c r="I94" s="21" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>50</v>
@@ -5732,15 +5735,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C95" s="30" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>28</v>
@@ -5749,16 +5752,16 @@
         <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H95" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="I95" s="19" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>50</v>
@@ -5767,15 +5770,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C96" s="30" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>28</v>
@@ -5784,16 +5787,16 @@
         <v>11</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="I96" s="22" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>50</v>
@@ -5802,15 +5805,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C97" s="30" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>28</v>
@@ -5819,16 +5822,16 @@
         <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H97" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="I97" s="22" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>50</v>
@@ -5837,15 +5840,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C98" s="30" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>28</v>
@@ -5854,7 +5857,7 @@
         <v>11</v>
       </c>
       <c r="F98" s="15" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>19</v>
@@ -5863,7 +5866,7 @@
         <v>19</v>
       </c>
       <c r="I98" s="21" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>50</v>
@@ -5872,15 +5875,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C99" s="30" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>28</v>
@@ -5904,15 +5907,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C100" s="30" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>28</v>
@@ -5937,15 +5940,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C101" s="30" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>28</v>
@@ -5954,7 +5957,7 @@
         <v>11</v>
       </c>
       <c r="F101" s="15" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>19</v>
@@ -5963,7 +5966,7 @@
         <v>19</v>
       </c>
       <c r="I101" s="21" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>50</v>
@@ -5972,15 +5975,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C102" s="30" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>28</v>
@@ -5989,16 +5992,16 @@
         <v>11</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H102" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>50</v>
@@ -6007,15 +6010,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C103" s="30" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>28</v>
@@ -6024,16 +6027,16 @@
         <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H103" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>50</v>
@@ -6042,15 +6045,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C104" s="30" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>28</v>
@@ -6075,15 +6078,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C105" s="30" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>28</v>
@@ -6092,7 +6095,7 @@
         <v>11</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>19</v>
@@ -6101,7 +6104,7 @@
         <v>19</v>
       </c>
       <c r="I105" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>50</v>
@@ -6110,15 +6113,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C106" s="30" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>28</v>
@@ -6127,7 +6130,7 @@
         <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>19</v>
@@ -6136,7 +6139,7 @@
         <v>19</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>50</v>
@@ -6145,15 +6148,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C107" s="30" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>28</v>
@@ -6177,15 +6180,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C108" s="30" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>28</v>
@@ -6209,15 +6212,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C109" s="30" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>28</v>
@@ -6241,15 +6244,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="7">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C110" s="30" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>28</v>
@@ -6273,15 +6276,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C111" s="30" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>28</v>
@@ -6306,15 +6309,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="7">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C112" s="30" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>28</v>
@@ -6339,15 +6342,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C113" s="30" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>28</v>
@@ -6372,15 +6375,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="7">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C114" s="30" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>28</v>
@@ -6405,15 +6408,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C115" s="30" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>28</v>
@@ -6438,15 +6441,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C116" s="30" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>28</v>
@@ -6471,15 +6474,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C117" s="30" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>28</v>
@@ -6504,15 +6507,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C118" s="30" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>28</v>
@@ -6537,15 +6540,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="7">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C119" s="30" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>28</v>
@@ -6569,15 +6572,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C120" s="30" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>28</v>
@@ -6601,15 +6604,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C121" s="30" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>28</v>
@@ -6633,15 +6636,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C122" s="30" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>28</v>
@@ -6665,15 +6668,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C123" s="30" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>28</v>
@@ -6697,15 +6700,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="7">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C124" s="30" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>28</v>
@@ -6729,15 +6732,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C125" s="30" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>28</v>
@@ -6761,15 +6764,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="7">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C126" s="30" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>28</v>
@@ -6793,15 +6796,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C127" s="30" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>28</v>
@@ -6825,15 +6828,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="7">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C128" s="30" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>28</v>
@@ -6857,15 +6860,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C129" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>17</v>
@@ -6874,16 +6877,16 @@
         <v>11</v>
       </c>
       <c r="F129" s="34" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H129">
         <v>5</v>
       </c>
       <c r="I129" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="J129" s="35" t="s">
         <v>13</v>
@@ -6898,27 +6901,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -7159,32 +7141,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4056A9CA-2F02-448B-95FE-A9EC616FB2A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8FD927B-486E-4736-8E9F-ABBC39C726CA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7201,4 +7179,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4056A9CA-2F02-448B-95FE-A9EC616FB2A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_KORA_S3_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S3_P1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\HarmonizR\use-cases-harmonisation\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767EDB5F-C707-413D-A7BE-B7A6C42BA971}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D16D5A-1BC6-4275-B376-DC3751133EB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,9 +90,6 @@
     <t>AGE_BASE</t>
   </si>
   <si>
-    <t>Age at exposure measure</t>
-  </si>
-  <si>
     <t>dtalteru</t>
   </si>
   <si>
@@ -106,9 +103,6 @@
   </si>
   <si>
     <t>TOT_PA_QX</t>
-  </si>
-  <si>
-    <t>Physical activity from questionnaire data</t>
   </si>
   <si>
     <t>decimal</t>
@@ -1459,9 +1453,6 @@
     <t>Participant identification number</t>
   </si>
   <si>
-    <t>Body Mass Index at baseline</t>
-  </si>
-  <si>
     <t>Intake of cheese [g/d]</t>
   </si>
   <si>
@@ -1514,6 +1505,15 @@
   </si>
   <si>
     <t>DV250 (fresh eggs)</t>
+  </si>
+  <si>
+    <t>Age at exposure measure [years]</t>
+  </si>
+  <si>
+    <t>Physical activity from questionnaire data [MET-hr/day]</t>
+  </si>
+  <si>
+    <t>Body Mass Index at baseline [kg/m²]</t>
   </si>
 </sst>
 </file>
@@ -2066,7 +2066,7 @@
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2124,15 +2124,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2146,50 +2137,51 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2205,7 +2197,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2503,11 +2495,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView tabSelected="1" topLeftCell="B69" workbookViewId="0">
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="6"/>
     <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
@@ -2563,19 +2555,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>430</v>
-      </c>
-      <c r="D2" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="C2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D2" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="31" t="s">
-        <v>424</v>
+      <c r="F2" s="28" t="s">
+        <v>422</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>12</v>
@@ -2600,10 +2592,10 @@
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" t="s">
         <v>17</v>
       </c>
       <c r="E3" t="s">
@@ -2633,17 +2625,17 @@
       <c r="B4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>22</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>19</v>
@@ -2664,19 +2656,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>25</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>19</v>
@@ -2697,32 +2689,32 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>448</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>29</v>
-      </c>
       <c r="G6" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2730,19 +2722,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>31</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>33</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>19</v>
@@ -2763,19 +2755,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>449</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>19</v>
@@ -2796,19 +2788,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="27" t="s">
         <v>36</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>38</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>19</v>
@@ -2829,34 +2821,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="G10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="H10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="I10" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="J10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="K10" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2864,34 +2856,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="J11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="23" t="s">
+      <c r="K11" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2899,32 +2891,32 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>28</v>
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -2932,34 +2924,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="G13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="33" t="s">
+      <c r="I13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2967,34 +2959,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="G14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="I14" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>64</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -3002,34 +2994,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="G15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="10" t="s">
+      <c r="I15" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>69</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -3037,19 +3029,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>72</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>19</v>
@@ -3058,10 +3050,10 @@
         <v>19</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>14</v>
@@ -3072,34 +3064,34 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="G17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="I17" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>78</v>
-      </c>
       <c r="J17" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -3107,31 +3099,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="E18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -3139,32 +3131,32 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>28</v>
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -3172,19 +3164,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="16" t="s">
         <v>83</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>85</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>19</v>
@@ -3193,10 +3185,10 @@
         <v>19</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>14</v>
@@ -3207,67 +3199,67 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>28</v>
+        <v>85</v>
+      </c>
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>64</v>
-      </c>
       <c r="J21" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>28</v>
+        <v>87</v>
+      </c>
+      <c r="C22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3275,67 +3267,67 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>93</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>28</v>
+        <v>92</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -3343,34 +3335,34 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="G25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="18" t="s">
+      <c r="I25" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>100</v>
-      </c>
       <c r="J25" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -3378,34 +3370,34 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="G26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="14" t="s">
+      <c r="I26" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>105</v>
-      </c>
       <c r="J26" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -3413,19 +3405,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
         <v>106</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" t="s">
-        <v>108</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>19</v>
@@ -3434,48 +3426,48 @@
         <v>19</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="G28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="2" t="s">
+      <c r="I28" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I28" s="21" t="s">
-        <v>114</v>
-      </c>
       <c r="J28" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3483,67 +3475,67 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>28</v>
+        <v>113</v>
+      </c>
+      <c r="C29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I29" s="21"/>
       <c r="J29" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="G30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="I30" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I30" s="22" t="s">
-        <v>121</v>
-      </c>
       <c r="J30" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -3551,19 +3543,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>19</v>
@@ -3572,46 +3564,46 @@
         <v>19</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>28</v>
+        <v>124</v>
+      </c>
+      <c r="C32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" t="s">
+        <v>26</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -3619,19 +3611,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
         <v>128</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" t="s">
-        <v>130</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>19</v>
@@ -3640,10 +3632,10 @@
         <v>19</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>14</v>
@@ -3654,19 +3646,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="24" t="s">
         <v>132</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>134</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>19</v>
@@ -3675,10 +3667,10 @@
         <v>19</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>14</v>
@@ -3689,19 +3681,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>432</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>28</v>
+        <v>134</v>
+      </c>
+      <c r="C35" t="s">
+        <v>429</v>
+      </c>
+      <c r="D35" t="s">
+        <v>26</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>19</v>
@@ -3710,45 +3702,45 @@
         <v>19</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>433</v>
-      </c>
-      <c r="D36" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" t="s">
+        <v>430</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K36" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -3756,32 +3748,32 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>28</v>
+        <v>138</v>
+      </c>
+      <c r="C37" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" t="s">
+        <v>26</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -3789,19 +3781,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
         <v>142</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" t="s">
-        <v>144</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>19</v>
@@ -3810,66 +3802,66 @@
         <v>19</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>434</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>28</v>
+        <v>144</v>
+      </c>
+      <c r="C39" t="s">
+        <v>431</v>
+      </c>
+      <c r="D39" t="s">
+        <v>26</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
         <v>147</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E40" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" t="s">
-        <v>149</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>19</v>
@@ -3878,83 +3870,83 @@
         <v>19</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>432</v>
+      </c>
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C41" s="30" t="s">
-        <v>435</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="2" t="s">
+      <c r="I41" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I41" s="22" t="s">
-        <v>154</v>
-      </c>
       <c r="J41" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="G42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="1" t="s">
+      <c r="I42" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="I42" s="22" t="s">
-        <v>159</v>
-      </c>
       <c r="J42" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -3962,34 +3954,34 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="G43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E43" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="15" t="s">
+      <c r="I43" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="I43" s="21" t="s">
-        <v>164</v>
-      </c>
       <c r="J43" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -3997,34 +3989,34 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="G44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="18" t="s">
+      <c r="I44" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H44" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="I44" s="23" t="s">
-        <v>169</v>
-      </c>
       <c r="J44" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L44" s="10"/>
     </row>
@@ -4033,34 +4025,34 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" t="s">
+        <v>169</v>
+      </c>
+      <c r="D45" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="G45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="5" t="s">
+      <c r="I45" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="I45" s="23" t="s">
-        <v>174</v>
-      </c>
       <c r="J45" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -4068,19 +4060,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C46" t="s">
+        <v>174</v>
+      </c>
+      <c r="D46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="24" t="s">
         <v>175</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E46" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="24" t="s">
-        <v>177</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>19</v>
@@ -4089,10 +4081,10 @@
         <v>19</v>
       </c>
       <c r="I46" s="21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>14</v>
@@ -4103,31 +4095,31 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="D47" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C47" t="s">
+        <v>178</v>
+      </c>
+      <c r="D47" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K47" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E47" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -4135,66 +4127,66 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="D48" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C48" t="s">
+        <v>180</v>
+      </c>
+      <c r="D48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K48" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E48" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B49" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="C49" s="30" t="s">
-        <v>436</v>
-      </c>
-      <c r="D49" s="7" t="s">
+      <c r="B49" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="C49" t="s">
+        <v>433</v>
+      </c>
+      <c r="D49" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I49" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K49" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E49" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I49" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -4202,34 +4194,34 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C50" t="s">
+        <v>184</v>
+      </c>
+      <c r="D50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="G50" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E50" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="2" t="s">
+      <c r="I50" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="I50" s="19" t="s">
-        <v>189</v>
-      </c>
       <c r="J50" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -4237,34 +4229,34 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C51" t="s">
+        <v>189</v>
+      </c>
+      <c r="D51" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" t="s">
         <v>190</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="G51" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H51" t="s">
         <v>191</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="I51" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H51" t="s">
-        <v>193</v>
-      </c>
-      <c r="I51" s="22" t="s">
-        <v>194</v>
-      </c>
       <c r="J51" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -4272,19 +4264,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C52" t="s">
+        <v>194</v>
+      </c>
+      <c r="D52" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="15" t="s">
         <v>195</v>
-      </c>
-      <c r="C52" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E52" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>197</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>19</v>
@@ -4293,10 +4285,10 @@
         <v>19</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>14</v>
@@ -4307,19 +4299,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C53" t="s">
+        <v>198</v>
+      </c>
+      <c r="D53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="15" t="s">
         <v>199</v>
-      </c>
-      <c r="C53" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E53" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>201</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>19</v>
@@ -4328,10 +4320,10 @@
         <v>19</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>14</v>
@@ -4342,19 +4334,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C54" t="s">
+        <v>202</v>
+      </c>
+      <c r="D54" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="15" t="s">
         <v>203</v>
-      </c>
-      <c r="C54" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E54" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>205</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>19</v>
@@ -4363,10 +4355,10 @@
         <v>19</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>14</v>
@@ -4377,34 +4369,34 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C55" t="s">
+        <v>206</v>
+      </c>
+      <c r="D55" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C55" s="30" t="s">
+      <c r="G55" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H55" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="D55" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E55" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="5" t="s">
+      <c r="I55" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H55" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="I55" s="26" t="s">
-        <v>211</v>
-      </c>
       <c r="J55" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -4412,32 +4404,32 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C56" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>28</v>
+        <v>210</v>
+      </c>
+      <c r="C56" t="s">
+        <v>211</v>
+      </c>
+      <c r="D56" t="s">
+        <v>26</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -4445,34 +4437,34 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C57" t="s">
+        <v>213</v>
+      </c>
+      <c r="D57" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H57" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="C57" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E57" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="5" t="s">
+      <c r="I57" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H57" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="I57" s="26" t="s">
-        <v>211</v>
-      </c>
       <c r="J57" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -4480,19 +4472,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C58" t="s">
+        <v>216</v>
+      </c>
+      <c r="D58" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" t="s">
         <v>217</v>
-      </c>
-      <c r="C58" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E58" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" t="s">
-        <v>219</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>19</v>
@@ -4501,10 +4493,10 @@
         <v>19</v>
       </c>
       <c r="I58" s="21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>14</v>
@@ -4515,32 +4507,32 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C59" s="30" t="s">
-        <v>437</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>28</v>
+        <v>219</v>
+      </c>
+      <c r="C59" t="s">
+        <v>434</v>
+      </c>
+      <c r="D59" t="s">
+        <v>26</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -4548,32 +4540,32 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C60" s="30" t="s">
-        <v>438</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>28</v>
+        <v>220</v>
+      </c>
+      <c r="C60" t="s">
+        <v>435</v>
+      </c>
+      <c r="D60" t="s">
+        <v>26</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -4581,32 +4573,32 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C61" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>28</v>
+        <v>221</v>
+      </c>
+      <c r="C61" t="s">
+        <v>222</v>
+      </c>
+      <c r="D61" t="s">
+        <v>26</v>
       </c>
       <c r="E61" t="s">
         <v>11</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -4614,32 +4606,32 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C62" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>28</v>
+        <v>223</v>
+      </c>
+      <c r="C62" t="s">
+        <v>224</v>
+      </c>
+      <c r="D62" t="s">
+        <v>26</v>
       </c>
       <c r="E62" t="s">
         <v>11</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -4647,32 +4639,32 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C63" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>28</v>
+        <v>225</v>
+      </c>
+      <c r="C63" t="s">
+        <v>226</v>
+      </c>
+      <c r="D63" t="s">
+        <v>26</v>
       </c>
       <c r="E63" t="s">
         <v>11</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -4680,32 +4672,32 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C64" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>28</v>
+        <v>227</v>
+      </c>
+      <c r="C64" t="s">
+        <v>228</v>
+      </c>
+      <c r="D64" t="s">
+        <v>26</v>
       </c>
       <c r="E64" t="s">
         <v>11</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4713,19 +4705,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C65" t="s">
+        <v>230</v>
+      </c>
+      <c r="D65" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" t="s">
         <v>231</v>
-      </c>
-      <c r="C65" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E65" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" t="s">
-        <v>233</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>19</v>
@@ -4734,10 +4726,10 @@
         <v>19</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>14</v>
@@ -4748,34 +4740,34 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C66" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>28</v>
+        <v>233</v>
+      </c>
+      <c r="C66" t="s">
+        <v>234</v>
+      </c>
+      <c r="D66" t="s">
+        <v>26</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
       </c>
       <c r="F66" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="I66" s="29" t="s">
         <v>421</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="I66" s="32" t="s">
-        <v>423</v>
-      </c>
       <c r="J66" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -4783,19 +4775,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C67" t="s">
+        <v>236</v>
+      </c>
+      <c r="D67" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" t="s">
         <v>237</v>
-      </c>
-      <c r="C67" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E67" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" t="s">
-        <v>239</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>19</v>
@@ -4804,10 +4796,10 @@
         <v>19</v>
       </c>
       <c r="I67" s="21" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>14</v>
@@ -4818,34 +4810,34 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C68" t="s">
+        <v>240</v>
+      </c>
+      <c r="D68" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C68" s="30" t="s">
+      <c r="G68" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H68" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D68" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E68" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" s="5" t="s">
+      <c r="I68" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="G68" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="I68" s="19" t="s">
-        <v>245</v>
-      </c>
       <c r="J68" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -4853,19 +4845,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C69" s="30" t="s">
-        <v>439</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>28</v>
+        <v>244</v>
+      </c>
+      <c r="C69" t="s">
+        <v>436</v>
+      </c>
+      <c r="D69" t="s">
+        <v>26</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>19</v>
@@ -4874,10 +4866,10 @@
         <v>19</v>
       </c>
       <c r="I69" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>14</v>
@@ -4888,32 +4880,32 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C70" s="30" t="s">
-        <v>250</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>28</v>
+        <v>247</v>
+      </c>
+      <c r="C70" t="s">
+        <v>248</v>
+      </c>
+      <c r="D70" t="s">
+        <v>26</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -4921,34 +4913,34 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C71" t="s">
+        <v>437</v>
+      </c>
+      <c r="D71" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H71" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C71" s="30" t="s">
-        <v>440</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E71" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="5" t="s">
+      <c r="I71" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="G71" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="I71" s="22" t="s">
-        <v>254</v>
-      </c>
       <c r="J71" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4956,34 +4948,34 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>253</v>
+      </c>
+      <c r="C72" t="s">
+        <v>254</v>
+      </c>
+      <c r="D72" t="s">
+        <v>26</v>
+      </c>
+      <c r="E72" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="C72" s="30" t="s">
+      <c r="G72" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H72" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="D72" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E72" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="15" t="s">
+      <c r="I72" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="G72" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H72" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="I72" s="21" t="s">
-        <v>259</v>
-      </c>
       <c r="J72" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -4991,19 +4983,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>260</v>
-      </c>
-      <c r="C73" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>28</v>
+        <v>258</v>
+      </c>
+      <c r="C73" t="s">
+        <v>259</v>
+      </c>
+      <c r="D73" t="s">
+        <v>26</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>19</v>
@@ -5012,10 +5004,10 @@
         <v>19</v>
       </c>
       <c r="I73" s="21" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>14</v>
@@ -5026,34 +5018,34 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>260</v>
+      </c>
+      <c r="C74" t="s">
+        <v>261</v>
+      </c>
+      <c r="D74" t="s">
+        <v>26</v>
+      </c>
+      <c r="E74" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C74" s="30" t="s">
+      <c r="G74" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H74" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="D74" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E74" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="5" t="s">
+      <c r="I74" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="G74" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="I74" s="22" t="s">
-        <v>266</v>
-      </c>
       <c r="J74" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -5061,19 +5053,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>265</v>
+      </c>
+      <c r="C75" t="s">
+        <v>266</v>
+      </c>
+      <c r="D75" t="s">
+        <v>26</v>
+      </c>
+      <c r="E75" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="15" t="s">
         <v>267</v>
-      </c>
-      <c r="C75" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E75" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" s="15" t="s">
-        <v>269</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>19</v>
@@ -5082,10 +5074,10 @@
         <v>19</v>
       </c>
       <c r="I75" s="21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>14</v>
@@ -5096,19 +5088,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>269</v>
+      </c>
+      <c r="C76" t="s">
+        <v>270</v>
+      </c>
+      <c r="D76" t="s">
+        <v>26</v>
+      </c>
+      <c r="E76" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="15" t="s">
         <v>271</v>
-      </c>
-      <c r="C76" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E76" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="15" t="s">
-        <v>273</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>19</v>
@@ -5117,10 +5109,10 @@
         <v>19</v>
       </c>
       <c r="I76" s="21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>14</v>
@@ -5131,19 +5123,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>273</v>
+      </c>
+      <c r="C77" t="s">
+        <v>274</v>
+      </c>
+      <c r="D77" t="s">
+        <v>26</v>
+      </c>
+      <c r="E77" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="15" t="s">
         <v>275</v>
-      </c>
-      <c r="C77" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E77" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="15" t="s">
-        <v>277</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>19</v>
@@ -5152,10 +5144,10 @@
         <v>19</v>
       </c>
       <c r="I77" s="21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>14</v>
@@ -5166,32 +5158,32 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>279</v>
-      </c>
-      <c r="C78" s="30" t="s">
-        <v>280</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>28</v>
+        <v>277</v>
+      </c>
+      <c r="C78" t="s">
+        <v>278</v>
+      </c>
+      <c r="D78" t="s">
+        <v>26</v>
       </c>
       <c r="E78" t="s">
         <v>11</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -5199,188 +5191,188 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>281</v>
-      </c>
-      <c r="C79" s="30" t="s">
-        <v>282</v>
-      </c>
-      <c r="D79" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C79" t="s">
+        <v>280</v>
+      </c>
+      <c r="D79" t="s">
+        <v>26</v>
+      </c>
+      <c r="E79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K79" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E79" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>283</v>
-      </c>
-      <c r="C80" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="D80" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C80" t="s">
+        <v>282</v>
+      </c>
+      <c r="D80" t="s">
+        <v>26</v>
+      </c>
+      <c r="E80" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K80" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E80" t="s">
-        <v>11</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>283</v>
+      </c>
+      <c r="C81" t="s">
+        <v>284</v>
+      </c>
+      <c r="D81" t="s">
+        <v>26</v>
+      </c>
+      <c r="E81" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C81" s="30" t="s">
+      <c r="G81" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H81" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D81" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E81" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="1" t="s">
+      <c r="I81" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="G81" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="I81" s="22" t="s">
-        <v>289</v>
-      </c>
       <c r="J81" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>288</v>
+      </c>
+      <c r="C82" t="s">
+        <v>289</v>
+      </c>
+      <c r="D82" t="s">
+        <v>26</v>
+      </c>
+      <c r="E82" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="C82" s="30" t="s">
+      <c r="G82" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H82" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="D82" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E82" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" s="15" t="s">
+      <c r="I82" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="G82" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H82" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="I82" s="21" t="s">
-        <v>294</v>
-      </c>
       <c r="J82" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>293</v>
+      </c>
+      <c r="C83" t="s">
+        <v>438</v>
+      </c>
+      <c r="D83" t="s">
+        <v>26</v>
+      </c>
+      <c r="E83" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" t="s">
+        <v>294</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H83" t="s">
         <v>295</v>
       </c>
-      <c r="C83" s="30" t="s">
-        <v>441</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E83" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" t="s">
+      <c r="I83" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="G83" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H83" t="s">
-        <v>297</v>
-      </c>
-      <c r="I83" s="22" t="s">
-        <v>298</v>
-      </c>
       <c r="J83" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>297</v>
+      </c>
+      <c r="C84" t="s">
+        <v>298</v>
+      </c>
+      <c r="D84" t="s">
+        <v>26</v>
+      </c>
+      <c r="E84" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="15" t="s">
         <v>299</v>
-      </c>
-      <c r="C84" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E84" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="15" t="s">
-        <v>301</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>19</v>
@@ -5389,10 +5381,10 @@
         <v>19</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>14</v>
@@ -5403,32 +5395,32 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>303</v>
-      </c>
-      <c r="C85" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>28</v>
+        <v>301</v>
+      </c>
+      <c r="C85" t="s">
+        <v>302</v>
+      </c>
+      <c r="D85" t="s">
+        <v>26</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -5436,31 +5428,31 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>305</v>
-      </c>
-      <c r="C86" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="D86" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C86" t="s">
+        <v>304</v>
+      </c>
+      <c r="D86" t="s">
+        <v>26</v>
+      </c>
+      <c r="E86" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K86" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E86" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J86" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -5468,19 +5460,19 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>305</v>
+      </c>
+      <c r="C87" t="s">
+        <v>306</v>
+      </c>
+      <c r="D87" t="s">
+        <v>26</v>
+      </c>
+      <c r="E87" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" t="s">
         <v>307</v>
-      </c>
-      <c r="C87" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E87" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" t="s">
-        <v>309</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>19</v>
@@ -5489,10 +5481,10 @@
         <v>19</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>14</v>
@@ -5503,32 +5495,32 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>311</v>
-      </c>
-      <c r="C88" s="30" t="s">
-        <v>312</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>28</v>
+        <v>309</v>
+      </c>
+      <c r="C88" t="s">
+        <v>310</v>
+      </c>
+      <c r="D88" t="s">
+        <v>26</v>
       </c>
       <c r="E88" t="s">
         <v>11</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -5536,32 +5528,32 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>313</v>
-      </c>
-      <c r="C89" s="30" t="s">
-        <v>314</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>28</v>
+        <v>311</v>
+      </c>
+      <c r="C89" t="s">
+        <v>312</v>
+      </c>
+      <c r="D89" t="s">
+        <v>26</v>
       </c>
       <c r="E89" t="s">
         <v>11</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -5569,34 +5561,34 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>313</v>
+      </c>
+      <c r="C90" t="s">
+        <v>439</v>
+      </c>
+      <c r="D90" t="s">
+        <v>26</v>
+      </c>
+      <c r="E90" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H90" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C90" s="30" t="s">
-        <v>442</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E90" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" s="1" t="s">
+      <c r="I90" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="G90" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="I90" s="23" t="s">
-        <v>318</v>
-      </c>
       <c r="J90" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -5604,32 +5596,32 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>319</v>
-      </c>
-      <c r="C91" s="30" t="s">
-        <v>320</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>28</v>
+        <v>317</v>
+      </c>
+      <c r="C91" t="s">
+        <v>318</v>
+      </c>
+      <c r="D91" t="s">
+        <v>26</v>
       </c>
       <c r="E91" t="s">
         <v>11</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -5637,32 +5629,32 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>321</v>
-      </c>
-      <c r="C92" s="30" t="s">
-        <v>322</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>28</v>
+        <v>319</v>
+      </c>
+      <c r="C92" t="s">
+        <v>320</v>
+      </c>
+      <c r="D92" t="s">
+        <v>26</v>
       </c>
       <c r="E92" t="s">
         <v>11</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -5670,34 +5662,34 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>321</v>
+      </c>
+      <c r="C93" t="s">
+        <v>322</v>
+      </c>
+      <c r="D93" t="s">
+        <v>26</v>
+      </c>
+      <c r="E93" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C93" s="30" t="s">
+      <c r="G93" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H93" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D93" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E93" t="s">
-        <v>11</v>
-      </c>
-      <c r="F93" s="2" t="s">
+      <c r="I93" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="G93" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="I93" s="7" t="s">
-        <v>327</v>
-      </c>
       <c r="J93" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -5705,19 +5697,19 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>326</v>
+      </c>
+      <c r="C94" t="s">
+        <v>327</v>
+      </c>
+      <c r="D94" t="s">
+        <v>26</v>
+      </c>
+      <c r="E94" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="15" t="s">
         <v>328</v>
-      </c>
-      <c r="C94" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E94" t="s">
-        <v>11</v>
-      </c>
-      <c r="F94" s="15" t="s">
-        <v>330</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>19</v>
@@ -5726,10 +5718,10 @@
         <v>19</v>
       </c>
       <c r="I94" s="21" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>14</v>
@@ -5740,69 +5732,69 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>330</v>
+      </c>
+      <c r="C95" t="s">
+        <v>331</v>
+      </c>
+      <c r="D95" t="s">
+        <v>26</v>
+      </c>
+      <c r="E95" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" t="s">
         <v>332</v>
       </c>
-      <c r="C95" s="30" t="s">
+      <c r="G95" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H95" t="s">
         <v>333</v>
       </c>
-      <c r="D95" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E95" t="s">
-        <v>11</v>
-      </c>
-      <c r="F95" t="s">
+      <c r="I95" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="G95" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H95" t="s">
-        <v>335</v>
-      </c>
-      <c r="I95" s="19" t="s">
-        <v>336</v>
-      </c>
       <c r="J95" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>335</v>
+      </c>
+      <c r="C96" t="s">
+        <v>336</v>
+      </c>
+      <c r="D96" t="s">
+        <v>26</v>
+      </c>
+      <c r="E96" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="C96" s="30" t="s">
+      <c r="G96" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H96" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="D96" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E96" t="s">
-        <v>11</v>
-      </c>
-      <c r="F96" s="5" t="s">
+      <c r="I96" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="G96" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H96" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="I96" s="22" t="s">
-        <v>341</v>
-      </c>
       <c r="J96" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -5810,34 +5802,34 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>340</v>
+      </c>
+      <c r="C97" t="s">
+        <v>341</v>
+      </c>
+      <c r="D97" t="s">
+        <v>26</v>
+      </c>
+      <c r="E97" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" t="s">
         <v>342</v>
       </c>
-      <c r="C97" s="30" t="s">
+      <c r="G97" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H97" t="s">
         <v>343</v>
       </c>
-      <c r="D97" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E97" t="s">
-        <v>11</v>
-      </c>
-      <c r="F97" t="s">
+      <c r="I97" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="G97" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H97" t="s">
-        <v>345</v>
-      </c>
-      <c r="I97" s="22" t="s">
-        <v>346</v>
-      </c>
       <c r="J97" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -5845,19 +5837,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>345</v>
+      </c>
+      <c r="C98" t="s">
+        <v>346</v>
+      </c>
+      <c r="D98" t="s">
+        <v>26</v>
+      </c>
+      <c r="E98" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="15" t="s">
         <v>347</v>
-      </c>
-      <c r="C98" s="30" t="s">
-        <v>348</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E98" t="s">
-        <v>11</v>
-      </c>
-      <c r="F98" s="15" t="s">
-        <v>349</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>19</v>
@@ -5866,10 +5858,10 @@
         <v>19</v>
       </c>
       <c r="I98" s="21" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>14</v>
@@ -5880,64 +5872,64 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>351</v>
-      </c>
-      <c r="C99" s="30" t="s">
-        <v>352</v>
-      </c>
-      <c r="D99" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C99" t="s">
+        <v>350</v>
+      </c>
+      <c r="D99" t="s">
+        <v>26</v>
+      </c>
+      <c r="E99" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K99" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E99" t="s">
-        <v>11</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J99" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K99" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>353</v>
-      </c>
-      <c r="C100" s="30" t="s">
-        <v>354</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>28</v>
+        <v>351</v>
+      </c>
+      <c r="C100" t="s">
+        <v>352</v>
+      </c>
+      <c r="D100" t="s">
+        <v>26</v>
       </c>
       <c r="E100" t="s">
         <v>11</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -5945,19 +5937,19 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>353</v>
+      </c>
+      <c r="C101" t="s">
+        <v>354</v>
+      </c>
+      <c r="D101" t="s">
+        <v>26</v>
+      </c>
+      <c r="E101" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" s="15" t="s">
         <v>355</v>
-      </c>
-      <c r="C101" s="30" t="s">
-        <v>356</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E101" t="s">
-        <v>11</v>
-      </c>
-      <c r="F101" s="15" t="s">
-        <v>357</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>19</v>
@@ -5966,10 +5958,10 @@
         <v>19</v>
       </c>
       <c r="I101" s="21" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K101" s="2" t="s">
         <v>14</v>
@@ -5980,34 +5972,34 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
+        <v>357</v>
+      </c>
+      <c r="C102" t="s">
+        <v>358</v>
+      </c>
+      <c r="D102" t="s">
+        <v>26</v>
+      </c>
+      <c r="E102" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C102" s="30" t="s">
+      <c r="G102" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H102" t="s">
         <v>360</v>
       </c>
-      <c r="D102" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E102" t="s">
-        <v>11</v>
-      </c>
-      <c r="F102" s="2" t="s">
+      <c r="I102" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="G102" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H102" t="s">
-        <v>362</v>
-      </c>
-      <c r="I102" s="7" t="s">
-        <v>363</v>
-      </c>
       <c r="J102" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -6015,34 +6007,34 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>362</v>
+      </c>
+      <c r="C103" t="s">
+        <v>363</v>
+      </c>
+      <c r="D103" t="s">
+        <v>26</v>
+      </c>
+      <c r="E103" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" t="s">
         <v>364</v>
       </c>
-      <c r="C103" s="30" t="s">
+      <c r="G103" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H103" t="s">
         <v>365</v>
       </c>
-      <c r="D103" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E103" t="s">
-        <v>11</v>
-      </c>
-      <c r="F103" t="s">
+      <c r="I103" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="G103" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H103" t="s">
-        <v>367</v>
-      </c>
-      <c r="I103" s="7" t="s">
-        <v>368</v>
-      </c>
       <c r="J103" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -6050,32 +6042,32 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>369</v>
-      </c>
-      <c r="C104" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>28</v>
+        <v>367</v>
+      </c>
+      <c r="C104" t="s">
+        <v>368</v>
+      </c>
+      <c r="D104" t="s">
+        <v>26</v>
       </c>
       <c r="E104" t="s">
         <v>11</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -6083,19 +6075,19 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>369</v>
+      </c>
+      <c r="C105" t="s">
+        <v>370</v>
+      </c>
+      <c r="D105" t="s">
+        <v>26</v>
+      </c>
+      <c r="E105" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" s="15" t="s">
         <v>371</v>
-      </c>
-      <c r="C105" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E105" t="s">
-        <v>11</v>
-      </c>
-      <c r="F105" s="15" t="s">
-        <v>373</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>19</v>
@@ -6104,10 +6096,10 @@
         <v>19</v>
       </c>
       <c r="I105" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>14</v>
@@ -6118,19 +6110,19 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
+        <v>373</v>
+      </c>
+      <c r="C106" t="s">
+        <v>374</v>
+      </c>
+      <c r="D106" t="s">
+        <v>26</v>
+      </c>
+      <c r="E106" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" t="s">
         <v>375</v>
-      </c>
-      <c r="C106" s="30" t="s">
-        <v>376</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E106" t="s">
-        <v>11</v>
-      </c>
-      <c r="F106" t="s">
-        <v>377</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>19</v>
@@ -6139,10 +6131,10 @@
         <v>19</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>14</v>
@@ -6153,31 +6145,31 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>379</v>
-      </c>
-      <c r="C107" s="30" t="s">
-        <v>380</v>
-      </c>
-      <c r="D107" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="C107" t="s">
+        <v>378</v>
+      </c>
+      <c r="D107" t="s">
+        <v>26</v>
+      </c>
+      <c r="E107" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K107" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E107" t="s">
-        <v>11</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J107" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K107" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -6185,31 +6177,31 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>381</v>
-      </c>
-      <c r="C108" s="30" t="s">
-        <v>382</v>
-      </c>
-      <c r="D108" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C108" t="s">
+        <v>380</v>
+      </c>
+      <c r="D108" t="s">
+        <v>26</v>
+      </c>
+      <c r="E108" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K108" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E108" t="s">
-        <v>11</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J108" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K108" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -6217,31 +6209,31 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>383</v>
-      </c>
-      <c r="C109" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="D109" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="C109" t="s">
+        <v>382</v>
+      </c>
+      <c r="D109" t="s">
+        <v>26</v>
+      </c>
+      <c r="E109" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K109" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E109" t="s">
-        <v>11</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J109" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K109" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -6249,31 +6241,31 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>385</v>
-      </c>
-      <c r="C110" s="30" t="s">
-        <v>386</v>
-      </c>
-      <c r="D110" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C110" t="s">
+        <v>384</v>
+      </c>
+      <c r="D110" t="s">
+        <v>26</v>
+      </c>
+      <c r="E110" t="s">
+        <v>11</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K110" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E110" t="s">
-        <v>11</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J110" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K110" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -6281,32 +6273,32 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>387</v>
-      </c>
-      <c r="C111" s="30" t="s">
-        <v>388</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>28</v>
+        <v>385</v>
+      </c>
+      <c r="C111" t="s">
+        <v>386</v>
+      </c>
+      <c r="D111" t="s">
+        <v>26</v>
       </c>
       <c r="E111" t="s">
         <v>11</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -6314,32 +6306,32 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>389</v>
-      </c>
-      <c r="C112" s="30" t="s">
-        <v>390</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>28</v>
+        <v>387</v>
+      </c>
+      <c r="C112" t="s">
+        <v>388</v>
+      </c>
+      <c r="D112" t="s">
+        <v>26</v>
       </c>
       <c r="E112" t="s">
         <v>11</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -6347,32 +6339,32 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>391</v>
-      </c>
-      <c r="C113" s="30" t="s">
-        <v>392</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>28</v>
+        <v>389</v>
+      </c>
+      <c r="C113" t="s">
+        <v>390</v>
+      </c>
+      <c r="D113" t="s">
+        <v>26</v>
       </c>
       <c r="E113" t="s">
         <v>11</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -6380,32 +6372,32 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>393</v>
-      </c>
-      <c r="C114" s="30" t="s">
-        <v>394</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>28</v>
+        <v>391</v>
+      </c>
+      <c r="C114" t="s">
+        <v>392</v>
+      </c>
+      <c r="D114" t="s">
+        <v>26</v>
       </c>
       <c r="E114" t="s">
         <v>11</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -6413,32 +6405,32 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>395</v>
-      </c>
-      <c r="C115" s="30" t="s">
-        <v>396</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>28</v>
+        <v>393</v>
+      </c>
+      <c r="C115" t="s">
+        <v>394</v>
+      </c>
+      <c r="D115" t="s">
+        <v>26</v>
       </c>
       <c r="E115" t="s">
         <v>11</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -6446,32 +6438,32 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>397</v>
-      </c>
-      <c r="C116" s="30" t="s">
-        <v>398</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>28</v>
+        <v>395</v>
+      </c>
+      <c r="C116" t="s">
+        <v>396</v>
+      </c>
+      <c r="D116" t="s">
+        <v>26</v>
       </c>
       <c r="E116" t="s">
         <v>11</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -6479,32 +6471,32 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>399</v>
-      </c>
-      <c r="C117" s="30" t="s">
-        <v>400</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>28</v>
+        <v>397</v>
+      </c>
+      <c r="C117" t="s">
+        <v>398</v>
+      </c>
+      <c r="D117" t="s">
+        <v>26</v>
       </c>
       <c r="E117" t="s">
         <v>11</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -6512,32 +6504,32 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>401</v>
-      </c>
-      <c r="C118" s="30" t="s">
-        <v>443</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>28</v>
+        <v>399</v>
+      </c>
+      <c r="C118" t="s">
+        <v>440</v>
+      </c>
+      <c r="D118" t="s">
+        <v>26</v>
       </c>
       <c r="E118" t="s">
         <v>11</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -6545,31 +6537,31 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>402</v>
-      </c>
-      <c r="C119" s="30" t="s">
-        <v>403</v>
-      </c>
-      <c r="D119" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C119" t="s">
+        <v>401</v>
+      </c>
+      <c r="D119" t="s">
+        <v>26</v>
+      </c>
+      <c r="E119" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K119" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E119" t="s">
-        <v>11</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J119" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K119" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -6577,63 +6569,63 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>404</v>
-      </c>
-      <c r="C120" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="D120" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C120" t="s">
+        <v>403</v>
+      </c>
+      <c r="D120" t="s">
+        <v>26</v>
+      </c>
+      <c r="E120" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K120" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E120" t="s">
-        <v>11</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J120" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K120" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>406</v>
-      </c>
-      <c r="C121" s="30" t="s">
-        <v>444</v>
-      </c>
-      <c r="D121" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C121" t="s">
+        <v>441</v>
+      </c>
+      <c r="D121" t="s">
+        <v>26</v>
+      </c>
+      <c r="E121" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K121" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E121" t="s">
-        <v>11</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J121" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K121" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -6641,31 +6633,31 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>407</v>
-      </c>
-      <c r="C122" s="30" t="s">
-        <v>408</v>
-      </c>
-      <c r="D122" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="C122" t="s">
+        <v>406</v>
+      </c>
+      <c r="D122" t="s">
+        <v>26</v>
+      </c>
+      <c r="E122" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K122" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E122" t="s">
-        <v>11</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J122" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K122" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -6673,31 +6665,31 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>409</v>
-      </c>
-      <c r="C123" s="30" t="s">
-        <v>410</v>
-      </c>
-      <c r="D123" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="C123" t="s">
+        <v>408</v>
+      </c>
+      <c r="D123" t="s">
+        <v>26</v>
+      </c>
+      <c r="E123" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K123" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E123" t="s">
-        <v>11</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J123" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K123" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -6705,31 +6697,31 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>411</v>
-      </c>
-      <c r="C124" s="30" t="s">
-        <v>412</v>
-      </c>
-      <c r="D124" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C124" t="s">
+        <v>410</v>
+      </c>
+      <c r="D124" t="s">
+        <v>26</v>
+      </c>
+      <c r="E124" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K124" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E124" t="s">
-        <v>11</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J124" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K124" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -6737,63 +6729,63 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>413</v>
-      </c>
-      <c r="C125" s="30" t="s">
-        <v>414</v>
-      </c>
-      <c r="D125" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="C125" t="s">
+        <v>412</v>
+      </c>
+      <c r="D125" t="s">
+        <v>26</v>
+      </c>
+      <c r="E125" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K125" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E125" t="s">
-        <v>11</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J125" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K125" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="7">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>415</v>
-      </c>
-      <c r="C126" s="30" t="s">
-        <v>416</v>
-      </c>
-      <c r="D126" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="C126" t="s">
+        <v>414</v>
+      </c>
+      <c r="D126" t="s">
+        <v>26</v>
+      </c>
+      <c r="E126" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K126" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E126" t="s">
-        <v>11</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J126" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K126" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -6801,31 +6793,31 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>417</v>
-      </c>
-      <c r="C127" s="30" t="s">
-        <v>418</v>
-      </c>
-      <c r="D127" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="C127" t="s">
+        <v>416</v>
+      </c>
+      <c r="D127" t="s">
+        <v>26</v>
+      </c>
+      <c r="E127" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K127" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E127" t="s">
-        <v>11</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J127" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K127" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -6833,31 +6825,31 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>419</v>
-      </c>
-      <c r="C128" s="30" t="s">
-        <v>445</v>
-      </c>
-      <c r="D128" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="C128" t="s">
+        <v>442</v>
+      </c>
+      <c r="D128" t="s">
+        <v>26</v>
+      </c>
+      <c r="E128" t="s">
+        <v>11</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K128" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E128" t="s">
-        <v>11</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J128" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K128" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6865,33 +6857,33 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
+        <v>423</v>
+      </c>
+      <c r="C129" t="s">
+        <v>424</v>
+      </c>
+      <c r="D129" t="s">
+        <v>17</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F129" s="31" t="s">
         <v>425</v>
       </c>
-      <c r="C129" t="s">
+      <c r="G129" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E129" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F129" s="34" t="s">
-        <v>427</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="H129">
         <v>5</v>
       </c>
       <c r="I129" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="J129" s="35" t="s">
+        <v>427</v>
+      </c>
+      <c r="J129" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="K129" s="35" t="s">
+      <c r="K129" s="32" t="s">
         <v>14</v>
       </c>
     </row>

--- a/rmonize/data_proc_elem/DPE_KORA_S3_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S3_P1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D16D5A-1BC6-4275-B376-DC3751133EB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD858FF3-CA43-43E4-AA5E-B86A09FF1236}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="453">
   <si>
     <t>index</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>Education</t>
-  </si>
-  <si>
-    <t>dtbbild</t>
   </si>
   <si>
     <t>TOT_PA_QX</t>
@@ -1515,12 +1512,35 @@
   <si>
     <t>Body Mass Index at baseline [kg/m²]</t>
   </si>
+  <si>
+    <t>case_when</t>
+  </si>
+  <si>
+    <t>proximate</t>
+  </si>
+  <si>
+    <t>DI13ABSC; DI14ABSC</t>
+  </si>
+  <si>
+    <t>case_when(
+  DI13ABSC %in% c(4) | DI14ABSC %in% c(0) ~ 7L,
+  DI14ABSC %in% c(3,4) ~ 6L,
+  DI14ABSC %in% c(2) ~ 4L,
+  DI14ABSC %in% c(5) ~ 9L,
+  DI13ABSC %in% c(3) ~ 3L,
+  DI13ABSC %in% c(1,2) ~ 2L,
+  DI13ABSC %in% c(6) &amp; DI14ABSC %in% c(1) ~ 0L,
+  is.na(DI13ABSC) &amp; DI14ABSC %in% c(1) ~ 0L,
+  DI13ABSC %in% c(6) &amp; is.na(DI14ABSC) ~ 0L,
+  DI13ABSC %in% c(5) ~ 9L,
+  TRUE ~ NA_integer_)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1716,6 +1736,12 @@
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2066,7 +2092,7 @@
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2138,50 +2164,54 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2197,7 +2227,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2495,11 +2525,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B69" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="6"/>
     <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
@@ -2555,10 +2585,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -2567,7 +2597,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>12</v>
@@ -2626,10 +2656,10 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -2651,7 +2681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="390" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -2667,21 +2697,21 @@
       <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>14</v>
+      <c r="F5" s="35" t="s">
+        <v>451</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>452</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2689,32 +2719,32 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>27</v>
-      </c>
       <c r="G6" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2722,10 +2752,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
         <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -2734,7 +2764,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>19</v>
@@ -2755,19 +2785,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>448</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="25" t="s">
         <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>449</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>33</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>19</v>
@@ -2788,19 +2818,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="27" t="s">
         <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>36</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>19</v>
@@ -2821,34 +2851,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="I10" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="J10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2856,34 +2886,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
         <v>45</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="23" t="s">
+      <c r="J11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2891,32 +2921,32 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
         <v>50</v>
       </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
       <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="G12" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -2924,34 +2954,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
         <v>53</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="30" t="s">
+      <c r="G13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="J13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2959,34 +2989,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
         <v>58</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="15" t="s">
+      <c r="I14" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="I14" s="22" t="s">
-        <v>62</v>
-      </c>
       <c r="J14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2994,34 +3024,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
         <v>63</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="10" t="s">
+      <c r="G15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="5" t="s">
+      <c r="I15" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>67</v>
-      </c>
       <c r="J15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -3029,19 +3059,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
         <v>68</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>70</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>19</v>
@@ -3050,10 +3080,10 @@
         <v>19</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>14</v>
@@ -3064,34 +3094,34 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
         <v>72</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="15" t="s">
+      <c r="I17" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="I17" s="22" t="s">
-        <v>76</v>
-      </c>
       <c r="J17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -3099,31 +3129,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" t="s">
         <v>77</v>
       </c>
-      <c r="C18" t="s">
-        <v>78</v>
-      </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -3131,32 +3161,32 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
         <v>79</v>
       </c>
-      <c r="C19" t="s">
-        <v>80</v>
-      </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -3164,19 +3194,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
         <v>81</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="16" t="s">
         <v>82</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>83</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>19</v>
@@ -3185,10 +3215,10 @@
         <v>19</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>14</v>
@@ -3199,34 +3229,34 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" t="s">
         <v>85</v>
       </c>
-      <c r="C21" t="s">
-        <v>86</v>
-      </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" s="15" t="s">
+      <c r="I21" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="22" t="s">
-        <v>62</v>
-      </c>
       <c r="J21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -3234,32 +3264,32 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
         <v>87</v>
       </c>
-      <c r="C22" t="s">
-        <v>88</v>
-      </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3267,34 +3297,34 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" t="s">
         <v>89</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>91</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="I23" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="I23" s="17" t="s">
-        <v>444</v>
-      </c>
       <c r="J23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -3302,32 +3332,32 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" t="s">
         <v>92</v>
       </c>
-      <c r="C24" t="s">
-        <v>93</v>
-      </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -3335,34 +3365,34 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" t="s">
         <v>94</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="18" t="s">
+      <c r="G25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" s="2" t="s">
+      <c r="I25" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="I25" s="19" t="s">
-        <v>98</v>
-      </c>
       <c r="J25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -3370,34 +3400,34 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" t="s">
         <v>99</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="14" t="s">
+      <c r="G26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="14" t="s">
+      <c r="I26" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="I26" s="20" t="s">
-        <v>103</v>
-      </c>
       <c r="J26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -3405,19 +3435,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" t="s">
         <v>104</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
         <v>105</v>
-      </c>
-      <c r="D27" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" t="s">
-        <v>106</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>19</v>
@@ -3426,10 +3456,10 @@
         <v>19</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>14</v>
@@ -3440,34 +3470,34 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" t="s">
         <v>108</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H28" s="2" t="s">
+      <c r="I28" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="I28" s="21" t="s">
-        <v>112</v>
-      </c>
       <c r="J28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3475,32 +3505,32 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" t="s">
         <v>113</v>
       </c>
-      <c r="C29" t="s">
-        <v>114</v>
-      </c>
       <c r="D29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I29" s="21"/>
       <c r="J29" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -3508,34 +3538,34 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" t="s">
         <v>115</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" s="5" t="s">
+      <c r="I30" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="I30" s="22" t="s">
-        <v>119</v>
-      </c>
       <c r="J30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -3543,19 +3573,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" t="s">
         <v>120</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="D31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>19</v>
@@ -3564,10 +3594,10 @@
         <v>19</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>14</v>
@@ -3578,32 +3608,32 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" t="s">
         <v>124</v>
       </c>
-      <c r="C32" t="s">
-        <v>125</v>
-      </c>
       <c r="D32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -3611,19 +3641,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" t="s">
         <v>126</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
         <v>127</v>
-      </c>
-      <c r="D33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" t="s">
-        <v>128</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>19</v>
@@ -3632,10 +3662,10 @@
         <v>19</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>14</v>
@@ -3646,19 +3676,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" t="s">
         <v>130</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="24" t="s">
         <v>131</v>
-      </c>
-      <c r="D34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>132</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>19</v>
@@ -3667,10 +3697,10 @@
         <v>19</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>14</v>
@@ -3681,19 +3711,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" t="s">
+        <v>428</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
         <v>134</v>
-      </c>
-      <c r="C35" t="s">
-        <v>429</v>
-      </c>
-      <c r="D35" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" t="s">
-        <v>135</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>19</v>
@@ -3702,10 +3732,10 @@
         <v>19</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>14</v>
@@ -3716,31 +3746,31 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C36" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J36" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J36" s="2" t="s">
+      <c r="K36" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -3748,32 +3778,32 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" t="s">
         <v>138</v>
       </c>
-      <c r="C37" t="s">
-        <v>139</v>
-      </c>
       <c r="D37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K37" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -3781,19 +3811,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" t="s">
         <v>140</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
         <v>141</v>
-      </c>
-      <c r="D38" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" t="s">
-        <v>142</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>19</v>
@@ -3802,10 +3832,10 @@
         <v>19</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>14</v>
@@ -3816,32 +3846,32 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C39" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K39" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -3849,19 +3879,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" t="s">
         <v>145</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
         <v>146</v>
-      </c>
-      <c r="D40" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" t="s">
-        <v>147</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>19</v>
@@ -3870,10 +3900,10 @@
         <v>19</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>14</v>
@@ -3884,34 +3914,34 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>431</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C41" s="34" t="s">
-        <v>432</v>
-      </c>
-      <c r="D41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H41" s="1" t="s">
+      <c r="I41" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="I41" s="22" t="s">
-        <v>152</v>
-      </c>
       <c r="J41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -3919,34 +3949,34 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C42" t="s">
         <v>153</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D42" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="1" t="s">
+      <c r="G42" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H42" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H42" s="15" t="s">
+      <c r="I42" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="I42" s="22" t="s">
-        <v>157</v>
-      </c>
       <c r="J42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -3954,34 +3984,34 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" t="s">
         <v>158</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="D43" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="15" t="s">
+      <c r="G43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H43" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H43" s="15" t="s">
+      <c r="I43" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I43" s="21" t="s">
-        <v>162</v>
-      </c>
       <c r="J43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K43" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -3989,34 +4019,34 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44" t="s">
         <v>163</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="D44" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="18" t="s">
+      <c r="G44" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H44" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H44" s="18" t="s">
+      <c r="I44" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="I44" s="23" t="s">
-        <v>167</v>
-      </c>
       <c r="J44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="L44" s="10"/>
     </row>
@@ -4025,34 +4055,34 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" t="s">
         <v>168</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D45" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="5" t="s">
+      <c r="G45" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H45" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H45" s="5" t="s">
+      <c r="I45" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="I45" s="23" t="s">
-        <v>172</v>
-      </c>
       <c r="J45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K45" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -4060,19 +4090,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C46" t="s">
         <v>173</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="24" t="s">
         <v>174</v>
-      </c>
-      <c r="D46" t="s">
-        <v>26</v>
-      </c>
-      <c r="E46" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="24" t="s">
-        <v>175</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>19</v>
@@ -4081,10 +4111,10 @@
         <v>19</v>
       </c>
       <c r="I46" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>14</v>
@@ -4095,31 +4125,31 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C47" t="s">
         <v>177</v>
       </c>
-      <c r="C47" t="s">
-        <v>178</v>
-      </c>
       <c r="D47" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J47" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E47" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J47" s="2" t="s">
+      <c r="K47" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -4127,31 +4157,31 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C48" t="s">
         <v>179</v>
       </c>
-      <c r="C48" t="s">
-        <v>180</v>
-      </c>
       <c r="D48" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J48" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E48" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J48" s="2" t="s">
+      <c r="K48" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -4159,34 +4189,34 @@
         <v>48</v>
       </c>
       <c r="B49" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="C49" t="s">
+        <v>432</v>
+      </c>
+      <c r="D49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="C49" t="s">
-        <v>433</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="J49" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E49" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G49" s="2" t="s">
+      <c r="K49" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I49" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -4194,34 +4224,34 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C50" t="s">
         <v>183</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D50" t="s">
-        <v>26</v>
-      </c>
-      <c r="E50" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="2" t="s">
+      <c r="G50" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H50" s="2" t="s">
+      <c r="I50" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="I50" s="19" t="s">
-        <v>187</v>
-      </c>
       <c r="J50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K50" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -4229,34 +4259,34 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C51" t="s">
         <v>188</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" t="s">
         <v>189</v>
       </c>
-      <c r="D51" t="s">
-        <v>26</v>
-      </c>
-      <c r="E51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="G51" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H51" t="s">
         <v>190</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="I51" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="I51" s="22" t="s">
-        <v>192</v>
-      </c>
       <c r="J51" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K51" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -4264,19 +4294,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C52" t="s">
         <v>193</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="15" t="s">
         <v>194</v>
-      </c>
-      <c r="D52" t="s">
-        <v>26</v>
-      </c>
-      <c r="E52" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>195</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>19</v>
@@ -4285,10 +4315,10 @@
         <v>19</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>14</v>
@@ -4299,19 +4329,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C53" t="s">
         <v>197</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="D53" t="s">
-        <v>26</v>
-      </c>
-      <c r="E53" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>199</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>19</v>
@@ -4320,10 +4350,10 @@
         <v>19</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>14</v>
@@ -4334,19 +4364,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C54" t="s">
         <v>201</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="15" t="s">
         <v>202</v>
-      </c>
-      <c r="D54" t="s">
-        <v>26</v>
-      </c>
-      <c r="E54" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>203</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>19</v>
@@ -4355,10 +4385,10 @@
         <v>19</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>14</v>
@@ -4369,34 +4399,34 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C55" t="s">
         <v>205</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D55" t="s">
-        <v>26</v>
-      </c>
-      <c r="E55" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="5" t="s">
+      <c r="G55" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H55" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H55" s="15" t="s">
+      <c r="I55" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="I55" s="26" t="s">
-        <v>209</v>
-      </c>
       <c r="J55" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K55" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -4404,32 +4434,32 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C56" t="s">
         <v>210</v>
       </c>
-      <c r="C56" t="s">
-        <v>211</v>
-      </c>
       <c r="D56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -4437,34 +4467,34 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C57" t="s">
         <v>212</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H57" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="D57" t="s">
-        <v>26</v>
-      </c>
-      <c r="E57" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H57" s="15" t="s">
-        <v>214</v>
-      </c>
       <c r="I57" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J57" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K57" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -4472,19 +4502,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C58" t="s">
         <v>215</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" t="s">
         <v>216</v>
-      </c>
-      <c r="D58" t="s">
-        <v>26</v>
-      </c>
-      <c r="E58" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" t="s">
-        <v>217</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>19</v>
@@ -4493,10 +4523,10 @@
         <v>19</v>
       </c>
       <c r="I58" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>14</v>
@@ -4507,32 +4537,32 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C59" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K59" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -4540,32 +4570,32 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C60" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D60" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K60" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -4573,32 +4603,32 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C61" t="s">
         <v>221</v>
       </c>
-      <c r="C61" t="s">
-        <v>222</v>
-      </c>
       <c r="D61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E61" t="s">
         <v>11</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K61" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -4606,32 +4636,32 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C62" t="s">
         <v>223</v>
       </c>
-      <c r="C62" t="s">
-        <v>224</v>
-      </c>
       <c r="D62" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E62" t="s">
         <v>11</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K62" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -4639,32 +4669,32 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C63" t="s">
         <v>225</v>
       </c>
-      <c r="C63" t="s">
-        <v>226</v>
-      </c>
       <c r="D63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E63" t="s">
         <v>11</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K63" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -4672,32 +4702,32 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C64" t="s">
         <v>227</v>
       </c>
-      <c r="C64" t="s">
-        <v>228</v>
-      </c>
       <c r="D64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E64" t="s">
         <v>11</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K64" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4705,19 +4735,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C65" t="s">
         <v>229</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" t="s">
         <v>230</v>
-      </c>
-      <c r="D65" t="s">
-        <v>26</v>
-      </c>
-      <c r="E65" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" t="s">
-        <v>231</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>19</v>
@@ -4726,10 +4756,10 @@
         <v>19</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>14</v>
@@ -4740,34 +4770,34 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C66" t="s">
         <v>233</v>
       </c>
-      <c r="C66" t="s">
-        <v>234</v>
-      </c>
       <c r="D66" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
       </c>
       <c r="F66" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H66" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H66" s="2" t="s">
+      <c r="I66" s="29" t="s">
         <v>420</v>
       </c>
-      <c r="I66" s="29" t="s">
-        <v>421</v>
-      </c>
       <c r="J66" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K66" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -4775,19 +4805,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C67" t="s">
         <v>235</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" t="s">
         <v>236</v>
-      </c>
-      <c r="D67" t="s">
-        <v>26</v>
-      </c>
-      <c r="E67" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" t="s">
-        <v>237</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>19</v>
@@ -4796,10 +4826,10 @@
         <v>19</v>
       </c>
       <c r="I67" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>14</v>
@@ -4810,34 +4840,34 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C68" t="s">
         <v>239</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D68" t="s">
-        <v>26</v>
-      </c>
-      <c r="E68" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" s="5" t="s">
+      <c r="G68" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H68" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="G68" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H68" s="5" t="s">
+      <c r="I68" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="I68" s="19" t="s">
-        <v>243</v>
-      </c>
       <c r="J68" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K68" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -4845,19 +4875,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C69" t="s">
+        <v>435</v>
+      </c>
+      <c r="D69" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" t="s">
         <v>244</v>
-      </c>
-      <c r="C69" t="s">
-        <v>436</v>
-      </c>
-      <c r="D69" t="s">
-        <v>26</v>
-      </c>
-      <c r="E69" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" t="s">
-        <v>245</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>19</v>
@@ -4866,10 +4896,10 @@
         <v>19</v>
       </c>
       <c r="I69" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>14</v>
@@ -4880,32 +4910,32 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C70" t="s">
         <v>247</v>
       </c>
-      <c r="C70" t="s">
-        <v>248</v>
-      </c>
       <c r="D70" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K70" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -4913,34 +4943,34 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C71" t="s">
+        <v>436</v>
+      </c>
+      <c r="D71" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C71" t="s">
-        <v>437</v>
-      </c>
-      <c r="D71" t="s">
-        <v>26</v>
-      </c>
-      <c r="E71" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="5" t="s">
+      <c r="G71" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H71" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="G71" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H71" s="5" t="s">
+      <c r="I71" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="I71" s="22" t="s">
-        <v>252</v>
-      </c>
       <c r="J71" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K71" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4948,34 +4978,34 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>252</v>
+      </c>
+      <c r="C72" t="s">
         <v>253</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="D72" t="s">
-        <v>26</v>
-      </c>
-      <c r="E72" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="15" t="s">
+      <c r="G72" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H72" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="G72" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H72" s="15" t="s">
+      <c r="I72" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="I72" s="21" t="s">
-        <v>257</v>
-      </c>
       <c r="J72" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K72" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -4983,19 +5013,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>257</v>
+      </c>
+      <c r="C73" t="s">
         <v>258</v>
       </c>
-      <c r="C73" t="s">
-        <v>259</v>
-      </c>
       <c r="D73" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>19</v>
@@ -5004,10 +5034,10 @@
         <v>19</v>
       </c>
       <c r="I73" s="21" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>14</v>
@@ -5018,34 +5048,34 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>259</v>
+      </c>
+      <c r="C74" t="s">
         <v>260</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="D74" t="s">
-        <v>26</v>
-      </c>
-      <c r="E74" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="5" t="s">
+      <c r="G74" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H74" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="G74" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H74" s="5" t="s">
+      <c r="I74" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="I74" s="22" t="s">
-        <v>264</v>
-      </c>
       <c r="J74" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K74" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -5053,19 +5083,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>264</v>
+      </c>
+      <c r="C75" t="s">
         <v>265</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="15" t="s">
         <v>266</v>
-      </c>
-      <c r="D75" t="s">
-        <v>26</v>
-      </c>
-      <c r="E75" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" s="15" t="s">
-        <v>267</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>19</v>
@@ -5074,10 +5104,10 @@
         <v>19</v>
       </c>
       <c r="I75" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>14</v>
@@ -5088,19 +5118,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>268</v>
+      </c>
+      <c r="C76" t="s">
         <v>269</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="15" t="s">
         <v>270</v>
-      </c>
-      <c r="D76" t="s">
-        <v>26</v>
-      </c>
-      <c r="E76" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="15" t="s">
-        <v>271</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>19</v>
@@ -5109,10 +5139,10 @@
         <v>19</v>
       </c>
       <c r="I76" s="21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>14</v>
@@ -5123,19 +5153,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>272</v>
+      </c>
+      <c r="C77" t="s">
         <v>273</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="15" t="s">
         <v>274</v>
-      </c>
-      <c r="D77" t="s">
-        <v>26</v>
-      </c>
-      <c r="E77" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="15" t="s">
-        <v>275</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>19</v>
@@ -5144,10 +5174,10 @@
         <v>19</v>
       </c>
       <c r="I77" s="21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>14</v>
@@ -5158,32 +5188,32 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>276</v>
+      </c>
+      <c r="C78" t="s">
         <v>277</v>
       </c>
-      <c r="C78" t="s">
-        <v>278</v>
-      </c>
       <c r="D78" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E78" t="s">
         <v>11</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K78" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -5191,31 +5221,31 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
+        <v>278</v>
+      </c>
+      <c r="C79" t="s">
         <v>279</v>
       </c>
-      <c r="C79" t="s">
-        <v>280</v>
-      </c>
       <c r="D79" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J79" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E79" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J79" s="2" t="s">
+      <c r="K79" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -5223,31 +5253,31 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>280</v>
+      </c>
+      <c r="C80" t="s">
         <v>281</v>
       </c>
-      <c r="C80" t="s">
-        <v>282</v>
-      </c>
       <c r="D80" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J80" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E80" t="s">
-        <v>11</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J80" s="2" t="s">
+      <c r="K80" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -5255,34 +5285,34 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>282</v>
+      </c>
+      <c r="C81" t="s">
         <v>283</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D81" t="s">
-        <v>26</v>
-      </c>
-      <c r="E81" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="1" t="s">
+      <c r="G81" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H81" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="G81" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H81" s="1" t="s">
+      <c r="I81" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="I81" s="22" t="s">
-        <v>287</v>
-      </c>
       <c r="J81" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K81" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -5290,34 +5320,34 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>287</v>
+      </c>
+      <c r="C82" t="s">
         <v>288</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="D82" t="s">
-        <v>26</v>
-      </c>
-      <c r="E82" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" s="15" t="s">
+      <c r="G82" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H82" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="G82" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H82" s="15" t="s">
+      <c r="I82" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="I82" s="21" t="s">
-        <v>292</v>
-      </c>
       <c r="J82" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K82" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -5325,34 +5355,34 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>292</v>
+      </c>
+      <c r="C83" t="s">
+        <v>437</v>
+      </c>
+      <c r="D83" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" t="s">
         <v>293</v>
       </c>
-      <c r="C83" t="s">
-        <v>438</v>
-      </c>
-      <c r="D83" t="s">
-        <v>26</v>
-      </c>
-      <c r="E83" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" t="s">
+      <c r="G83" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H83" t="s">
         <v>294</v>
       </c>
-      <c r="G83" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H83" t="s">
+      <c r="I83" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="I83" s="22" t="s">
-        <v>296</v>
-      </c>
       <c r="J83" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K83" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="K83" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -5360,19 +5390,19 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>296</v>
+      </c>
+      <c r="C84" t="s">
         <v>297</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
+        <v>25</v>
+      </c>
+      <c r="E84" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="15" t="s">
         <v>298</v>
-      </c>
-      <c r="D84" t="s">
-        <v>26</v>
-      </c>
-      <c r="E84" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="15" t="s">
-        <v>299</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>19</v>
@@ -5381,10 +5411,10 @@
         <v>19</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>14</v>
@@ -5395,32 +5425,32 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>300</v>
+      </c>
+      <c r="C85" t="s">
         <v>301</v>
       </c>
-      <c r="C85" t="s">
-        <v>302</v>
-      </c>
       <c r="D85" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K85" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -5428,31 +5458,31 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>302</v>
+      </c>
+      <c r="C86" t="s">
         <v>303</v>
       </c>
-      <c r="C86" t="s">
-        <v>304</v>
-      </c>
       <c r="D86" t="s">
+        <v>25</v>
+      </c>
+      <c r="E86" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J86" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E86" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J86" s="2" t="s">
+      <c r="K86" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -5460,19 +5490,19 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>304</v>
+      </c>
+      <c r="C87" t="s">
         <v>305</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
+        <v>25</v>
+      </c>
+      <c r="E87" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" t="s">
         <v>306</v>
-      </c>
-      <c r="D87" t="s">
-        <v>26</v>
-      </c>
-      <c r="E87" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" t="s">
-        <v>307</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>19</v>
@@ -5481,10 +5511,10 @@
         <v>19</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>14</v>
@@ -5495,32 +5525,32 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>308</v>
+      </c>
+      <c r="C88" t="s">
         <v>309</v>
       </c>
-      <c r="C88" t="s">
-        <v>310</v>
-      </c>
       <c r="D88" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E88" t="s">
         <v>11</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K88" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K88" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -5528,32 +5558,32 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
+        <v>310</v>
+      </c>
+      <c r="C89" t="s">
         <v>311</v>
       </c>
-      <c r="C89" t="s">
-        <v>312</v>
-      </c>
       <c r="D89" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E89" t="s">
         <v>11</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K89" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K89" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -5561,34 +5591,34 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>312</v>
+      </c>
+      <c r="C90" t="s">
+        <v>438</v>
+      </c>
+      <c r="D90" t="s">
+        <v>25</v>
+      </c>
+      <c r="E90" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C90" t="s">
-        <v>439</v>
-      </c>
-      <c r="D90" t="s">
-        <v>26</v>
-      </c>
-      <c r="E90" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" s="1" t="s">
+      <c r="G90" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H90" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="G90" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H90" s="1" t="s">
+      <c r="I90" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="I90" s="23" t="s">
-        <v>316</v>
-      </c>
       <c r="J90" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K90" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -5596,32 +5626,32 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>316</v>
+      </c>
+      <c r="C91" t="s">
         <v>317</v>
       </c>
-      <c r="C91" t="s">
-        <v>318</v>
-      </c>
       <c r="D91" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E91" t="s">
         <v>11</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K91" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K91" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -5629,32 +5659,32 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>318</v>
+      </c>
+      <c r="C92" t="s">
         <v>319</v>
       </c>
-      <c r="C92" t="s">
-        <v>320</v>
-      </c>
       <c r="D92" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E92" t="s">
         <v>11</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K92" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K92" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -5662,34 +5692,34 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>320</v>
+      </c>
+      <c r="C93" t="s">
         <v>321</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
+        <v>25</v>
+      </c>
+      <c r="E93" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="D93" t="s">
-        <v>26</v>
-      </c>
-      <c r="E93" t="s">
-        <v>11</v>
-      </c>
-      <c r="F93" s="2" t="s">
+      <c r="G93" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H93" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="G93" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H93" s="2" t="s">
+      <c r="I93" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="I93" s="7" t="s">
-        <v>325</v>
-      </c>
       <c r="J93" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K93" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="K93" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -5697,19 +5727,19 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>325</v>
+      </c>
+      <c r="C94" t="s">
         <v>326</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
+        <v>25</v>
+      </c>
+      <c r="E94" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="15" t="s">
         <v>327</v>
-      </c>
-      <c r="D94" t="s">
-        <v>26</v>
-      </c>
-      <c r="E94" t="s">
-        <v>11</v>
-      </c>
-      <c r="F94" s="15" t="s">
-        <v>328</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>19</v>
@@ -5718,10 +5748,10 @@
         <v>19</v>
       </c>
       <c r="I94" s="21" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>14</v>
@@ -5732,34 +5762,34 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>329</v>
+      </c>
+      <c r="C95" t="s">
         <v>330</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
+        <v>25</v>
+      </c>
+      <c r="E95" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" t="s">
         <v>331</v>
       </c>
-      <c r="D95" t="s">
-        <v>26</v>
-      </c>
-      <c r="E95" t="s">
-        <v>11</v>
-      </c>
-      <c r="F95" t="s">
+      <c r="G95" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H95" t="s">
         <v>332</v>
       </c>
-      <c r="G95" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H95" t="s">
+      <c r="I95" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="I95" s="19" t="s">
-        <v>334</v>
-      </c>
       <c r="J95" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K95" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="K95" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -5767,34 +5797,34 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>334</v>
+      </c>
+      <c r="C96" t="s">
         <v>335</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
+        <v>25</v>
+      </c>
+      <c r="E96" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D96" t="s">
-        <v>26</v>
-      </c>
-      <c r="E96" t="s">
-        <v>11</v>
-      </c>
-      <c r="F96" s="5" t="s">
+      <c r="G96" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H96" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="G96" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H96" s="5" t="s">
+      <c r="I96" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="I96" s="22" t="s">
-        <v>339</v>
-      </c>
       <c r="J96" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K96" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="K96" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -5802,34 +5832,34 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>339</v>
+      </c>
+      <c r="C97" t="s">
         <v>340</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
+        <v>25</v>
+      </c>
+      <c r="E97" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" t="s">
         <v>341</v>
       </c>
-      <c r="D97" t="s">
-        <v>26</v>
-      </c>
-      <c r="E97" t="s">
-        <v>11</v>
-      </c>
-      <c r="F97" t="s">
+      <c r="G97" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H97" t="s">
         <v>342</v>
       </c>
-      <c r="G97" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H97" t="s">
+      <c r="I97" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="I97" s="22" t="s">
-        <v>344</v>
-      </c>
       <c r="J97" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K97" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="K97" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -5837,19 +5867,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>344</v>
+      </c>
+      <c r="C98" t="s">
         <v>345</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
+        <v>25</v>
+      </c>
+      <c r="E98" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="15" t="s">
         <v>346</v>
-      </c>
-      <c r="D98" t="s">
-        <v>26</v>
-      </c>
-      <c r="E98" t="s">
-        <v>11</v>
-      </c>
-      <c r="F98" s="15" t="s">
-        <v>347</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>19</v>
@@ -5858,10 +5888,10 @@
         <v>19</v>
       </c>
       <c r="I98" s="21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>14</v>
@@ -5872,31 +5902,31 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>348</v>
+      </c>
+      <c r="C99" t="s">
         <v>349</v>
       </c>
-      <c r="C99" t="s">
-        <v>350</v>
-      </c>
       <c r="D99" t="s">
+        <v>25</v>
+      </c>
+      <c r="E99" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J99" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E99" t="s">
-        <v>11</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J99" s="2" t="s">
+      <c r="K99" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K99" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -5904,32 +5934,32 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
+        <v>350</v>
+      </c>
+      <c r="C100" t="s">
         <v>351</v>
       </c>
-      <c r="C100" t="s">
-        <v>352</v>
-      </c>
       <c r="D100" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E100" t="s">
         <v>11</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K100" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K100" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -5937,19 +5967,19 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>352</v>
+      </c>
+      <c r="C101" t="s">
         <v>353</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
+        <v>25</v>
+      </c>
+      <c r="E101" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" s="15" t="s">
         <v>354</v>
-      </c>
-      <c r="D101" t="s">
-        <v>26</v>
-      </c>
-      <c r="E101" t="s">
-        <v>11</v>
-      </c>
-      <c r="F101" s="15" t="s">
-        <v>355</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>19</v>
@@ -5958,10 +5988,10 @@
         <v>19</v>
       </c>
       <c r="I101" s="21" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K101" s="2" t="s">
         <v>14</v>
@@ -5972,34 +6002,34 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
+        <v>356</v>
+      </c>
+      <c r="C102" t="s">
         <v>357</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
+        <v>25</v>
+      </c>
+      <c r="E102" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="D102" t="s">
-        <v>26</v>
-      </c>
-      <c r="E102" t="s">
-        <v>11</v>
-      </c>
-      <c r="F102" s="2" t="s">
+      <c r="G102" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H102" t="s">
         <v>359</v>
       </c>
-      <c r="G102" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H102" t="s">
+      <c r="I102" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="I102" s="7" t="s">
-        <v>361</v>
-      </c>
       <c r="J102" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K102" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="K102" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -6007,34 +6037,34 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>361</v>
+      </c>
+      <c r="C103" t="s">
         <v>362</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
+        <v>25</v>
+      </c>
+      <c r="E103" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" t="s">
         <v>363</v>
       </c>
-      <c r="D103" t="s">
-        <v>26</v>
-      </c>
-      <c r="E103" t="s">
-        <v>11</v>
-      </c>
-      <c r="F103" t="s">
+      <c r="G103" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H103" t="s">
         <v>364</v>
       </c>
-      <c r="G103" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H103" t="s">
+      <c r="I103" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="I103" s="7" t="s">
-        <v>366</v>
-      </c>
       <c r="J103" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K103" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="K103" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -6042,32 +6072,32 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
+        <v>366</v>
+      </c>
+      <c r="C104" t="s">
         <v>367</v>
       </c>
-      <c r="C104" t="s">
-        <v>368</v>
-      </c>
       <c r="D104" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E104" t="s">
         <v>11</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K104" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K104" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -6075,19 +6105,19 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>368</v>
+      </c>
+      <c r="C105" t="s">
         <v>369</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
+        <v>25</v>
+      </c>
+      <c r="E105" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" s="15" t="s">
         <v>370</v>
-      </c>
-      <c r="D105" t="s">
-        <v>26</v>
-      </c>
-      <c r="E105" t="s">
-        <v>11</v>
-      </c>
-      <c r="F105" s="15" t="s">
-        <v>371</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>19</v>
@@ -6096,10 +6126,10 @@
         <v>19</v>
       </c>
       <c r="I105" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>14</v>
@@ -6110,19 +6140,19 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
+        <v>372</v>
+      </c>
+      <c r="C106" t="s">
         <v>373</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
+        <v>25</v>
+      </c>
+      <c r="E106" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" t="s">
         <v>374</v>
-      </c>
-      <c r="D106" t="s">
-        <v>26</v>
-      </c>
-      <c r="E106" t="s">
-        <v>11</v>
-      </c>
-      <c r="F106" t="s">
-        <v>375</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>19</v>
@@ -6131,10 +6161,10 @@
         <v>19</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>14</v>
@@ -6145,31 +6175,31 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
+        <v>376</v>
+      </c>
+      <c r="C107" t="s">
         <v>377</v>
       </c>
-      <c r="C107" t="s">
-        <v>378</v>
-      </c>
       <c r="D107" t="s">
+        <v>25</v>
+      </c>
+      <c r="E107" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J107" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E107" t="s">
-        <v>11</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J107" s="2" t="s">
+      <c r="K107" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K107" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -6177,31 +6207,31 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
+        <v>378</v>
+      </c>
+      <c r="C108" t="s">
         <v>379</v>
       </c>
-      <c r="C108" t="s">
-        <v>380</v>
-      </c>
       <c r="D108" t="s">
+        <v>25</v>
+      </c>
+      <c r="E108" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J108" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E108" t="s">
-        <v>11</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J108" s="2" t="s">
+      <c r="K108" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K108" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -6209,31 +6239,31 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
+        <v>380</v>
+      </c>
+      <c r="C109" t="s">
         <v>381</v>
       </c>
-      <c r="C109" t="s">
-        <v>382</v>
-      </c>
       <c r="D109" t="s">
+        <v>25</v>
+      </c>
+      <c r="E109" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J109" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E109" t="s">
-        <v>11</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J109" s="2" t="s">
+      <c r="K109" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K109" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -6241,31 +6271,31 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
+        <v>382</v>
+      </c>
+      <c r="C110" t="s">
         <v>383</v>
       </c>
-      <c r="C110" t="s">
-        <v>384</v>
-      </c>
       <c r="D110" t="s">
+        <v>25</v>
+      </c>
+      <c r="E110" t="s">
+        <v>11</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J110" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E110" t="s">
-        <v>11</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J110" s="2" t="s">
+      <c r="K110" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K110" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -6273,32 +6303,32 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
+        <v>384</v>
+      </c>
+      <c r="C111" t="s">
         <v>385</v>
       </c>
-      <c r="C111" t="s">
-        <v>386</v>
-      </c>
       <c r="D111" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E111" t="s">
         <v>11</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K111" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K111" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -6306,32 +6336,32 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
+        <v>386</v>
+      </c>
+      <c r="C112" t="s">
         <v>387</v>
       </c>
-      <c r="C112" t="s">
-        <v>388</v>
-      </c>
       <c r="D112" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E112" t="s">
         <v>11</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K112" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K112" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -6339,32 +6369,32 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
+        <v>388</v>
+      </c>
+      <c r="C113" t="s">
         <v>389</v>
       </c>
-      <c r="C113" t="s">
-        <v>390</v>
-      </c>
       <c r="D113" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E113" t="s">
         <v>11</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K113" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K113" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -6372,32 +6402,32 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
+        <v>390</v>
+      </c>
+      <c r="C114" t="s">
         <v>391</v>
       </c>
-      <c r="C114" t="s">
-        <v>392</v>
-      </c>
       <c r="D114" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E114" t="s">
         <v>11</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K114" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K114" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -6405,32 +6435,32 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
+        <v>392</v>
+      </c>
+      <c r="C115" t="s">
         <v>393</v>
       </c>
-      <c r="C115" t="s">
-        <v>394</v>
-      </c>
       <c r="D115" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E115" t="s">
         <v>11</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K115" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K115" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -6438,32 +6468,32 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
+        <v>394</v>
+      </c>
+      <c r="C116" t="s">
         <v>395</v>
       </c>
-      <c r="C116" t="s">
-        <v>396</v>
-      </c>
       <c r="D116" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E116" t="s">
         <v>11</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K116" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K116" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -6471,32 +6501,32 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
+        <v>396</v>
+      </c>
+      <c r="C117" t="s">
         <v>397</v>
       </c>
-      <c r="C117" t="s">
-        <v>398</v>
-      </c>
       <c r="D117" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E117" t="s">
         <v>11</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K117" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K117" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -6504,32 +6534,32 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C118" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D118" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E118" t="s">
         <v>11</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K118" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K118" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -6537,31 +6567,31 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
+        <v>399</v>
+      </c>
+      <c r="C119" t="s">
         <v>400</v>
       </c>
-      <c r="C119" t="s">
-        <v>401</v>
-      </c>
       <c r="D119" t="s">
+        <v>25</v>
+      </c>
+      <c r="E119" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J119" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E119" t="s">
-        <v>11</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J119" s="2" t="s">
+      <c r="K119" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K119" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -6569,31 +6599,31 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
+        <v>401</v>
+      </c>
+      <c r="C120" t="s">
         <v>402</v>
       </c>
-      <c r="C120" t="s">
-        <v>403</v>
-      </c>
       <c r="D120" t="s">
+        <v>25</v>
+      </c>
+      <c r="E120" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J120" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E120" t="s">
-        <v>11</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J120" s="2" t="s">
+      <c r="K120" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K120" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -6601,31 +6631,31 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C121" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D121" t="s">
+        <v>25</v>
+      </c>
+      <c r="E121" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J121" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E121" t="s">
-        <v>11</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J121" s="2" t="s">
+      <c r="K121" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K121" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -6633,31 +6663,31 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
+        <v>404</v>
+      </c>
+      <c r="C122" t="s">
         <v>405</v>
       </c>
-      <c r="C122" t="s">
-        <v>406</v>
-      </c>
       <c r="D122" t="s">
+        <v>25</v>
+      </c>
+      <c r="E122" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J122" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E122" t="s">
-        <v>11</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J122" s="2" t="s">
+      <c r="K122" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K122" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -6665,31 +6695,31 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
+        <v>406</v>
+      </c>
+      <c r="C123" t="s">
         <v>407</v>
       </c>
-      <c r="C123" t="s">
-        <v>408</v>
-      </c>
       <c r="D123" t="s">
+        <v>25</v>
+      </c>
+      <c r="E123" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J123" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E123" t="s">
-        <v>11</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J123" s="2" t="s">
+      <c r="K123" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K123" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -6697,31 +6727,31 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
+        <v>408</v>
+      </c>
+      <c r="C124" t="s">
         <v>409</v>
       </c>
-      <c r="C124" t="s">
-        <v>410</v>
-      </c>
       <c r="D124" t="s">
+        <v>25</v>
+      </c>
+      <c r="E124" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J124" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E124" t="s">
-        <v>11</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J124" s="2" t="s">
+      <c r="K124" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K124" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -6729,31 +6759,31 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
+        <v>410</v>
+      </c>
+      <c r="C125" t="s">
         <v>411</v>
       </c>
-      <c r="C125" t="s">
-        <v>412</v>
-      </c>
       <c r="D125" t="s">
+        <v>25</v>
+      </c>
+      <c r="E125" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J125" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E125" t="s">
-        <v>11</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J125" s="2" t="s">
+      <c r="K125" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K125" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -6761,31 +6791,31 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
+        <v>412</v>
+      </c>
+      <c r="C126" t="s">
         <v>413</v>
       </c>
-      <c r="C126" t="s">
-        <v>414</v>
-      </c>
       <c r="D126" t="s">
+        <v>25</v>
+      </c>
+      <c r="E126" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J126" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E126" t="s">
-        <v>11</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J126" s="2" t="s">
+      <c r="K126" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K126" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -6793,31 +6823,31 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
+        <v>414</v>
+      </c>
+      <c r="C127" t="s">
         <v>415</v>
       </c>
-      <c r="C127" t="s">
-        <v>416</v>
-      </c>
       <c r="D127" t="s">
+        <v>25</v>
+      </c>
+      <c r="E127" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J127" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E127" t="s">
-        <v>11</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J127" s="2" t="s">
+      <c r="K127" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K127" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -6825,31 +6855,31 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C128" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D128" t="s">
+        <v>25</v>
+      </c>
+      <c r="E128" t="s">
+        <v>11</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J128" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E128" t="s">
-        <v>11</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J128" s="2" t="s">
+      <c r="K128" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K128" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6857,10 +6887,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
+        <v>422</v>
+      </c>
+      <c r="C129" t="s">
         <v>423</v>
-      </c>
-      <c r="C129" t="s">
-        <v>424</v>
       </c>
       <c r="D129" t="s">
         <v>17</v>
@@ -6869,16 +6899,16 @@
         <v>11</v>
       </c>
       <c r="F129" s="31" t="s">
+        <v>424</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>426</v>
       </c>
       <c r="H129">
         <v>5</v>
       </c>
       <c r="I129" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J129" s="32" t="s">
         <v>13</v>

--- a/rmonize/data_proc_elem/DPE_KORA_S3_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S3_P1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD858FF3-CA43-43E4-AA5E-B86A09FF1236}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00FCACE-9882-473F-BA20-151DA9BC0AA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1526,13 +1526,12 @@
   DI13ABSC %in% c(4) | DI14ABSC %in% c(0) ~ 7L,
   DI14ABSC %in% c(3,4) ~ 6L,
   DI14ABSC %in% c(2) ~ 4L,
-  DI14ABSC %in% c(5) ~ 9L,
   DI13ABSC %in% c(3) ~ 3L,
   DI13ABSC %in% c(1,2) ~ 2L,
   DI13ABSC %in% c(6) &amp; DI14ABSC %in% c(1) ~ 0L,
   is.na(DI13ABSC) &amp; DI14ABSC %in% c(1) ~ 0L,
   DI13ABSC %in% c(6) &amp; is.na(DI14ABSC) ~ 0L,
-  DI13ABSC %in% c(5) ~ 9L,
+  DI14ABSC %in% c(5) | DI13ABSC %in% c(5) ~ 9L,
   TRUE ~ NA_integer_)</t>
   </si>
 </sst>
@@ -2525,7 +2524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -2538,7 +2537,7 @@
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.28515625" customWidth="1"/>
     <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="66.5703125" customWidth="1"/>
     <col min="9" max="9" width="39.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.28515625" bestFit="1" customWidth="1"/>
@@ -2681,7 +2680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="390" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -6923,6 +6922,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -7163,15 +7171,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -7185,6 +7184,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8FD927B-486E-4736-8E9F-ABBC39C726CA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7199,14 +7206,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/rmonize/data_proc_elem/DPE_KORA_S3_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S3_P1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00FCACE-9882-473F-BA20-151DA9BC0AA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFC20E3-2B94-4CFA-8842-D22C9EE2A31A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="452">
   <si>
     <t>index</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>EDU_LEVEL</t>
-  </si>
-  <si>
-    <t>Education</t>
   </si>
   <si>
     <t>TOT_PA_QX</t>
@@ -156,9 +153,6 @@
   </si>
   <si>
     <t>partial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tentative </t>
   </si>
   <si>
     <t xml:space="preserve">POTATOES_0101 </t>
@@ -1519,20 +1513,23 @@
     <t>proximate</t>
   </si>
   <si>
-    <t>DI13ABSC; DI14ABSC</t>
-  </si>
-  <si>
     <t>case_when(
-  DI13ABSC %in% c(4) | DI14ABSC %in% c(0) ~ 7L,
-  DI14ABSC %in% c(3,4) ~ 6L,
-  DI14ABSC %in% c(2) ~ 4L,
-  DI13ABSC %in% c(3) ~ 3L,
-  DI13ABSC %in% c(1,2) ~ 2L,
-  DI13ABSC %in% c(6) &amp; DI14ABSC %in% c(1) ~ 0L,
-  is.na(DI13ABSC) &amp; DI14ABSC %in% c(1) ~ 0L,
-  DI13ABSC %in% c(6) &amp; is.na(DI14ABSC) ~ 0L,
-  DI14ABSC %in% c(5) | DI13ABSC %in% c(5) ~ 9L,
+  di13absc %in% c(4) | di14absc %in% c(0) ~ 7L,
+  di14absc %in% c(3,4) ~ 6L,
+  di14absc %in% c(2) ~ 4L,
+  di13absc %in% c(3) ~ 3L,
+  di13absc %in% c(1,2) ~ 2L,
+  di13absc %in% c(6) &amp; di14absc %in% c(1) ~ 0L,
+  is.na(di13absc) &amp; di14absc %in% c(1) ~ 0L,
+  di13absc %in% c(6) &amp; is.na(di14absc) ~ 0L,
+  di14absc %in% c(5) | di13absc %in% c(5) ~ 9L,
   TRUE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>di13absc; di14absc</t>
+  </si>
+  <si>
+    <t>Highest level of education [ISCED 2011]</t>
   </si>
 </sst>
 </file>
@@ -2524,8 +2521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2584,10 +2581,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -2596,7 +2593,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>12</v>
@@ -2655,10 +2652,10 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -2687,8 +2684,8 @@
       <c r="B5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
+      <c r="C5" s="11" t="s">
+        <v>451</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -2697,20 +2694,20 @@
         <v>11</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G5" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="H5" s="36" t="s">
         <v>449</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>452</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2718,32 +2715,32 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>26</v>
-      </c>
       <c r="G6" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2751,10 +2748,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -2763,7 +2760,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>19</v>
@@ -2784,19 +2781,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>446</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="25" t="s">
         <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>448</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>32</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>19</v>
@@ -2817,19 +2814,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="27" t="s">
         <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>35</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>19</v>
@@ -2850,34 +2847,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="I10" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="J10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>43</v>
+      <c r="K10" s="11" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2885,34 +2882,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C11" t="s">
+      <c r="J11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="23" t="s">
+      <c r="K11" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2920,32 +2917,32 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="G12" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -2953,34 +2950,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C13" t="s">
+      <c r="G13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="30" t="s">
+      <c r="I13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2988,34 +2985,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C14" t="s">
+      <c r="G14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="I14" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>61</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -3023,34 +3020,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C15" t="s">
+      <c r="G15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="10" t="s">
+      <c r="I15" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>66</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -3058,19 +3055,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="C16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>69</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>19</v>
@@ -3079,10 +3076,10 @@
         <v>19</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>14</v>
@@ -3093,34 +3090,34 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C17" t="s">
+      <c r="G17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="I17" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>75</v>
-      </c>
       <c r="J17" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -3128,31 +3125,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -3160,32 +3157,32 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -3193,19 +3190,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="C20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>82</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>19</v>
@@ -3214,10 +3211,10 @@
         <v>19</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>14</v>
@@ -3228,34 +3225,34 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>61</v>
-      </c>
       <c r="J21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -3263,32 +3260,32 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3296,34 +3293,34 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>90</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -3331,32 +3328,32 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -3364,34 +3361,34 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C25" t="s">
+      <c r="G25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="18" t="s">
+      <c r="I25" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>97</v>
-      </c>
       <c r="J25" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -3399,34 +3396,34 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C26" t="s">
+      <c r="G26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="14" t="s">
+      <c r="I26" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>102</v>
-      </c>
       <c r="J26" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -3434,19 +3431,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
         <v>103</v>
-      </c>
-      <c r="C27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" t="s">
-        <v>105</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>19</v>
@@ -3455,10 +3452,10 @@
         <v>19</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>14</v>
@@ -3469,34 +3466,34 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C28" t="s">
+      <c r="G28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="2" t="s">
+      <c r="I28" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I28" s="21" t="s">
-        <v>111</v>
-      </c>
       <c r="J28" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3504,32 +3501,32 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I29" s="21"/>
       <c r="J29" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -3537,34 +3534,34 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C30" t="s">
+      <c r="G30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="I30" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="I30" s="22" t="s">
-        <v>118</v>
-      </c>
       <c r="J30" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -3572,19 +3569,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="C31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>19</v>
@@ -3593,10 +3590,10 @@
         <v>19</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>14</v>
@@ -3607,32 +3604,32 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -3640,19 +3637,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
         <v>125</v>
-      </c>
-      <c r="C33" t="s">
-        <v>126</v>
-      </c>
-      <c r="D33" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" t="s">
-        <v>127</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>19</v>
@@ -3661,10 +3658,10 @@
         <v>19</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>14</v>
@@ -3675,19 +3672,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="24" t="s">
         <v>129</v>
-      </c>
-      <c r="C34" t="s">
-        <v>130</v>
-      </c>
-      <c r="D34" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>131</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>19</v>
@@ -3696,10 +3693,10 @@
         <v>19</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>14</v>
@@ -3710,19 +3707,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C35" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>19</v>
@@ -3731,10 +3728,10 @@
         <v>19</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>14</v>
@@ -3745,31 +3742,31 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C36" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J36" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J36" s="2" t="s">
+      <c r="K36" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -3777,32 +3774,32 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -3810,19 +3807,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
         <v>139</v>
-      </c>
-      <c r="C38" t="s">
-        <v>140</v>
-      </c>
-      <c r="D38" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" t="s">
-        <v>141</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>19</v>
@@ -3831,10 +3828,10 @@
         <v>19</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>14</v>
@@ -3845,32 +3842,32 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C39" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K39" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -3878,19 +3875,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
         <v>144</v>
-      </c>
-      <c r="C40" t="s">
-        <v>145</v>
-      </c>
-      <c r="D40" t="s">
-        <v>25</v>
-      </c>
-      <c r="E40" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" t="s">
-        <v>146</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>19</v>
@@ -3899,10 +3896,10 @@
         <v>19</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>14</v>
@@ -3913,34 +3910,34 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="D41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C41" s="34" t="s">
-        <v>431</v>
-      </c>
-      <c r="D41" t="s">
-        <v>25</v>
-      </c>
-      <c r="E41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="2" t="s">
+      <c r="I41" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I41" s="22" t="s">
-        <v>151</v>
-      </c>
       <c r="J41" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -3948,34 +3945,34 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C42" t="s">
+      <c r="G42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D42" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="1" t="s">
+      <c r="I42" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="I42" s="22" t="s">
-        <v>156</v>
-      </c>
       <c r="J42" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -3983,34 +3980,34 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" t="s">
+        <v>156</v>
+      </c>
+      <c r="D43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="C43" t="s">
+      <c r="G43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="D43" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="15" t="s">
+      <c r="I43" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="I43" s="21" t="s">
-        <v>161</v>
-      </c>
       <c r="J43" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -4018,34 +4015,34 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="C44" t="s">
+      <c r="G44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="D44" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="18" t="s">
+      <c r="I44" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H44" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="I44" s="23" t="s">
-        <v>166</v>
-      </c>
       <c r="J44" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L44" s="10"/>
     </row>
@@ -4054,34 +4051,34 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C45" t="s">
+        <v>166</v>
+      </c>
+      <c r="D45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C45" t="s">
+      <c r="G45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D45" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="5" t="s">
+      <c r="I45" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="I45" s="23" t="s">
-        <v>171</v>
-      </c>
       <c r="J45" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -4089,19 +4086,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" t="s">
+        <v>171</v>
+      </c>
+      <c r="D46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="24" t="s">
         <v>172</v>
-      </c>
-      <c r="C46" t="s">
-        <v>173</v>
-      </c>
-      <c r="D46" t="s">
-        <v>25</v>
-      </c>
-      <c r="E46" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="24" t="s">
-        <v>174</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>19</v>
@@ -4110,10 +4107,10 @@
         <v>19</v>
       </c>
       <c r="I46" s="21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>14</v>
@@ -4124,31 +4121,31 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C47" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J47" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E47" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J47" s="2" t="s">
+      <c r="K47" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -4156,31 +4153,31 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C48" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J48" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E48" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J48" s="2" t="s">
+      <c r="K48" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -4188,34 +4185,34 @@
         <v>48</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C49" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E49" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G49" s="2" t="s">
+      <c r="H49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I49" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K49" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I49" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -4223,34 +4220,34 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C50" t="s">
+        <v>181</v>
+      </c>
+      <c r="D50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C50" t="s">
+      <c r="G50" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D50" t="s">
-        <v>25</v>
-      </c>
-      <c r="E50" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="2" t="s">
+      <c r="I50" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="I50" s="19" t="s">
-        <v>186</v>
-      </c>
       <c r="J50" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -4258,34 +4255,34 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C51" t="s">
+        <v>186</v>
+      </c>
+      <c r="D51" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" t="s">
         <v>187</v>
       </c>
-      <c r="C51" t="s">
+      <c r="G51" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H51" t="s">
         <v>188</v>
       </c>
-      <c r="D51" t="s">
-        <v>25</v>
-      </c>
-      <c r="E51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="I51" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H51" t="s">
-        <v>190</v>
-      </c>
-      <c r="I51" s="22" t="s">
-        <v>191</v>
-      </c>
       <c r="J51" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -4293,19 +4290,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C52" t="s">
+        <v>191</v>
+      </c>
+      <c r="D52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="15" t="s">
         <v>192</v>
-      </c>
-      <c r="C52" t="s">
-        <v>193</v>
-      </c>
-      <c r="D52" t="s">
-        <v>25</v>
-      </c>
-      <c r="E52" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>194</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>19</v>
@@ -4314,10 +4311,10 @@
         <v>19</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>14</v>
@@ -4328,19 +4325,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C53" t="s">
+        <v>195</v>
+      </c>
+      <c r="D53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="15" t="s">
         <v>196</v>
-      </c>
-      <c r="C53" t="s">
-        <v>197</v>
-      </c>
-      <c r="D53" t="s">
-        <v>25</v>
-      </c>
-      <c r="E53" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>198</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>19</v>
@@ -4349,10 +4346,10 @@
         <v>19</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>14</v>
@@ -4363,19 +4360,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C54" t="s">
+        <v>199</v>
+      </c>
+      <c r="D54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="15" t="s">
         <v>200</v>
-      </c>
-      <c r="C54" t="s">
-        <v>201</v>
-      </c>
-      <c r="D54" t="s">
-        <v>25</v>
-      </c>
-      <c r="E54" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>202</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>19</v>
@@ -4384,10 +4381,10 @@
         <v>19</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>14</v>
@@ -4398,34 +4395,34 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C55" t="s">
+        <v>203</v>
+      </c>
+      <c r="D55" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C55" t="s">
+      <c r="G55" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H55" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="D55" t="s">
-        <v>25</v>
-      </c>
-      <c r="E55" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="5" t="s">
+      <c r="I55" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H55" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="I55" s="26" t="s">
-        <v>208</v>
-      </c>
       <c r="J55" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="K55" s="11" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -4433,32 +4430,32 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C56" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -4466,34 +4463,34 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C57" t="s">
+        <v>210</v>
+      </c>
+      <c r="D57" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H57" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="C57" t="s">
-        <v>212</v>
-      </c>
-      <c r="D57" t="s">
-        <v>25</v>
-      </c>
-      <c r="E57" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="5" t="s">
+      <c r="I57" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H57" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="I57" s="26" t="s">
-        <v>208</v>
-      </c>
       <c r="J57" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="K57" s="11" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -4501,19 +4498,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C58" t="s">
+        <v>213</v>
+      </c>
+      <c r="D58" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" t="s">
         <v>214</v>
-      </c>
-      <c r="C58" t="s">
-        <v>215</v>
-      </c>
-      <c r="D58" t="s">
-        <v>25</v>
-      </c>
-      <c r="E58" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" t="s">
-        <v>216</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>19</v>
@@ -4522,10 +4519,10 @@
         <v>19</v>
       </c>
       <c r="I58" s="21" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>14</v>
@@ -4536,32 +4533,32 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C59" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K59" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -4569,32 +4566,32 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C60" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K60" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -4602,32 +4599,32 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C61" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E61" t="s">
         <v>11</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K61" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -4635,32 +4632,32 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C62" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E62" t="s">
         <v>11</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K62" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -4668,32 +4665,32 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C63" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E63" t="s">
         <v>11</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K63" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -4701,32 +4698,32 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C64" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E64" t="s">
         <v>11</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K64" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4734,19 +4731,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C65" t="s">
+        <v>227</v>
+      </c>
+      <c r="D65" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" t="s">
         <v>228</v>
-      </c>
-      <c r="C65" t="s">
-        <v>229</v>
-      </c>
-      <c r="D65" t="s">
-        <v>25</v>
-      </c>
-      <c r="E65" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" t="s">
-        <v>230</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>19</v>
@@ -4755,10 +4752,10 @@
         <v>19</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>14</v>
@@ -4769,34 +4766,34 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C66" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
       </c>
       <c r="F66" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I66" s="29" t="s">
         <v>418</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="I66" s="29" t="s">
-        <v>420</v>
-      </c>
       <c r="J66" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -4804,19 +4801,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C67" t="s">
+        <v>233</v>
+      </c>
+      <c r="D67" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" t="s">
         <v>234</v>
-      </c>
-      <c r="C67" t="s">
-        <v>235</v>
-      </c>
-      <c r="D67" t="s">
-        <v>25</v>
-      </c>
-      <c r="E67" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" t="s">
-        <v>236</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>19</v>
@@ -4825,10 +4822,10 @@
         <v>19</v>
       </c>
       <c r="I67" s="21" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>14</v>
@@ -4839,34 +4836,34 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C68" t="s">
+        <v>237</v>
+      </c>
+      <c r="D68" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C68" t="s">
+      <c r="G68" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H68" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="D68" t="s">
-        <v>25</v>
-      </c>
-      <c r="E68" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" s="5" t="s">
+      <c r="I68" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="G68" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="I68" s="19" t="s">
-        <v>242</v>
-      </c>
       <c r="J68" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -4874,19 +4871,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C69" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>19</v>
@@ -4895,10 +4892,10 @@
         <v>19</v>
       </c>
       <c r="I69" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>14</v>
@@ -4909,32 +4906,32 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C70" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K70" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -4942,34 +4939,34 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C71" t="s">
+        <v>434</v>
+      </c>
+      <c r="D71" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H71" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C71" t="s">
-        <v>436</v>
-      </c>
-      <c r="D71" t="s">
-        <v>25</v>
-      </c>
-      <c r="E71" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="5" t="s">
+      <c r="I71" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="G71" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="I71" s="22" t="s">
-        <v>251</v>
-      </c>
       <c r="J71" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4977,34 +4974,34 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>250</v>
+      </c>
+      <c r="C72" t="s">
+        <v>251</v>
+      </c>
+      <c r="D72" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="C72" t="s">
+      <c r="G72" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H72" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="D72" t="s">
-        <v>25</v>
-      </c>
-      <c r="E72" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="15" t="s">
+      <c r="I72" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="G72" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H72" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="I72" s="21" t="s">
-        <v>256</v>
-      </c>
       <c r="J72" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -5012,19 +5009,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C73" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D73" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>19</v>
@@ -5033,10 +5030,10 @@
         <v>19</v>
       </c>
       <c r="I73" s="21" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>14</v>
@@ -5047,34 +5044,34 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>257</v>
+      </c>
+      <c r="C74" t="s">
+        <v>258</v>
+      </c>
+      <c r="D74" t="s">
+        <v>24</v>
+      </c>
+      <c r="E74" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C74" t="s">
+      <c r="G74" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H74" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D74" t="s">
-        <v>25</v>
-      </c>
-      <c r="E74" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="5" t="s">
+      <c r="I74" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="G74" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="I74" s="22" t="s">
-        <v>263</v>
-      </c>
       <c r="J74" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -5082,19 +5079,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>262</v>
+      </c>
+      <c r="C75" t="s">
+        <v>263</v>
+      </c>
+      <c r="D75" t="s">
+        <v>24</v>
+      </c>
+      <c r="E75" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="15" t="s">
         <v>264</v>
-      </c>
-      <c r="C75" t="s">
-        <v>265</v>
-      </c>
-      <c r="D75" t="s">
-        <v>25</v>
-      </c>
-      <c r="E75" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" s="15" t="s">
-        <v>266</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>19</v>
@@ -5103,10 +5100,10 @@
         <v>19</v>
       </c>
       <c r="I75" s="21" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>14</v>
@@ -5117,19 +5114,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>266</v>
+      </c>
+      <c r="C76" t="s">
+        <v>267</v>
+      </c>
+      <c r="D76" t="s">
+        <v>24</v>
+      </c>
+      <c r="E76" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="15" t="s">
         <v>268</v>
-      </c>
-      <c r="C76" t="s">
-        <v>269</v>
-      </c>
-      <c r="D76" t="s">
-        <v>25</v>
-      </c>
-      <c r="E76" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="15" t="s">
-        <v>270</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>19</v>
@@ -5138,10 +5135,10 @@
         <v>19</v>
       </c>
       <c r="I76" s="21" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>14</v>
@@ -5152,19 +5149,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>270</v>
+      </c>
+      <c r="C77" t="s">
+        <v>271</v>
+      </c>
+      <c r="D77" t="s">
+        <v>24</v>
+      </c>
+      <c r="E77" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="15" t="s">
         <v>272</v>
-      </c>
-      <c r="C77" t="s">
-        <v>273</v>
-      </c>
-      <c r="D77" t="s">
-        <v>25</v>
-      </c>
-      <c r="E77" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="15" t="s">
-        <v>274</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>19</v>
@@ -5173,10 +5170,10 @@
         <v>19</v>
       </c>
       <c r="I77" s="21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>14</v>
@@ -5187,32 +5184,32 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C78" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E78" t="s">
         <v>11</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K78" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -5220,31 +5217,31 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C79" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D79" t="s">
+        <v>24</v>
+      </c>
+      <c r="E79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J79" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E79" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J79" s="2" t="s">
+      <c r="K79" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -5252,31 +5249,31 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C80" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D80" t="s">
+        <v>24</v>
+      </c>
+      <c r="E80" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J80" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E80" t="s">
-        <v>11</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J80" s="2" t="s">
+      <c r="K80" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -5284,34 +5281,34 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>280</v>
+      </c>
+      <c r="C81" t="s">
+        <v>281</v>
+      </c>
+      <c r="D81" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C81" t="s">
+      <c r="G81" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H81" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D81" t="s">
-        <v>25</v>
-      </c>
-      <c r="E81" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="1" t="s">
+      <c r="I81" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="G81" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="I81" s="22" t="s">
-        <v>286</v>
-      </c>
       <c r="J81" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -5319,34 +5316,34 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>285</v>
+      </c>
+      <c r="C82" t="s">
+        <v>286</v>
+      </c>
+      <c r="D82" t="s">
+        <v>24</v>
+      </c>
+      <c r="E82" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C82" t="s">
+      <c r="G82" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H82" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="D82" t="s">
-        <v>25</v>
-      </c>
-      <c r="E82" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" s="15" t="s">
+      <c r="I82" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="G82" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H82" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="I82" s="21" t="s">
-        <v>291</v>
-      </c>
       <c r="J82" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -5354,34 +5351,34 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>290</v>
+      </c>
+      <c r="C83" t="s">
+        <v>435</v>
+      </c>
+      <c r="D83" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" t="s">
+        <v>291</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H83" t="s">
         <v>292</v>
       </c>
-      <c r="C83" t="s">
-        <v>437</v>
-      </c>
-      <c r="D83" t="s">
-        <v>25</v>
-      </c>
-      <c r="E83" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" t="s">
+      <c r="I83" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="G83" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H83" t="s">
-        <v>294</v>
-      </c>
-      <c r="I83" s="22" t="s">
-        <v>295</v>
-      </c>
       <c r="J83" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -5389,19 +5386,19 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>294</v>
+      </c>
+      <c r="C84" t="s">
+        <v>295</v>
+      </c>
+      <c r="D84" t="s">
+        <v>24</v>
+      </c>
+      <c r="E84" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="15" t="s">
         <v>296</v>
-      </c>
-      <c r="C84" t="s">
-        <v>297</v>
-      </c>
-      <c r="D84" t="s">
-        <v>25</v>
-      </c>
-      <c r="E84" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="15" t="s">
-        <v>298</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>19</v>
@@ -5410,10 +5407,10 @@
         <v>19</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>14</v>
@@ -5424,32 +5421,32 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C85" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D85" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K85" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -5457,31 +5454,31 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C86" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D86" t="s">
+        <v>24</v>
+      </c>
+      <c r="E86" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J86" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E86" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J86" s="2" t="s">
+      <c r="K86" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -5489,19 +5486,19 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>302</v>
+      </c>
+      <c r="C87" t="s">
+        <v>303</v>
+      </c>
+      <c r="D87" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" t="s">
         <v>304</v>
-      </c>
-      <c r="C87" t="s">
-        <v>305</v>
-      </c>
-      <c r="D87" t="s">
-        <v>25</v>
-      </c>
-      <c r="E87" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" t="s">
-        <v>306</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>19</v>
@@ -5510,10 +5507,10 @@
         <v>19</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>14</v>
@@ -5524,32 +5521,32 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C88" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D88" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E88" t="s">
         <v>11</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K88" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K88" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -5557,32 +5554,32 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C89" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D89" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E89" t="s">
         <v>11</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K89" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K89" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -5590,34 +5587,34 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>310</v>
+      </c>
+      <c r="C90" t="s">
+        <v>436</v>
+      </c>
+      <c r="D90" t="s">
+        <v>24</v>
+      </c>
+      <c r="E90" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H90" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C90" t="s">
-        <v>438</v>
-      </c>
-      <c r="D90" t="s">
-        <v>25</v>
-      </c>
-      <c r="E90" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" s="1" t="s">
+      <c r="I90" s="23" t="s">
         <v>313</v>
       </c>
-      <c r="G90" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="I90" s="23" t="s">
-        <v>315</v>
-      </c>
       <c r="J90" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -5625,32 +5622,32 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C91" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D91" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E91" t="s">
         <v>11</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K91" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K91" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -5658,32 +5655,32 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C92" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D92" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E92" t="s">
         <v>11</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K92" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K92" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -5691,34 +5688,34 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>318</v>
+      </c>
+      <c r="C93" t="s">
+        <v>319</v>
+      </c>
+      <c r="D93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E93" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C93" t="s">
+      <c r="G93" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H93" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D93" t="s">
-        <v>25</v>
-      </c>
-      <c r="E93" t="s">
-        <v>11</v>
-      </c>
-      <c r="F93" s="2" t="s">
+      <c r="I93" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="G93" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="I93" s="7" t="s">
-        <v>324</v>
-      </c>
       <c r="J93" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -5726,19 +5723,19 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>323</v>
+      </c>
+      <c r="C94" t="s">
+        <v>324</v>
+      </c>
+      <c r="D94" t="s">
+        <v>24</v>
+      </c>
+      <c r="E94" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="15" t="s">
         <v>325</v>
-      </c>
-      <c r="C94" t="s">
-        <v>326</v>
-      </c>
-      <c r="D94" t="s">
-        <v>25</v>
-      </c>
-      <c r="E94" t="s">
-        <v>11</v>
-      </c>
-      <c r="F94" s="15" t="s">
-        <v>327</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>19</v>
@@ -5747,10 +5744,10 @@
         <v>19</v>
       </c>
       <c r="I94" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>14</v>
@@ -5761,34 +5758,34 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>327</v>
+      </c>
+      <c r="C95" t="s">
+        <v>328</v>
+      </c>
+      <c r="D95" t="s">
+        <v>24</v>
+      </c>
+      <c r="E95" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" t="s">
         <v>329</v>
       </c>
-      <c r="C95" t="s">
+      <c r="G95" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H95" t="s">
         <v>330</v>
       </c>
-      <c r="D95" t="s">
-        <v>25</v>
-      </c>
-      <c r="E95" t="s">
-        <v>11</v>
-      </c>
-      <c r="F95" t="s">
+      <c r="I95" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="G95" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H95" t="s">
-        <v>332</v>
-      </c>
-      <c r="I95" s="19" t="s">
-        <v>333</v>
-      </c>
       <c r="J95" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -5796,34 +5793,34 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>332</v>
+      </c>
+      <c r="C96" t="s">
+        <v>333</v>
+      </c>
+      <c r="D96" t="s">
+        <v>24</v>
+      </c>
+      <c r="E96" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="C96" t="s">
+      <c r="G96" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H96" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D96" t="s">
-        <v>25</v>
-      </c>
-      <c r="E96" t="s">
-        <v>11</v>
-      </c>
-      <c r="F96" s="5" t="s">
+      <c r="I96" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="G96" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H96" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="I96" s="22" t="s">
-        <v>338</v>
-      </c>
       <c r="J96" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -5831,34 +5828,34 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>337</v>
+      </c>
+      <c r="C97" t="s">
+        <v>338</v>
+      </c>
+      <c r="D97" t="s">
+        <v>24</v>
+      </c>
+      <c r="E97" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" t="s">
         <v>339</v>
       </c>
-      <c r="C97" t="s">
+      <c r="G97" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H97" t="s">
         <v>340</v>
       </c>
-      <c r="D97" t="s">
-        <v>25</v>
-      </c>
-      <c r="E97" t="s">
-        <v>11</v>
-      </c>
-      <c r="F97" t="s">
+      <c r="I97" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="G97" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H97" t="s">
-        <v>342</v>
-      </c>
-      <c r="I97" s="22" t="s">
-        <v>343</v>
-      </c>
       <c r="J97" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -5866,19 +5863,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>342</v>
+      </c>
+      <c r="C98" t="s">
+        <v>343</v>
+      </c>
+      <c r="D98" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="15" t="s">
         <v>344</v>
-      </c>
-      <c r="C98" t="s">
-        <v>345</v>
-      </c>
-      <c r="D98" t="s">
-        <v>25</v>
-      </c>
-      <c r="E98" t="s">
-        <v>11</v>
-      </c>
-      <c r="F98" s="15" t="s">
-        <v>346</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>19</v>
@@ -5887,10 +5884,10 @@
         <v>19</v>
       </c>
       <c r="I98" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>14</v>
@@ -5901,31 +5898,31 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C99" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D99" t="s">
+        <v>24</v>
+      </c>
+      <c r="E99" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J99" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E99" t="s">
-        <v>11</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J99" s="2" t="s">
+      <c r="K99" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K99" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -5933,32 +5930,32 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C100" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D100" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E100" t="s">
         <v>11</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K100" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K100" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -5966,19 +5963,19 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>350</v>
+      </c>
+      <c r="C101" t="s">
+        <v>351</v>
+      </c>
+      <c r="D101" t="s">
+        <v>24</v>
+      </c>
+      <c r="E101" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" s="15" t="s">
         <v>352</v>
-      </c>
-      <c r="C101" t="s">
-        <v>353</v>
-      </c>
-      <c r="D101" t="s">
-        <v>25</v>
-      </c>
-      <c r="E101" t="s">
-        <v>11</v>
-      </c>
-      <c r="F101" s="15" t="s">
-        <v>354</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>19</v>
@@ -5987,10 +5984,10 @@
         <v>19</v>
       </c>
       <c r="I101" s="21" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K101" s="2" t="s">
         <v>14</v>
@@ -6001,34 +5998,34 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
+        <v>354</v>
+      </c>
+      <c r="C102" t="s">
+        <v>355</v>
+      </c>
+      <c r="D102" t="s">
+        <v>24</v>
+      </c>
+      <c r="E102" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C102" t="s">
+      <c r="G102" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H102" t="s">
         <v>357</v>
       </c>
-      <c r="D102" t="s">
-        <v>25</v>
-      </c>
-      <c r="E102" t="s">
-        <v>11</v>
-      </c>
-      <c r="F102" s="2" t="s">
+      <c r="I102" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="G102" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H102" t="s">
-        <v>359</v>
-      </c>
-      <c r="I102" s="7" t="s">
-        <v>360</v>
-      </c>
       <c r="J102" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -6036,34 +6033,34 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>359</v>
+      </c>
+      <c r="C103" t="s">
+        <v>360</v>
+      </c>
+      <c r="D103" t="s">
+        <v>24</v>
+      </c>
+      <c r="E103" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" t="s">
         <v>361</v>
       </c>
-      <c r="C103" t="s">
+      <c r="G103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H103" t="s">
         <v>362</v>
       </c>
-      <c r="D103" t="s">
-        <v>25</v>
-      </c>
-      <c r="E103" t="s">
-        <v>11</v>
-      </c>
-      <c r="F103" t="s">
+      <c r="I103" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="G103" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H103" t="s">
-        <v>364</v>
-      </c>
-      <c r="I103" s="7" t="s">
-        <v>365</v>
-      </c>
       <c r="J103" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -6071,32 +6068,32 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C104" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D104" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E104" t="s">
         <v>11</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K104" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K104" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -6104,19 +6101,19 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>366</v>
+      </c>
+      <c r="C105" t="s">
+        <v>367</v>
+      </c>
+      <c r="D105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E105" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" s="15" t="s">
         <v>368</v>
-      </c>
-      <c r="C105" t="s">
-        <v>369</v>
-      </c>
-      <c r="D105" t="s">
-        <v>25</v>
-      </c>
-      <c r="E105" t="s">
-        <v>11</v>
-      </c>
-      <c r="F105" s="15" t="s">
-        <v>370</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>19</v>
@@ -6125,10 +6122,10 @@
         <v>19</v>
       </c>
       <c r="I105" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>14</v>
@@ -6139,19 +6136,19 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
+        <v>370</v>
+      </c>
+      <c r="C106" t="s">
+        <v>371</v>
+      </c>
+      <c r="D106" t="s">
+        <v>24</v>
+      </c>
+      <c r="E106" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" t="s">
         <v>372</v>
-      </c>
-      <c r="C106" t="s">
-        <v>373</v>
-      </c>
-      <c r="D106" t="s">
-        <v>25</v>
-      </c>
-      <c r="E106" t="s">
-        <v>11</v>
-      </c>
-      <c r="F106" t="s">
-        <v>374</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>19</v>
@@ -6160,10 +6157,10 @@
         <v>19</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>14</v>
@@ -6174,31 +6171,31 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C107" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D107" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J107" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E107" t="s">
-        <v>11</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J107" s="2" t="s">
+      <c r="K107" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K107" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -6206,31 +6203,31 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C108" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D108" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J108" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E108" t="s">
-        <v>11</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J108" s="2" t="s">
+      <c r="K108" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K108" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -6238,31 +6235,31 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C109" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D109" t="s">
+        <v>24</v>
+      </c>
+      <c r="E109" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J109" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E109" t="s">
-        <v>11</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J109" s="2" t="s">
+      <c r="K109" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K109" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -6270,31 +6267,31 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C110" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D110" t="s">
+        <v>24</v>
+      </c>
+      <c r="E110" t="s">
+        <v>11</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J110" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E110" t="s">
-        <v>11</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J110" s="2" t="s">
+      <c r="K110" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K110" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -6302,32 +6299,32 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C111" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D111" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E111" t="s">
         <v>11</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K111" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K111" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -6335,32 +6332,32 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C112" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D112" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E112" t="s">
         <v>11</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K112" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K112" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -6368,32 +6365,32 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C113" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D113" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E113" t="s">
         <v>11</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K113" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K113" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -6401,32 +6398,32 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C114" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D114" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E114" t="s">
         <v>11</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K114" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K114" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -6434,32 +6431,32 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C115" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D115" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E115" t="s">
         <v>11</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K115" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K115" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -6467,32 +6464,32 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C116" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D116" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E116" t="s">
         <v>11</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K116" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K116" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -6500,32 +6497,32 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C117" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D117" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E117" t="s">
         <v>11</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K117" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K117" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -6533,32 +6530,32 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C118" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D118" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E118" t="s">
         <v>11</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K118" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K118" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -6566,31 +6563,31 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C119" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D119" t="s">
+        <v>24</v>
+      </c>
+      <c r="E119" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J119" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E119" t="s">
-        <v>11</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J119" s="2" t="s">
+      <c r="K119" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K119" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -6598,31 +6595,31 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C120" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D120" t="s">
+        <v>24</v>
+      </c>
+      <c r="E120" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J120" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E120" t="s">
-        <v>11</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J120" s="2" t="s">
+      <c r="K120" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K120" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -6630,31 +6627,31 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C121" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D121" t="s">
+        <v>24</v>
+      </c>
+      <c r="E121" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J121" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E121" t="s">
-        <v>11</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J121" s="2" t="s">
+      <c r="K121" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K121" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -6662,31 +6659,31 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C122" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D122" t="s">
+        <v>24</v>
+      </c>
+      <c r="E122" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J122" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E122" t="s">
-        <v>11</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J122" s="2" t="s">
+      <c r="K122" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K122" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -6694,31 +6691,31 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C123" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D123" t="s">
+        <v>24</v>
+      </c>
+      <c r="E123" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J123" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E123" t="s">
-        <v>11</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J123" s="2" t="s">
+      <c r="K123" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K123" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -6726,31 +6723,31 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C124" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D124" t="s">
+        <v>24</v>
+      </c>
+      <c r="E124" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J124" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E124" t="s">
-        <v>11</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J124" s="2" t="s">
+      <c r="K124" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K124" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -6758,31 +6755,31 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C125" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D125" t="s">
+        <v>24</v>
+      </c>
+      <c r="E125" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J125" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E125" t="s">
-        <v>11</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J125" s="2" t="s">
+      <c r="K125" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K125" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -6790,31 +6787,31 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C126" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D126" t="s">
+        <v>24</v>
+      </c>
+      <c r="E126" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J126" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E126" t="s">
-        <v>11</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J126" s="2" t="s">
+      <c r="K126" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K126" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -6822,31 +6819,31 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C127" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D127" t="s">
+        <v>24</v>
+      </c>
+      <c r="E127" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J127" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E127" t="s">
-        <v>11</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J127" s="2" t="s">
+      <c r="K127" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K127" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -6854,31 +6851,31 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C128" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D128" t="s">
+        <v>24</v>
+      </c>
+      <c r="E128" t="s">
+        <v>11</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J128" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E128" t="s">
-        <v>11</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J128" s="2" t="s">
+      <c r="K128" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K128" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6886,10 +6883,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C129" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D129" t="s">
         <v>17</v>
@@ -6898,16 +6895,16 @@
         <v>11</v>
       </c>
       <c r="F129" s="31" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H129">
         <v>5</v>
       </c>
       <c r="I129" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J129" s="32" t="s">
         <v>13</v>
@@ -6931,6 +6928,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -7171,18 +7180,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D83430-B9A7-4A2C-B4EE-815D2E60FBB3}">
   <ds:schemaRefs>
@@ -7192,6 +7189,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4056A9CA-2F02-448B-95FE-A9EC616FB2A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8FD927B-486E-4736-8E9F-ABBC39C726CA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7208,21 +7222,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4056A9CA-2F02-448B-95FE-A9EC616FB2A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>